--- a/6_Quality Appraisal/Quality_Appraisal.xlsx
+++ b/6_Quality Appraisal/Quality_Appraisal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/6_Quality Apprisal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/6_Quality Appraisal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6982A800-EB72-D047-9A0E-FD33113585C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032B15A-5793-374D-B694-AA5C024ADAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1420" windowWidth="47580" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1338">
   <si>
     <t>ID</t>
   </si>
@@ -3684,27 +3684,6 @@
   </si>
   <si>
     <t>Regression testing is crucial but can be extremely costly. Regression Test Selection (RTS) aims to reduce regression testing cost by only selecting and running the tests that may be affected by code changes. To date, various RTS techniques analyzing at different granularities (e.g., at the basic-block, method, and file levels) have been proposed. RTS techniques working on finer granularities may be more precise in selecting tests, while techniques working on coarser granularities may have lower overhead. According to a recent study, RTS at the file level (FRTS) can have less overall testing time compared with a finer grained technique at the method level, and represents state-of-the-art RTS. In this paper, we present the first hybrid RTS approach, HyRTS, that analyzes at multiple granularities to combine the strengths of traditional RTS techniques at different granularities. We implemented the basic HyRTS technique by combining the method and file granularity RTS. The experimental results on 2707 revisions of 32 projects, totalling over 124 Million LoC, demonstrate that HyRTS outperforms state-of-the-art FRTS significantly in terms of selected test ratio and the offline testing time. We also studied the impacts of each type of method-level changes, and further designed two new HyRTS variants based on the study results. Our additional experiments show that transforming instance method additions/deletions into file-level changes produces an even more effective HyRTS variant that can significantly outperform FRTS in both offline and online testing time.</t>
-  </si>
-  <si>
-    <t>R Greca, B Miranda, A Bertolino</t>
-  </si>
-  <si>
-    <t>ACM Computing Surveys, 2023</t>
-  </si>
-  <si>
-    <t>State of practical applicability of regression testing research: A live systematic literature review</t>
-  </si>
-  <si>
-    <t>Context
-Software regression testing refers to rerunning test cases after the system under test is modified, ascertaining that the changes have not (re-)introduced failures. Not all researchers’ approaches consider applicability and scalability concerns, and not many have produced an impact in practice.
-Objective
-One goal is to investigate industrial relevance and applicability of proposed approaches. Another is providing a live review, open to continuous updates by the community.
-Method
-A systematic review of regression testing studies that are clearly motivated by or validated against industrial relevance and applicability is conducted. It is complemented by follow-up surveys with authors of the selected papers and 23 practitioners.
-Results
-A set of 79 primary studies published between 2016–2022 is collected and classified according to approaches and metrics. Aspects relative to their relevance and impact are discussed, also based on their authors’ feedback. All the data are made available from the live repository that accompanies the study.
-Conclusions
-While widely motivated by industrial relevance and applicability, not many approaches are evaluated in industrial or large-scale open-source systems, and even fewer approaches have been adopted in practice. Some challenges hindering the implementation of relevant approaches are synthesized, also based on the practitioners’ feedback.</t>
   </si>
   <si>
     <t>Shouvick Mondal, Rupesh Nasre</t>
@@ -4499,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ210"/>
+  <dimension ref="A1:AQ209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4629,13 +4608,13 @@
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
@@ -4679,7 +4658,7 @@
         <v>952</v>
       </c>
       <c r="AO2" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.2">
@@ -4726,7 +4705,7 @@
         <v>953</v>
       </c>
       <c r="AO3" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.2">
@@ -4770,7 +4749,7 @@
         <v>953</v>
       </c>
       <c r="AO4" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.2">
@@ -4814,7 +4793,7 @@
         <v>953</v>
       </c>
       <c r="AO5" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.2">
@@ -4858,7 +4837,7 @@
         <v>952</v>
       </c>
       <c r="AO6" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.2">
@@ -4908,7 +4887,7 @@
         <v>953</v>
       </c>
       <c r="AO7" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.2">
@@ -4952,7 +4931,7 @@
         <v>952</v>
       </c>
       <c r="AO8" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.2">
@@ -4996,7 +4975,7 @@
         <v>953</v>
       </c>
       <c r="AO9" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.2">
@@ -5040,7 +5019,7 @@
         <v>953</v>
       </c>
       <c r="AO10" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.2">
@@ -5087,7 +5066,7 @@
         <v>954</v>
       </c>
       <c r="AO11" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.2">
@@ -5131,7 +5110,7 @@
         <v>953</v>
       </c>
       <c r="AO12" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.2">
@@ -5175,7 +5154,7 @@
         <v>952</v>
       </c>
       <c r="AO13" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.2">
@@ -5219,7 +5198,7 @@
         <v>953</v>
       </c>
       <c r="AO14" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.2">
@@ -5263,7 +5242,7 @@
         <v>953</v>
       </c>
       <c r="AO15" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.2">
@@ -5307,7 +5286,7 @@
         <v>953</v>
       </c>
       <c r="AO16" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -5351,7 +5330,7 @@
         <v>953</v>
       </c>
       <c r="AO17" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
@@ -5395,7 +5374,7 @@
         <v>953</v>
       </c>
       <c r="AO18" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
@@ -5439,7 +5418,7 @@
         <v>953</v>
       </c>
       <c r="AO19" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
@@ -5483,7 +5462,7 @@
         <v>953</v>
       </c>
       <c r="AO20" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -5527,7 +5506,7 @@
         <v>953</v>
       </c>
       <c r="AO21" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -5571,7 +5550,7 @@
         <v>953</v>
       </c>
       <c r="AO22" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
@@ -5615,7 +5594,7 @@
         <v>953</v>
       </c>
       <c r="AO23" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
@@ -5659,7 +5638,7 @@
         <v>953</v>
       </c>
       <c r="AO24" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
@@ -5703,7 +5682,7 @@
         <v>953</v>
       </c>
       <c r="AO25" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
@@ -5747,7 +5726,7 @@
         <v>953</v>
       </c>
       <c r="AO26" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
@@ -5791,7 +5770,7 @@
         <v>953</v>
       </c>
       <c r="AO27" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
@@ -5838,7 +5817,7 @@
         <v>953</v>
       </c>
       <c r="AO28" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
@@ -5882,7 +5861,7 @@
         <v>953</v>
       </c>
       <c r="AO29" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -5926,7 +5905,7 @@
         <v>953</v>
       </c>
       <c r="AO30" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -5970,7 +5949,7 @@
         <v>953</v>
       </c>
       <c r="AO31" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
@@ -6014,7 +5993,7 @@
         <v>953</v>
       </c>
       <c r="AO32" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
@@ -6058,7 +6037,7 @@
         <v>953</v>
       </c>
       <c r="AO33" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -6102,7 +6081,7 @@
         <v>952</v>
       </c>
       <c r="AO34" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
@@ -6152,7 +6131,7 @@
         <v>953</v>
       </c>
       <c r="AO35" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
@@ -6196,7 +6175,7 @@
         <v>953</v>
       </c>
       <c r="AO36" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
@@ -6240,7 +6219,7 @@
         <v>953</v>
       </c>
       <c r="AO37" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
@@ -6284,7 +6263,7 @@
         <v>953</v>
       </c>
       <c r="AO38" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
@@ -6328,7 +6307,7 @@
         <v>953</v>
       </c>
       <c r="AO39" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
@@ -6372,7 +6351,7 @@
         <v>953</v>
       </c>
       <c r="AO40" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -6416,7 +6395,7 @@
         <v>953</v>
       </c>
       <c r="AO41" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
@@ -6460,7 +6439,7 @@
         <v>953</v>
       </c>
       <c r="AO42" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
@@ -6501,7 +6480,7 @@
         <v>953</v>
       </c>
       <c r="AO43" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
@@ -6545,7 +6524,7 @@
         <v>953</v>
       </c>
       <c r="AO44" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
@@ -6595,7 +6574,7 @@
         <v>953</v>
       </c>
       <c r="AO45" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
@@ -6642,7 +6621,7 @@
         <v>953</v>
       </c>
       <c r="AO46" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
@@ -6689,7 +6668,7 @@
         <v>953</v>
       </c>
       <c r="AO47" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
@@ -6733,7 +6712,7 @@
         <v>953</v>
       </c>
       <c r="AO48" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
@@ -6783,7 +6762,7 @@
         <v>953</v>
       </c>
       <c r="AO49" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
@@ -6827,7 +6806,7 @@
         <v>953</v>
       </c>
       <c r="AO50" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
@@ -6918,7 +6897,7 @@
         <v>953</v>
       </c>
       <c r="AO52" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
@@ -6962,7 +6941,7 @@
         <v>953</v>
       </c>
       <c r="AO53" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
@@ -7003,7 +6982,7 @@
         <v>953</v>
       </c>
       <c r="AO54" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
@@ -7047,7 +7026,7 @@
         <v>953</v>
       </c>
       <c r="AO55" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
@@ -7091,7 +7070,7 @@
         <v>953</v>
       </c>
       <c r="AO56" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
@@ -7138,7 +7117,7 @@
         <v>953</v>
       </c>
       <c r="AO57" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
@@ -7185,7 +7164,7 @@
         <v>953</v>
       </c>
       <c r="AO58" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
@@ -7229,7 +7208,7 @@
         <v>953</v>
       </c>
       <c r="AO59" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
@@ -7276,7 +7255,7 @@
         <v>953</v>
       </c>
       <c r="AO60" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
@@ -7320,7 +7299,7 @@
         <v>953</v>
       </c>
       <c r="AO61" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
@@ -7367,7 +7346,7 @@
         <v>953</v>
       </c>
       <c r="AO62" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
@@ -7414,7 +7393,7 @@
         <v>953</v>
       </c>
       <c r="AO63" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
@@ -7458,7 +7437,7 @@
         <v>953</v>
       </c>
       <c r="AO64" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.2">
@@ -7546,7 +7525,7 @@
         <v>953</v>
       </c>
       <c r="AO66" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.2">
@@ -7637,7 +7616,7 @@
         <v>953</v>
       </c>
       <c r="AO68" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.2">
@@ -7681,7 +7660,7 @@
         <v>953</v>
       </c>
       <c r="AO69" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.2">
@@ -7725,7 +7704,7 @@
         <v>953</v>
       </c>
       <c r="AO70" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.2">
@@ -7819,7 +7798,7 @@
         <v>953</v>
       </c>
       <c r="AO72" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.2">
@@ -7863,7 +7842,7 @@
         <v>953</v>
       </c>
       <c r="AO73" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.2">
@@ -7910,7 +7889,7 @@
         <v>953</v>
       </c>
       <c r="AO74" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.2">
@@ -7957,7 +7936,7 @@
         <v>953</v>
       </c>
       <c r="AO75" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.2">
@@ -8048,7 +8027,7 @@
         <v>953</v>
       </c>
       <c r="AO77" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.2">
@@ -8092,7 +8071,7 @@
         <v>953</v>
       </c>
       <c r="AO78" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.2">
@@ -8180,7 +8159,7 @@
         <v>953</v>
       </c>
       <c r="AO80" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.2">
@@ -8230,7 +8209,7 @@
         <v>953</v>
       </c>
       <c r="AO81" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.2">
@@ -8365,7 +8344,7 @@
         <v>953</v>
       </c>
       <c r="AO84" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.2">
@@ -8409,7 +8388,7 @@
         <v>953</v>
       </c>
       <c r="AO85" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.2">
@@ -8456,7 +8435,7 @@
         <v>953</v>
       </c>
       <c r="AO86" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.2">
@@ -8503,7 +8482,7 @@
         <v>953</v>
       </c>
       <c r="AO87" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.2">
@@ -8547,7 +8526,7 @@
         <v>953</v>
       </c>
       <c r="AO88" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.2">
@@ -8591,7 +8570,7 @@
         <v>953</v>
       </c>
       <c r="AO89" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.2">
@@ -8632,7 +8611,7 @@
         <v>953</v>
       </c>
       <c r="AO90" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.2">
@@ -8726,7 +8705,7 @@
         <v>953</v>
       </c>
       <c r="AO92" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.2">
@@ -8770,7 +8749,7 @@
         <v>953</v>
       </c>
       <c r="AO93" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.2">
@@ -8814,7 +8793,7 @@
         <v>953</v>
       </c>
       <c r="AO94" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.2">
@@ -8858,7 +8837,7 @@
         <v>953</v>
       </c>
       <c r="AO95" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.2">
@@ -8902,7 +8881,7 @@
         <v>953</v>
       </c>
       <c r="AO96" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.2">
@@ -8946,7 +8925,7 @@
         <v>952</v>
       </c>
       <c r="AO97" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.2">
@@ -8996,7 +8975,7 @@
         <v>953</v>
       </c>
       <c r="AO98" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.2">
@@ -9099,7 +9078,7 @@
         <v>953</v>
       </c>
       <c r="AO100" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.2">
@@ -9681,7 +9660,7 @@
         <v>953</v>
       </c>
       <c r="AO112" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="113" spans="3:41" x14ac:dyDescent="0.2">
@@ -9727,7 +9706,7 @@
         <v>953</v>
       </c>
       <c r="AO114" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="115" spans="3:41" x14ac:dyDescent="0.2">
@@ -9773,7 +9752,7 @@
         <v>952</v>
       </c>
       <c r="AO116" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="117" spans="3:41" x14ac:dyDescent="0.2">
@@ -9796,7 +9775,7 @@
         <v>953</v>
       </c>
       <c r="AO117" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="118" spans="3:41" x14ac:dyDescent="0.2">
@@ -9842,7 +9821,7 @@
         <v>952</v>
       </c>
       <c r="AO119" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="120" spans="3:41" x14ac:dyDescent="0.2">
@@ -9934,7 +9913,7 @@
         <v>953</v>
       </c>
       <c r="AO123" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="124" spans="3:41" x14ac:dyDescent="0.2">
@@ -10026,7 +10005,7 @@
         <v>952</v>
       </c>
       <c r="AO127" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="128" spans="3:41" x14ac:dyDescent="0.2">
@@ -10095,7 +10074,7 @@
         <v>953</v>
       </c>
       <c r="AO130" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="131" spans="3:41" x14ac:dyDescent="0.2">
@@ -10118,7 +10097,7 @@
         <v>953</v>
       </c>
       <c r="AO131" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="132" spans="3:41" x14ac:dyDescent="0.2">
@@ -10141,7 +10120,7 @@
         <v>954</v>
       </c>
       <c r="AO132" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="133" spans="3:41" x14ac:dyDescent="0.2">
@@ -10187,7 +10166,7 @@
         <v>953</v>
       </c>
       <c r="AO134" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="135" spans="3:41" x14ac:dyDescent="0.2">
@@ -10210,7 +10189,7 @@
         <v>953</v>
       </c>
       <c r="AO135" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="136" spans="3:41" x14ac:dyDescent="0.2">
@@ -10233,7 +10212,7 @@
         <v>953</v>
       </c>
       <c r="AO136" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="137" spans="3:41" x14ac:dyDescent="0.2">
@@ -10302,7 +10281,7 @@
         <v>953</v>
       </c>
       <c r="AO139" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="140" spans="3:41" x14ac:dyDescent="0.2">
@@ -10371,7 +10350,7 @@
         <v>953</v>
       </c>
       <c r="AO142" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="143" spans="3:41" x14ac:dyDescent="0.2">
@@ -10394,7 +10373,7 @@
         <v>953</v>
       </c>
       <c r="AO143" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="144" spans="3:41" x14ac:dyDescent="0.2">
@@ -10440,7 +10419,7 @@
         <v>953</v>
       </c>
       <c r="AO145" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="146" spans="3:41" x14ac:dyDescent="0.2">
@@ -10532,7 +10511,7 @@
         <v>953</v>
       </c>
       <c r="AO149" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="150" spans="3:41" x14ac:dyDescent="0.2">
@@ -10578,7 +10557,7 @@
         <v>953</v>
       </c>
       <c r="AO151" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="152" spans="3:41" x14ac:dyDescent="0.2">
@@ -10624,7 +10603,7 @@
         <v>953</v>
       </c>
       <c r="AO153" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="154" spans="3:41" x14ac:dyDescent="0.2">
@@ -10716,7 +10695,7 @@
         <v>953</v>
       </c>
       <c r="AO157" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="158" spans="3:41" x14ac:dyDescent="0.2">
@@ -10785,7 +10764,7 @@
         <v>953</v>
       </c>
       <c r="AO160" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="161" spans="3:41" x14ac:dyDescent="0.2">
@@ -10808,7 +10787,7 @@
         <v>953</v>
       </c>
       <c r="AO161" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="162" spans="3:41" x14ac:dyDescent="0.2">
@@ -10946,7 +10925,7 @@
         <v>953</v>
       </c>
       <c r="AO167" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="168" spans="3:41" x14ac:dyDescent="0.2">
@@ -10969,7 +10948,7 @@
         <v>953</v>
       </c>
       <c r="AO168" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="169" spans="3:41" x14ac:dyDescent="0.2">
@@ -10992,7 +10971,7 @@
         <v>953</v>
       </c>
       <c r="AO169" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="170" spans="3:41" x14ac:dyDescent="0.2">
@@ -11038,7 +11017,7 @@
         <v>953</v>
       </c>
       <c r="AO171" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="172" spans="3:41" x14ac:dyDescent="0.2">
@@ -11061,7 +11040,7 @@
         <v>953</v>
       </c>
       <c r="AO172" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="173" spans="3:41" x14ac:dyDescent="0.2">
@@ -11084,7 +11063,7 @@
         <v>953</v>
       </c>
       <c r="AO173" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="174" spans="3:41" x14ac:dyDescent="0.2">
@@ -11161,19 +11140,19 @@
         <v>1206</v>
       </c>
       <c r="D177" t="s">
+        <v>823</v>
+      </c>
+      <c r="E177" t="s">
         <v>1207</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177">
+        <v>2021</v>
+      </c>
+      <c r="J177" t="s">
         <v>1208</v>
       </c>
-      <c r="F177">
-        <v>2023</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1209</v>
-      </c>
       <c r="AN177" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AO177">
         <v>1</v>
@@ -11181,16 +11160,16 @@
     </row>
     <row r="178" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D178" t="s">
         <v>1210</v>
-      </c>
-      <c r="D178" t="s">
-        <v>823</v>
       </c>
       <c r="E178" t="s">
         <v>1211</v>
       </c>
       <c r="F178">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J178" t="s">
         <v>1212</v>
@@ -11213,16 +11192,16 @@
         <v>1215</v>
       </c>
       <c r="F179">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J179" t="s">
         <v>1216</v>
       </c>
       <c r="AN179" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO179">
-        <v>1</v>
+        <v>952</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="180" spans="3:41" x14ac:dyDescent="0.2">
@@ -11236,16 +11215,16 @@
         <v>1219</v>
       </c>
       <c r="F180">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J180" t="s">
         <v>1220</v>
       </c>
       <c r="AN180" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AO180" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="181" spans="3:41" x14ac:dyDescent="0.2">
@@ -11268,7 +11247,7 @@
         <v>953</v>
       </c>
       <c r="AO181" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="182" spans="3:41" x14ac:dyDescent="0.2">
@@ -11282,7 +11261,7 @@
         <v>1227</v>
       </c>
       <c r="F182">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J182" t="s">
         <v>1228</v>
@@ -11291,7 +11270,7 @@
         <v>953</v>
       </c>
       <c r="AO182" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="183" spans="3:41" x14ac:dyDescent="0.2">
@@ -11305,7 +11284,7 @@
         <v>1231</v>
       </c>
       <c r="F183">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J183" t="s">
         <v>1232</v>
@@ -11314,7 +11293,7 @@
         <v>953</v>
       </c>
       <c r="AO183" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="184" spans="3:41" x14ac:dyDescent="0.2">
@@ -11328,7 +11307,7 @@
         <v>1235</v>
       </c>
       <c r="F184">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="J184" t="s">
         <v>1236</v>
@@ -11337,7 +11316,7 @@
         <v>953</v>
       </c>
       <c r="AO184" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="185" spans="3:41" x14ac:dyDescent="0.2">
@@ -11351,16 +11330,16 @@
         <v>1239</v>
       </c>
       <c r="F185">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J185" t="s">
         <v>1240</v>
       </c>
       <c r="AN185" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AO185" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="186" spans="3:41" x14ac:dyDescent="0.2">
@@ -11380,10 +11359,10 @@
         <v>1244</v>
       </c>
       <c r="AN186" t="s">
-        <v>954</v>
-      </c>
-      <c r="AO186" t="s">
-        <v>1336</v>
+        <v>952</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="3:41" x14ac:dyDescent="0.2">
@@ -11397,7 +11376,7 @@
         <v>1247</v>
       </c>
       <c r="F187">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J187" t="s">
         <v>1248</v>
@@ -11405,8 +11384,8 @@
       <c r="AN187" t="s">
         <v>952</v>
       </c>
-      <c r="AO187">
-        <v>1</v>
+      <c r="AO187" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="188" spans="3:41" x14ac:dyDescent="0.2">
@@ -11420,16 +11399,16 @@
         <v>1251</v>
       </c>
       <c r="F188">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="J188" t="s">
         <v>1252</v>
       </c>
       <c r="AN188" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO188" t="s">
-        <v>1338</v>
+        <v>953</v>
+      </c>
+      <c r="AO188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="3:41" x14ac:dyDescent="0.2">
@@ -11443,7 +11422,7 @@
         <v>1255</v>
       </c>
       <c r="F189">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="J189" t="s">
         <v>1256</v>
@@ -11451,8 +11430,8 @@
       <c r="AN189" t="s">
         <v>953</v>
       </c>
-      <c r="AO189">
-        <v>1</v>
+      <c r="AO189" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="190" spans="3:41" x14ac:dyDescent="0.2">
@@ -11466,7 +11445,7 @@
         <v>1259</v>
       </c>
       <c r="F190">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J190" t="s">
         <v>1260</v>
@@ -11475,7 +11454,7 @@
         <v>953</v>
       </c>
       <c r="AO190" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="191" spans="3:41" x14ac:dyDescent="0.2">
@@ -11498,7 +11477,7 @@
         <v>953</v>
       </c>
       <c r="AO191" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="192" spans="3:41" x14ac:dyDescent="0.2">
@@ -11512,7 +11491,7 @@
         <v>1267</v>
       </c>
       <c r="F192">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J192" t="s">
         <v>1268</v>
@@ -11520,8 +11499,8 @@
       <c r="AN192" t="s">
         <v>953</v>
       </c>
-      <c r="AO192" t="s">
-        <v>1337</v>
+      <c r="AO192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="3:41" x14ac:dyDescent="0.2">
@@ -11543,8 +11522,8 @@
       <c r="AN193" t="s">
         <v>953</v>
       </c>
-      <c r="AO193">
-        <v>1</v>
+      <c r="AO193" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="194" spans="3:41" x14ac:dyDescent="0.2">
@@ -11566,8 +11545,8 @@
       <c r="AN194" t="s">
         <v>953</v>
       </c>
-      <c r="AO194" t="s">
-        <v>1336</v>
+      <c r="AO194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="3:41" x14ac:dyDescent="0.2">
@@ -11581,7 +11560,7 @@
         <v>1279</v>
       </c>
       <c r="F195">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J195" t="s">
         <v>1280</v>
@@ -11589,8 +11568,8 @@
       <c r="AN195" t="s">
         <v>953</v>
       </c>
-      <c r="AO195">
-        <v>1</v>
+      <c r="AO195" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="196" spans="3:41" x14ac:dyDescent="0.2">
@@ -11604,7 +11583,7 @@
         <v>1283</v>
       </c>
       <c r="F196">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J196" t="s">
         <v>1284</v>
@@ -11613,7 +11592,7 @@
         <v>953</v>
       </c>
       <c r="AO196" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="197" spans="3:41" x14ac:dyDescent="0.2">
@@ -11627,7 +11606,7 @@
         <v>1287</v>
       </c>
       <c r="F197">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J197" t="s">
         <v>1288</v>
@@ -11635,8 +11614,8 @@
       <c r="AN197" t="s">
         <v>953</v>
       </c>
-      <c r="AO197" t="s">
-        <v>1337</v>
+      <c r="AO197">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="3:41" x14ac:dyDescent="0.2">
@@ -11673,7 +11652,7 @@
         <v>1295</v>
       </c>
       <c r="F199">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J199" t="s">
         <v>1296</v>
@@ -11696,7 +11675,7 @@
         <v>1299</v>
       </c>
       <c r="F200">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J200" t="s">
         <v>1300</v>
@@ -11713,16 +11692,16 @@
         <v>1301</v>
       </c>
       <c r="D201" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E201" t="s">
         <v>1302</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201">
+        <v>2023</v>
+      </c>
+      <c r="J201" t="s">
         <v>1303</v>
-      </c>
-      <c r="F201">
-        <v>2019</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1304</v>
       </c>
       <c r="AN201" t="s">
         <v>953</v>
@@ -11733,16 +11712,16 @@
     </row>
     <row r="202" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D202" t="s">
         <v>1305</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1290</v>
       </c>
       <c r="E202" t="s">
         <v>1306</v>
       </c>
       <c r="F202">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J202" t="s">
         <v>1307</v>
@@ -11750,8 +11729,8 @@
       <c r="AN202" t="s">
         <v>953</v>
       </c>
-      <c r="AO202">
-        <v>1</v>
+      <c r="AO202" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="203" spans="3:41" x14ac:dyDescent="0.2">
@@ -11762,42 +11741,42 @@
         <v>1309</v>
       </c>
       <c r="E203" t="s">
-        <v>1310</v>
+        <v>1207</v>
       </c>
       <c r="F203">
         <v>2021</v>
       </c>
       <c r="J203" t="s">
-        <v>1311</v>
+        <v>1208</v>
       </c>
       <c r="AN203" t="s">
         <v>953</v>
       </c>
-      <c r="AO203" t="s">
-        <v>1336</v>
+      <c r="AO203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E204" t="s">
         <v>1312</v>
       </c>
-      <c r="D204" t="s">
+      <c r="F204">
+        <v>2022</v>
+      </c>
+      <c r="J204" t="s">
         <v>1313</v>
       </c>
-      <c r="E204" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F204">
-        <v>2021</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1212</v>
-      </c>
       <c r="AN204" t="s">
         <v>953</v>
       </c>
-      <c r="AO204">
-        <v>1</v>
+      <c r="AO204" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="205" spans="3:41" x14ac:dyDescent="0.2">
@@ -11805,62 +11784,62 @@
         <v>1314</v>
       </c>
       <c r="D205" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E205" t="s">
         <v>1315</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205">
+        <v>2025</v>
+      </c>
+      <c r="J205" t="s">
         <v>1316</v>
       </c>
-      <c r="F205">
-        <v>2022</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1317</v>
-      </c>
       <c r="AN205" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AO205" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="206" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D206" t="s">
         <v>1318</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1339</v>
       </c>
       <c r="E206" t="s">
         <v>1319</v>
       </c>
       <c r="F206">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J206" t="s">
         <v>1320</v>
       </c>
       <c r="AN206" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO206" t="s">
-        <v>1337</v>
+        <v>953</v>
+      </c>
+      <c r="AO206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E207" t="s">
         <v>1321</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1323</v>
       </c>
       <c r="F207">
         <v>2024</v>
       </c>
       <c r="J207" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AN207" t="s">
         <v>953</v>
@@ -11869,72 +11848,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D208" t="s">
         <v>1326</v>
       </c>
-      <c r="D208" t="s">
-        <v>1053</v>
-      </c>
       <c r="E208" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F208">
-        <v>2024</v>
-      </c>
-      <c r="J208" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J208" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="AN208" t="s">
         <v>953</v>
       </c>
-      <c r="AO208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" t="s">
+      <c r="AO208" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="209" spans="3:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="3" t="s">
         <v>1329</v>
       </c>
       <c r="D209" t="s">
-        <v>1330</v>
+        <v>823</v>
       </c>
       <c r="E209" t="s">
         <v>1328</v>
       </c>
       <c r="F209">
-        <v>2020</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>1331</v>
+        <v>2015</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1330</v>
       </c>
       <c r="AN209" t="s">
         <v>953</v>
       </c>
-      <c r="AO209" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="210" spans="3:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D210" t="s">
-        <v>823</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F210">
-        <v>2015</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AN210" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO210">
+      <c r="AO209">
         <v>1</v>
       </c>
     </row>

--- a/6_Quality Appraisal/Quality_Appraisal.xlsx
+++ b/6_Quality Appraisal/Quality_Appraisal.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/6_Quality Appraisal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032B15A-5793-374D-B694-AA5C024ADAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4451F2F-3516-E141-89A5-58DA5C9DB1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1420" windowWidth="47580" windowHeight="22960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1314">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +185,6 @@
     <t>DOBSLAW2023111802</t>
   </si>
   <si>
-    <t>JUNG2019110419</t>
-  </si>
-  <si>
     <t>ZHANG2022111419</t>
   </si>
   <si>
@@ -502,9 +512,6 @@
     <t>Felix Dobslaw and Ruiyuan Wan and Yuechan Hao</t>
   </si>
   <si>
-    <t>Pilsu Jung and Sungwon Kang and Jihyun Lee</t>
-  </si>
-  <si>
     <t>Quanjun Zhang and Chunrong Fang and Weisong Sun and Shengcheng Yu and Yutao Xu and Yulei Liu</t>
   </si>
   <si>
@@ -1114,9 +1121,6 @@
     <t>Generic and industrial scale many-criteria regression test selection</t>
   </si>
   <si>
-    <t>Automated code-based test selection for software product line regression testing</t>
-  </si>
-  <si>
     <t>Test case prioritization using partial attention</t>
   </si>
   <si>
@@ -1405,9 +1409,6 @@
     <t>111802</t>
   </si>
   <si>
-    <t>110419</t>
-  </si>
-  <si>
     <t>111419</t>
   </si>
   <si>
@@ -1735,9 +1736,6 @@
     <t>While several test case selection algorithms (heuristic and optimal) and formulations (linear and non-linear) have been proposed, no multi-criteria framework enables Pareto search — the state-of-the-art approach of doing multi-criteria optimization. Therefore, we introduce the highly parallelizable, openly available Many-Criteria Test-Optimization Algorithm (MC-TOA) framework that combines heuristic Pareto search and optimality gap knowledge per criterion. MC-TOA is largely agnostic to the criteria formulations and can incorporate many criteria where existing approaches offer limited scope (single or few objectives/constraints), lack flexibility in the expression and assurance of constraints, or run into problem complexity issues. For two large-scale systems with up to six criteria and thousands of system test cases, MC-TOA not only produces, over the board, superior Pareto fronts in terms of HVI score compared to the state-of-the-art many-objective heuristic baseline, it also does that within minutes of runtime for worst-case executions, i.e., assuming that a regression affects the entire test-suite. MC-TOA depends on convex solvers. We find that the evaluated open-source solvers are slower but suffice for smaller systems, while being less robust for larger systems. Linear formulations execute faster and obtain near-optimal results, which led to faster and better overall convergence of MC-TOA compared to integer formulations. Editor’s note: Open Science material was validated by the Journal of Systems and Software Open Science Board.</t>
   </si>
   <si>
-    <t>Regression testing for software product lines (SPLs) is challenging and can be expensive because it must ensure that all the products of a product family are correct whenever changes are made. SPL regression testing can be made efficient through a test case selection method that selects only the test cases relevant to the changes. Some approaches for SPL test case selection have been proposed but either they were not efficient by requiring intervention from human experts or they cannot be used if requirements specifications, architecture and/or traceabilities for test cases are not available or partially eroded. To address these limitations, we propose an automated method of source code-based regression test selection for SPLs. Our method reduces the repetition of the selection procedure and minimizes the in-depth analysis effort for source code and test cases based on the commonality and variability of a product family. Evaluation results of our method using six product lines show that our method reduces the overall time to perform regression testing by 14.8% ∼ 49.1% on average compared to an approach of repetitively applying Ekstazi, which is the state-of-the-art regression test selection method for a single product, to each product of a product family.</t>
-  </si>
-  <si>
     <t>Test case prioritization (TCP) aims to reorder the regression test suite with a goal of increasing the fault detection rate. Various TCP techniques have been proposed based on different prioritization strategies. Among them, the greedy-based techniques are the most widely-used TCP techniques. However, existing greedy-based techniques usually reorder all candidate test cases in prioritization iterations, resulting in both efficiency and effectiveness problems. In this paper, we propose a generic partial attention mechanism, which adopts the previous priority values (i.e., the number of additionally-covered code units) to avoid considering all candidate test cases. Incorporating the mechanism with the additional-greedy strategy, we implement a novel coverage-based TCP technique based on partition ordering (OCP). OCP first groups the candidate test cases into different partitions and updates the partitions on the descending order. We conduct a comprehensive experiment on 19 versions of Java programs and 30 versions of C programs to compare the effectiveness and efficiency of OCP with six state-of-the-art TCP techniques: total-greedy, additional-greedy, lexicographical-greedy, unify-greedy, art-based, and search-based. The experimental results show that OCP achieves a better fault detection rate than the state-of-the-arts. Moreover, the time costs of OCP are found to achieve 85%–99% improvement than most state-of-the-arts.</t>
   </si>
   <si>
@@ -2065,9 +2063,6 @@
     <t>Software testing, Regression testing, Test case selection, Industrial-scale optimization</t>
   </si>
   <si>
-    <t>Product lines testing, Regression test selection, Software maintenance, Software evolution</t>
-  </si>
-  <si>
     <t>Software testing, Regression testing, Test case prioritization, Greedy algorithm</t>
   </si>
   <si>
@@ -2380,9 +2375,6 @@
     <t>https://doi.org/10.1016/j.jss.2023.111802</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.jss.2019.110419</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.jss.2022.111419</t>
   </si>
   <si>
@@ -2536,9 +2528,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0164121223001978</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0164121219301931</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0164121222001285</t>
   </si>
   <si>
@@ -2872,9 +2861,6 @@
     <t>generic and industrial scale many-criteria regression test selection while several test case selection algorithms (heuristic and optimal) and formulations (linear and non-linear) have been proposed, no multi-criteria framework enables pareto search — the state-of-the-art approach of doing multi-criteria optimization. therefore, we introduce the highly parallelizable, openly available many-criteria test-optimization algorithm (mc-toa) framework that combines heuristic pareto search and optimality gap knowledge per criterion. mc-toa is largely agnostic to the criteria formulations and can incorporate many criteria where existing approaches offer limited scope (single or few objectives/constraints), lack flexibility in the expression and assurance of constraints, or run into problem complexity issues. for two large-scale systems with up to six criteria and thousands of system test cases, mc-toa not only produces, over the board, superior pareto fronts in terms of hvi score compared to the state-of-the-art many-objective heuristic baseline, it also does that within minutes of runtime for worst-case executions, i.e., assuming that a regression affects the entire test-suite. mc-toa depends on convex solvers. we find that the evaluated open-source solvers are slower but suffice for smaller systems, while being less robust for larger systems. linear formulations execute faster and obtain near-optimal results, which led to faster and better overall convergence of mc-toa compared to integer formulations. editor’s note: open science material was validated by the journal of systems and software open science board.</t>
   </si>
   <si>
-    <t>automated code-based test selection for software product line regression testing regression testing for software product lines (spls) is challenging and can be expensive because it must ensure that all the products of a product family are correct whenever changes are made. spl regression testing can be made efficient through a test case selection method that selects only the test cases relevant to the changes. some approaches for spl test case selection have been proposed but either they were not efficient by requiring intervention from human experts or they cannot be used if requirements specifications, architecture and/or traceabilities for test cases are not available or partially eroded. to address these limitations, we propose an automated method of source code-based regression test selection for spls. our method reduces the repetition of the selection procedure and minimizes the in-depth analysis effort for source code and test cases based on the commonality and variability of a product family. evaluation results of our method using six product lines show that our method reduces the overall time to perform regression testing by 14.8% ∼ 49.1% on average compared to an approach of repetitively applying ekstazi, which is the state-of-the-art regression test selection method for a single product, to each product of a product family.</t>
-  </si>
-  <si>
     <t>test case prioritization using partial attention test case prioritization (tcp) aims to reorder the regression test suite with a goal of increasing the fault detection rate. various tcp techniques have been proposed based on different prioritization strategies. among them, the greedy-based techniques are the most widely-used tcp techniques. however, existing greedy-based techniques usually reorder all candidate test cases in prioritization iterations, resulting in both efficiency and effectiveness problems. in this paper, we propose a generic partial attention mechanism, which adopts the previous priority values (i.e., the number of additionally-covered code units) to avoid considering all candidate test cases. incorporating the mechanism with the additional-greedy strategy, we implement a novel coverage-based tcp technique based on partition ordering (ocp). ocp first groups the candidate test cases into different partitions and updates the partitions on the descending order. we conduct a comprehensive experiment on 19 versions of java programs and 30 versions of c programs to compare the effectiveness and efficiency of ocp with six state-of-the-art tcp techniques: total-greedy, additional-greedy, lexicographical-greedy, unify-greedy, art-based, and search-based. the experimental results show that ocp achieves a better fault detection rate than the state-of-the-arts. moreover, the time costs of ocp are found to achieve 85%–99% improvement than most state-of-the-arts.</t>
   </si>
   <si>
@@ -2909,18 +2895,6 @@
   </si>
   <si>
     <t>Software quality can be assured by going through software testing process. However, software testing phase is an expensive process as it consumes a longer time. By scheduling test cases execution order through a prioritization approach, software testing efficiency can be improved especially during regression testing. It is a notable step to be taken in constructing important software testing environment so that a system's commercial value can increase. The main idea of this review is to examine and classify the current test case prioritization approaches based on the articulated research questions. Set of search keywords with appropriate repositories were utilized to extract most important studies that fulfill all the criteria defined and classified under journal, conference paper, symposiums and workshops categories. 69 primary studies were nominated from the review strategy. There were 40 journal articles, 21 conference papers, three workshop articles, and five symposium articles collected from the primary studies. As for the result, it can be said that TCP approaches are still broadly open for improvements. Each approach in TCP has specified potential values, advantages, and limitation. Additionally, we found that variations in the starting point of TCP process among the approaches provide a different timeline and benefit to project manager to choose which approaches suite with the project schedule and available resources. Test case prioritization has already been considerably discussed in the software testing domain. However, it is commonly learned that there are quite a number of existing prioritization techniques that can still be improved especially in data used and execution process for each approach.</t>
-  </si>
-  <si>
-    <t>S Mittal, OP Sangwan</t>
-  </si>
-  <si>
-    <t>Journal of Information and Optimization Sciences, 2018</t>
-  </si>
-  <si>
-    <t>Prioritizing test cases for regression techniques using metaheuristic techniques</t>
-  </si>
-  <si>
-    <t>Regression testing attempts to find new errors after some alterations have been done in the software. Previously run test cases are re-executed to check whether historical faults have re-emerged or to validate the functionality of the software. In the past, several methods have been analyzed for reducing the cost of regression testing, which includes regression test selection, regression test minimization and regression test prioritization. Test Suite Prioritization techniques orders the test cases so that all the test cases are executed on a priority basis. Artificial bee colony (ABC) algorithm is a very powerful and efficient algorithm influenced by the intelligent nature of bees. In this paper, we have applied the ABC algorithm for test suite prioritization and the comparison has been made with Genetic Algorithm and Cuscuta Search. From our experimental results, we can infer that results of Cuscuta Search are low as compared to ABC and GA for small test suites.</t>
   </si>
   <si>
     <t>S Wang, J Nam, L Tan</t>
@@ -3154,18 +3128,6 @@
   </si>
   <si>
     <t>Regression testing tasks of test case prioritization, test suite reduction/minimization, and regression test selection are typically centered around criteria that are based on code coverage, test execution costs, and code modifications. Researchers have developed and evaluated new individual criteria; others have combined existing criteria in different ways to form what we--and some others--call hybrid criteria. In this paper, we formalize the notion of combining multiple criteria into a hybrid. Our goal is to create a uniform representation of such combinations so that they can be described unambiguously and shared among researchers. We envision that such sharing will allow researchers to implement, study, extend, and evaluate the hybrids using a common set of techniques and tools. We precisely formulate three hybrid combinations, Rank, Merge, and Choice, and demonstrate their usefulness in two ways. First, we recast, in terms of our formulations, others' previously reported work on hybrid criteria. Second, we use our previous results on test case prioritization to create and evaluate new hybrid criteria. Our findings suggest that hybrid criteria of others can be described using our Merge and Rank formulations, and that the hybrid criteria we developed most often outperformed their constituent individual criteria.</t>
-  </si>
-  <si>
-    <t>N Sethi, S Rani, P Singh</t>
-  </si>
-  <si>
-    <t>International journal of computer applications, 2014</t>
-  </si>
-  <si>
-    <t>Ants optimization for minimal test case selection and prioritization as to reduce the cost of regression testing</t>
-  </si>
-  <si>
-    <t>Software testing is the major process in software development life cycle. Regression testing is very costly and inevitable activity that is to be performed in a restricted environment to ensure the validity of modified software. It is inefficient to rerun every test case from test suite when some kind of modification is done in the software. Test case selection and prioritization techniques select and organize the test cases in a test suite based on some criteria such that the faults are covered quickly with minimum execution time. This task can be done on basis of the Ant Colony Optimization technique (ACO) of Swarm Intelligence as it is not deeply studied yet. The main objective of this thesis is to solve the path problem: Means to find the shortest path and Resolve the time problem: Means to minimize the time of finding shortest path. Because of time and cost constraint, it is not possible to perform extensive regression testing. Techniques such as test case selection and prioritization are used to solve the problem of time and cost constraints. In this paper we are modifying the previous technique to get better results in case of execution time and then the Effectiveness of techniques is checked with the help of APFD metric.</t>
   </si>
   <si>
     <t>PK Mishra, B Pattanaik</t>
@@ -3616,18 +3578,6 @@
     <t>In recent years, researchers have intensively investigated various topics in test prioritization, which aims to re-order tests to increase the rate of fault detection during regression testing. While the main research focus in test prioritization is on proposing novel prioritization techniques and evaluating on more and larger subject systems, little effort has been put on investigating the threats to validity in existing work on test prioritization. One main threat to validity is that existing work mainly evaluates prioritization techniques based on simple artificial changes on the source code and tests. For example, the changes in the source code usually include only seeded program faults, whereas the test suite is usually not augmented at all. On the contrary, in real-world software development, software systems usually undergo various changes on the source code and test suite augmentation. Therefore, it is not clear whether the conclusions drawn by existing work in test prioritization from the artificial changes are still valid for real-world software evolution. In this paper, we present the first empirical study to investigate this important threat to validity in test prioritization. We reimplemented 24 variant techniques of both the traditional and time-aware test prioritization, and investigated the impacts of software evolution on those techniques based on the version history of 8 real-world Java programs from GitHub. The results show that for both traditional and time-aware test prioritization, test suite augmentation significantly hampers their effectiveness, whereas source code changes alone do not influence their effectiveness much.</t>
   </si>
   <si>
-    <t>L Mei, Y Cai, C Jia, B Jiang, WK Chan</t>
-  </si>
-  <si>
-    <t>International Journal of Web Services Research (IJWSR), 2013</t>
-  </si>
-  <si>
-    <t>Test pair selection for test case prioritization in regression testing for WS-BPEL programs</t>
-  </si>
-  <si>
-    <t>Many web services not only communicate through XML-based messages, but also may dynamically modify their behaviors by applying different interpretations on XML messages through updating the associated XML Schemas or XML-based interface specifications. Such artifacts are usually complex, allowing XML-based messages conforming to these specifications structurally complex. Testing should cost-effectively cover all scenarios. Test case prioritization is a dimension of regression testing that assures a program from unintended modifications by reordering the test cases within a test suite. However, many existing test case prioritization techniques for regression testing treat test cases of different complexity generically. In this paper, the authors exploit the insights on the structural similarity of XML-based artifacts between test cases in both static and dynamic dimensions, and propose a family of test case prioritization techniques that selects pairs of test case without replacement in turn. To the best of their knowledge, it is the first test case prioritization proposal that selects test case pairs for prioritization. The authors validate their techniques by a suite of benchmarks. The empirical results show that when incorporating all dimensions, some members of our technique family can be more effective than conventional coverage-based techniques.</t>
-  </si>
-  <si>
     <t>F Altiero, A Corazza, S Di Martino, A Peron, LLL Starace</t>
   </si>
   <si>
@@ -4073,19 +4023,10 @@
     <t>IDQ</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>National Academy Science Letters, 2025</t>
-  </si>
-  <si>
-    <t>CDQ</t>
+    <t>CDQ_1</t>
+  </si>
+  <si>
+    <t>CDQ_2</t>
   </si>
   <si>
     <t>FDQ</t>
@@ -4119,7 +4060,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4164,7 +4107,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4172,6 +4115,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4478,15 +4425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ209"/>
+  <dimension ref="A1:AR205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4608,253 +4555,256 @@
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+        <v>1310</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9068003</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="N2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM2" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="AN2" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+      <c r="AO2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9022761</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3">
         <v>2019</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M3" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="N3" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="AN3" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7561371</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="N4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AN4" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6884931</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5">
         <v>2014</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="N5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM5" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="AN5" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10048797</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F6">
         <v>2023</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L6" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="N6" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM6" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AN6" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+      <c r="AO6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8377903</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7">
         <v>2018</v>
@@ -4863,430 +4813,430 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N7" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="AN7" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7045344</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8">
         <v>2014</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="N8" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AN8" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+      <c r="AO8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9198020</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L9" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="N9" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM9" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AN9" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8776936</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N10" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="AN10" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10197719</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F11">
         <v>2023</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M11" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="N11" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM11" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="AN11" t="s">
-        <v>954</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+        <v>945</v>
+      </c>
+      <c r="AO11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8261011</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F12">
         <v>2017</v>
       </c>
       <c r="I12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L12" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="N12" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM12" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AN12" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9160217</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13">
         <v>2020</v>
       </c>
       <c r="I13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="N13" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM13" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="AN13" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+      <c r="AO13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8229925</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F14">
         <v>2017</v>
       </c>
       <c r="I14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="N14" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM14" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AN14" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7207103</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F15">
         <v>2015</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L15" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="N15" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM15" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="AN15" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7515934</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F16">
         <v>2016</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L16" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="N16" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM16" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="AN16" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO16">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
@@ -5294,43 +5244,43 @@
         <v>6888744</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17">
         <v>2014</v>
       </c>
       <c r="I17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L17" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="N17" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM17" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="AN17" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO17">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
@@ -5338,43 +5288,43 @@
         <v>7019794</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18">
         <v>2014</v>
       </c>
       <c r="I18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L18" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="N18" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM18" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="AN18" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO18">
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
@@ -5382,43 +5332,43 @@
         <v>7155012</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F19">
         <v>2015</v>
       </c>
       <c r="I19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L19" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="N19" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="AM19" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="AN19" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO19">
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
@@ -5426,43 +5376,43 @@
         <v>7380585</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F20">
         <v>2015</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N20" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM20" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AN20" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO20">
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
@@ -5470,43 +5420,43 @@
         <v>6949377</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F21">
         <v>2014</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L21" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="N21" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM21" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AN21" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO21">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -5514,43 +5464,43 @@
         <v>7975319</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22">
         <v>2016</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K22" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L22" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="N22" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM22" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="AN22" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO22">
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
@@ -5558,43 +5508,43 @@
         <v>7809434</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F23">
         <v>2016</v>
       </c>
       <c r="I23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K23" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L23" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="N23" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM23" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="AN23" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO23">
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
@@ -5602,43 +5552,43 @@
         <v>7475187</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24">
         <v>2015</v>
       </c>
       <c r="I24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L24" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="N24" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM24" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="AN24" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO24">
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
@@ -5646,43 +5596,43 @@
         <v>7148505</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F25">
         <v>2015</v>
       </c>
       <c r="I25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K25" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="N25" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM25" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AN25" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO25">
+        <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
@@ -5690,43 +5640,43 @@
         <v>6571611</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F26">
         <v>2013</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K26" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L26" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="N26" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM26" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AN26" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO26">
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
@@ -5734,43 +5684,43 @@
         <v>10301343</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F27">
         <v>2023</v>
       </c>
       <c r="I27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K27" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L27" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="N27" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM27" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AN27" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO27">
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
@@ -5778,46 +5728,46 @@
         <v>8991616</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28">
         <v>2019</v>
       </c>
       <c r="I28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K28" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L28" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="M28" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="N28" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM28" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AN28" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO28">
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
@@ -5825,43 +5775,43 @@
         <v>9440156</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29">
         <v>2021</v>
       </c>
       <c r="I29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J29" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K29" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="L29" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="N29" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM29" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AN29" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO29">
+        <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
@@ -5869,43 +5819,43 @@
         <v>7557497</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F30">
         <v>2016</v>
       </c>
       <c r="I30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K30" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L30" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="N30" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM30" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AN30" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO30">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
@@ -5913,43 +5863,43 @@
         <v>8281742</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F31">
         <v>2017</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K31" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L31" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="N31" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM31" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AN31" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO31">
+        <v>0.4</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
@@ -5957,43 +5907,43 @@
         <v>8117002</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F32">
         <v>2017</v>
       </c>
       <c r="I32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J32" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K32" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L32" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="N32" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM32" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AN32" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO32">
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
@@ -6001,43 +5951,43 @@
         <v>10499739</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F33">
         <v>2024</v>
       </c>
       <c r="I33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J33" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K33" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L33" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="N33" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="AM33" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="AN33" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO33">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
@@ -6045,43 +5995,43 @@
         <v>10199547</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F34">
         <v>2023</v>
       </c>
       <c r="I34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J34" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K34" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L34" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="N34" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM34" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>1334</v>
+        <v>943</v>
+      </c>
+      <c r="AO34">
+        <v>0.4</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
@@ -6089,16 +6039,16 @@
         <v>7273631</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F35">
         <v>2015</v>
@@ -6107,31 +6057,31 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K35" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M35" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N35" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM35" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="AN35" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO35">
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
@@ -6139,43 +6089,43 @@
         <v>7885851</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F36">
         <v>2016</v>
       </c>
       <c r="I36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L36" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="N36" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM36" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="AN36" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO36">
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
@@ -6183,43 +6133,43 @@
         <v>10507913</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F37">
         <v>2024</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K37" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L37" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="N37" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM37" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="AN37" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO37">
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
@@ -6227,43 +6177,43 @@
         <v>8305939</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F38">
         <v>2017</v>
       </c>
       <c r="I38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K38" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L38" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="N38" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM38" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="AN38" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
@@ -6271,43 +6221,43 @@
         <v>9440161</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39">
         <v>2021</v>
       </c>
       <c r="I39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K39" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L39" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="N39" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM39" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="AN39" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO39">
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
@@ -6315,43 +6265,43 @@
         <v>9796413</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F40">
         <v>2022</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J40" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K40" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L40" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N40" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM40" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="AN40" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO40">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
@@ -6359,43 +6309,43 @@
         <v>6844270</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F41">
         <v>2013</v>
       </c>
       <c r="I41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K41" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L41" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="N41" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM41" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AN41" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO41" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO41">
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
@@ -6403,43 +6353,43 @@
         <v>7375627</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F42">
         <v>2015</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K42" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L42" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="N42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM42" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="AN42" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO42">
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
@@ -6447,40 +6397,40 @@
         <v>8452804</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F43">
         <v>2018</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K43" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N43" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM43" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AN43" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO43">
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
@@ -6488,43 +6438,43 @@
         <v>10932075</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F44">
         <v>2024</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K44" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L44" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="N44" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM44" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AN44" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO44">
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
@@ -6532,16 +6482,16 @@
         <v>7273420</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F45">
         <v>2015</v>
@@ -6550,31 +6500,31 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K45" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L45" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="M45" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N45" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM45" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AN45" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO45">
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
@@ -6582,46 +6532,46 @@
         <v>10298744</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46">
         <v>2023</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K46" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L46" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="M46" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="N46" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM46" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AN46" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO46">
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
@@ -6629,46 +6579,46 @@
         <v>9787970</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F47">
         <v>2022</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L47" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="M47" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N47" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM47" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="AN47" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO47">
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
@@ -6676,43 +6626,43 @@
         <v>8855691</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K48" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L48" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="N48" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM48" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="AN48" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO48" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
@@ -6720,16 +6670,16 @@
         <v>8029584</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F49">
         <v>2017</v>
@@ -6738,31 +6688,31 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J49" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K49" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L49" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M49" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N49" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM49" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="AN49" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO49">
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
@@ -6770,43 +6720,43 @@
         <v>7838169</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50">
         <v>2016</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J50" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L50" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="N50" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM50" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="AN50" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO50" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
@@ -6814,43 +6764,43 @@
         <v>6569743</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51">
         <v>2013</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K51" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="L51" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="M51" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N51" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM51" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="AN51" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO51">
         <v>1</v>
@@ -6861,43 +6811,43 @@
         <v>7783254</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F52">
         <v>2016</v>
       </c>
       <c r="I52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K52" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L52" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N52" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM52" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="AN52" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO52">
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
@@ -6905,43 +6855,43 @@
         <v>8854718</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J53" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K53" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L53" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="N53" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM53" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="AN53" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
@@ -6949,40 +6899,40 @@
         <v>8536351</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F54">
         <v>2018</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J54" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K54" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N54" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM54" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="AN54" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO54">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
@@ -6990,43 +6940,43 @@
         <v>7272924</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F55">
         <v>2015</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L55" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="N55" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM55" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="AN55" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
@@ -7034,43 +6984,43 @@
         <v>9741963</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F56">
         <v>2021</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K56" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="L56" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N56" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM56" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="AN56" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO56" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO56">
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
@@ -7078,46 +7028,46 @@
         <v>10675922</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F57">
         <v>2024</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K57" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L57" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="M57" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N57" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM57" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="AN57" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO57">
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
@@ -7125,46 +7075,46 @@
         <v>10229439</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F58">
         <v>2023</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J58" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L58" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="M58" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N58" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM58" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="AN58" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO58">
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
@@ -7172,43 +7122,43 @@
         <v>8625203</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F59">
         <v>2018</v>
       </c>
       <c r="I59" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J59" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L59" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="N59" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM59" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AN59" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
@@ -7216,46 +7166,46 @@
         <v>6649891</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F60">
         <v>2013</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J60" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K60" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L60" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="M60" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N60" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM60" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="AN60" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO60">
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
@@ -7263,43 +7213,43 @@
         <v>10911525</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F61">
         <v>2024</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K61" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L61" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="N61" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM61" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="AN61" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO61">
+        <v>0.4</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
@@ -7307,46 +7257,46 @@
         <v>10196878</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F62">
         <v>2023</v>
       </c>
       <c r="I62" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L62" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="M62" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N62" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM62" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="AN62" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO62">
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
@@ -7354,46 +7304,46 @@
         <v>10366665</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F63">
         <v>2023</v>
       </c>
       <c r="I63" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J63" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K63" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L63" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="M63" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="N63" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM63" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AN63" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO63">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
@@ -7401,43 +7351,43 @@
         <v>7589817</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F64">
         <v>2016</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L64" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="N64" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM64" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="AN64" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO64">
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.2">
@@ -7445,40 +7395,40 @@
         <v>7381799</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F65">
         <v>2015</v>
       </c>
       <c r="I65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J65" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K65" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L65" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="N65" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM65" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AN65" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO65">
         <v>1</v>
@@ -7489,43 +7439,43 @@
         <v>9103716</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F66">
         <v>2020</v>
       </c>
       <c r="I66" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K66" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="L66" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="N66" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM66" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="AN66" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO66">
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.2">
@@ -7533,40 +7483,40 @@
         <v>10621714</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F67">
         <v>2024</v>
       </c>
       <c r="I67" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J67" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L67" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="N67" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM67" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="AN67" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO67">
         <v>1</v>
@@ -7577,46 +7527,46 @@
         <v>10216597</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F68">
         <v>2022</v>
       </c>
       <c r="I68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J68" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K68" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L68" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M68" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="N68" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM68" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="AN68" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO68">
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.2">
@@ -7624,43 +7574,43 @@
         <v>7943143</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F69">
         <v>2017</v>
       </c>
       <c r="I69" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J69" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K69" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L69" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="N69" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM69" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="AN69" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO69" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO69">
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.2">
@@ -7668,43 +7618,43 @@
         <v>9142966</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F70">
         <v>2020</v>
       </c>
       <c r="I70" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K70" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L70" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N70" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM70" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="AN70" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO70">
+        <v>0.4</v>
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.2">
@@ -7712,43 +7662,43 @@
         <v>8530033</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F71">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L71" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="M71" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N71" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM71" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AN71" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO71">
         <v>1</v>
@@ -7759,46 +7709,46 @@
         <v>10298714</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F72">
         <v>2023</v>
       </c>
       <c r="I72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K72" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L72" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="M72" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="N72" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM72" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="AN72" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO72" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO72">
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.2">
@@ -7806,43 +7756,43 @@
         <v>8300829</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F73">
         <v>2017</v>
       </c>
       <c r="I73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J73" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K73" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L73" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="N73" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM73" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="AN73" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO73">
+        <v>0.4</v>
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.2">
@@ -7850,46 +7800,46 @@
         <v>7819324</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F74">
         <v>2016</v>
       </c>
       <c r="I74" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J74" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K74" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L74" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="M74" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N74" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM74" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AN74" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO74">
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.2">
@@ -7897,46 +7847,46 @@
         <v>10062444</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F75">
         <v>2022</v>
       </c>
       <c r="I75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J75" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K75" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L75" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M75" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="N75" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM75" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="AN75" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO75" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO75">
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.2">
@@ -7944,43 +7894,43 @@
         <v>9825820</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F76">
         <v>2022</v>
       </c>
       <c r="I76" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K76" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="L76" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="M76" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="N76" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM76" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="AN76" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO76">
         <v>1</v>
@@ -7991,43 +7941,43 @@
         <v>7272927</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F77">
         <v>2015</v>
       </c>
       <c r="I77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K77" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L77" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N77" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM77" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="AN77" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO77">
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.2">
@@ -8035,43 +7985,43 @@
         <v>8539203</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F78">
         <v>2018</v>
       </c>
       <c r="I78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="L78" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="N78" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM78" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="AN78" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO78" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO78">
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.2">
@@ -8079,40 +8029,40 @@
         <v>6928903</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F79">
         <v>2014</v>
       </c>
       <c r="I79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J79" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K79" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="N79" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM79" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AN79" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO79">
         <v>1</v>
@@ -8123,43 +8073,43 @@
         <v>6595798</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F80">
         <v>2013</v>
       </c>
       <c r="I80" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J80" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="L80" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="N80" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM80" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AN80" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO80" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO80">
+        <v>0.4</v>
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.2">
@@ -8167,16 +8117,16 @@
         <v>7091286</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F81">
         <v>2014</v>
@@ -8185,31 +8135,31 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J81" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K81" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L81" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="M81" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="N81" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM81" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="AN81" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO81" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO81">
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.2">
@@ -8217,43 +8167,43 @@
         <v>10336260</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F82">
         <v>2023</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J82" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K82" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L82" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="M82" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N82" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM82" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="AN82" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO82">
         <v>1</v>
@@ -8264,40 +8214,40 @@
         <v>10304799</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F83">
         <v>2023</v>
       </c>
       <c r="I83" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K83" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L83" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="N83" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM83" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="AN83" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO83">
         <v>1</v>
@@ -8308,43 +8258,43 @@
         <v>10011478</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F84">
         <v>2022</v>
       </c>
       <c r="I84" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L84" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="N84" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM84" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="AN84" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO84" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO84">
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.2">
@@ -8352,43 +8302,43 @@
         <v>9260075</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F85">
         <v>2020</v>
       </c>
       <c r="I85" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L85" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="N85" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM85" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="AN85" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO85" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO85">
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.2">
@@ -8396,46 +8346,46 @@
         <v>8914670</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F86">
         <v>2019</v>
       </c>
       <c r="I86" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J86" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K86" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L86" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="M86" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="N86" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM86" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="AN86" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO86" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO86">
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.2">
@@ -8443,46 +8393,46 @@
         <v>10877022</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F87">
         <v>2024</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J87" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K87" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L87" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="M87" t="s">
+        <v>795</v>
+      </c>
+      <c r="N87" t="s">
         <v>802</v>
       </c>
-      <c r="N87" t="s">
-        <v>809</v>
-      </c>
       <c r="AM87" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="AN87" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO87" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO87">
+        <v>0.4</v>
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.2">
@@ -8490,43 +8440,43 @@
         <v>7507977</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F88">
         <v>2016</v>
       </c>
       <c r="I88" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J88" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K88" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L88" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="N88" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM88" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="AN88" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO88" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO88">
+        <v>0.4</v>
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.2">
@@ -8534,43 +8484,43 @@
         <v>8305938</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F89">
         <v>2017</v>
       </c>
       <c r="I89" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J89" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="L89" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="N89" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM89" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AN89" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO89" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO89">
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.2">
@@ -8578,40 +8528,40 @@
         <v>7100474</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F90">
         <v>2015</v>
       </c>
       <c r="I90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J90" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K90" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="N90" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM90" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AN90" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO90" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO90">
+        <v>0.4</v>
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.2">
@@ -8619,43 +8569,43 @@
         <v>8453107</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F91">
         <v>2018</v>
       </c>
       <c r="I91" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J91" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K91" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L91" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="M91" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="N91" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM91" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AN91" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO91">
         <v>1</v>
@@ -8666,46 +8616,46 @@
         <v>9464569</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F92">
         <v>2021</v>
       </c>
       <c r="I92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K92" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="L92" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M92" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="N92" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM92" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AN92" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO92" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO92">
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.2">
@@ -8713,43 +8663,43 @@
         <v>9616824</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F93">
         <v>2021</v>
       </c>
       <c r="I93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J93" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K93" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="L93" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="N93" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM93" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="AN93" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO93" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO93">
+        <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.2">
@@ -8757,43 +8707,43 @@
         <v>9155903</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F94">
         <v>2020</v>
       </c>
       <c r="I94" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J94" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K94" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L94" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="N94" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM94" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="AN94" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO94" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO94">
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.2">
@@ -8801,43 +8751,43 @@
         <v>10493937</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F95">
         <v>2024</v>
       </c>
       <c r="I95" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J95" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K95" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L95" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="N95" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM95" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AN95" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO95" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO95">
+        <v>0.4</v>
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.2">
@@ -8845,104 +8795,105 @@
         <v>7828927</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F96">
         <v>2016</v>
       </c>
       <c r="I96" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J96" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K96" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L96" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N96" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM96" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="AN96" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO96" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO96">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10660677</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F97">
         <v>2024</v>
       </c>
       <c r="I97" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J97" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K97" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L97" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="N97" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM97" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO97" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
+        <v>943</v>
+      </c>
+      <c r="AO97">
+        <v>0.4</v>
+      </c>
+      <c r="AR97" s="4"/>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8754416</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F98">
         <v>2019</v>
@@ -8951,101 +8902,101 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J98" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K98" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="L98" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M98" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N98" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="AM98" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="AN98" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO98" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO98">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7582788</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F99">
         <v>2016</v>
       </c>
       <c r="I99" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J99" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K99" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="N99" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM99" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AN99" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F100">
         <v>2017</v>
       </c>
       <c r="I100" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J100" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K100" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L100" t="s">
         <v>40</v>
@@ -9054,45 +9005,45 @@
         <v>9781450344869</v>
       </c>
       <c r="Q100" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="R100" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="T100">
         <v>7</v>
       </c>
       <c r="U100" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="V100" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="AM100" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AN100" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO100" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+      <c r="AO100">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F101">
         <v>2021</v>
@@ -9101,51 +9052,51 @@
         <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I101" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K101" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="M101" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="O101" t="s">
+        <v>815</v>
+      </c>
+      <c r="S101" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="S101" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="AM101" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AN101" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="AO101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F102">
         <v>2019</v>
@@ -9154,48 +9105,48 @@
         <v>153</v>
       </c>
       <c r="I102" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J102" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K102" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="M102" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O102" t="s">
+        <v>816</v>
+      </c>
+      <c r="S102" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="S102" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="AM102" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AN102" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F103">
         <v>2018</v>
@@ -9204,48 +9155,48 @@
         <v>135</v>
       </c>
       <c r="I103" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J103" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K103" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M103" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O103" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AM103" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="AN103" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F104">
         <v>2022</v>
@@ -9254,51 +9205,51 @@
         <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I104" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J104" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K104" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="M104" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="O104" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM104" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="AN104" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F105">
         <v>2020</v>
@@ -9307,48 +9258,48 @@
         <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J105" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K105" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="M105" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O105" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="AM105" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AN105" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F106">
         <v>2025</v>
@@ -9357,48 +9308,48 @@
         <v>160</v>
       </c>
       <c r="I106" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J106" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K106" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="M106" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="O106" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="AM106" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="AN106" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F107">
         <v>2020</v>
@@ -9407,48 +9358,48 @@
         <v>169</v>
       </c>
       <c r="I107" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J107" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K107" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="M107" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O107" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="AM107" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="AN107" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F108">
         <v>2022</v>
@@ -9457,51 +9408,51 @@
         <v>299</v>
       </c>
       <c r="H108" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I108" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J108" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K108" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="M108" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="O108" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="AM108" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="AN108" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F109">
         <v>2023</v>
@@ -9510,177 +9461,150 @@
         <v>205</v>
       </c>
       <c r="I109" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J109" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K109" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="M109" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O109" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="AM109" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="AN109" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F110">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G110">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J110" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K110" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="M110" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O110" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="AM110" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="AN110" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" t="s">
-        <v>54</v>
-      </c>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>161</v>
+        <v>946</v>
+      </c>
+      <c r="D111" t="s">
+        <v>947</v>
       </c>
       <c r="E111" t="s">
-        <v>365</v>
+        <v>948</v>
       </c>
       <c r="F111">
-        <v>2022</v>
-      </c>
-      <c r="G111">
-        <v>192</v>
-      </c>
-      <c r="I111" t="s">
-        <v>462</v>
+        <v>2016</v>
       </c>
       <c r="J111" t="s">
-        <v>572</v>
-      </c>
-      <c r="K111" t="s">
-        <v>682</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="M111" t="s">
-        <v>806</v>
-      </c>
-      <c r="O111" t="s">
-        <v>823</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="AM111" t="s">
+        <v>949</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO111">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>950</v>
+      </c>
+      <c r="D112" t="s">
         <v>951</v>
       </c>
-      <c r="AN111" t="s">
+      <c r="E112" t="s">
+        <v>952</v>
+      </c>
+      <c r="F112">
+        <v>2018</v>
+      </c>
+      <c r="J112" t="s">
         <v>953</v>
       </c>
-      <c r="AO111">
+      <c r="AN112" t="s">
+        <v>945</v>
+      </c>
+      <c r="AO112">
         <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="C112" t="s">
-        <v>955</v>
-      </c>
-      <c r="D112" t="s">
-        <v>956</v>
-      </c>
-      <c r="E112" t="s">
-        <v>957</v>
-      </c>
-      <c r="F112">
-        <v>2016</v>
-      </c>
-      <c r="J112" t="s">
-        <v>958</v>
-      </c>
-      <c r="AN112" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO112" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="113" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D113" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E113" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F113">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J113" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="AN113" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="AO113">
         <v>1</v>
@@ -9688,114 +9612,114 @@
     </row>
     <row r="114" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D114" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E114" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F114">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J114" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AN114" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO114" t="s">
-        <v>1332</v>
+        <v>943</v>
+      </c>
+      <c r="AO114">
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D115" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E115" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F115">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="J115" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="AN115" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D116" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E116" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F116">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="J116" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="AN116" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO116" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D117" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E117" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F117">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J117" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AN117" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO117" t="s">
-        <v>1332</v>
+        <v>943</v>
+      </c>
+      <c r="AO117">
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D118" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E118" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F118">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J118" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="AN118" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AO118">
         <v>1</v>
@@ -9803,45 +9727,45 @@
     </row>
     <row r="119" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D119" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E119" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F119">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J119" t="s">
-        <v>986</v>
+        <v>558</v>
       </c>
       <c r="AN119" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO119" t="s">
-        <v>1333</v>
+        <v>943</v>
+      </c>
+      <c r="AO119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D120" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E120" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F120">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J120" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="AN120" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="AO120">
         <v>1</v>
@@ -9849,45 +9773,45 @@
     </row>
     <row r="121" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D121" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E121" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F121">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J121" t="s">
-        <v>562</v>
+        <v>988</v>
       </c>
       <c r="AN121" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="AO121">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D122" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E122" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F122">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J122" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AN122" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="AO122">
         <v>1</v>
@@ -9895,45 +9819,45 @@
     </row>
     <row r="123" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D123" t="s">
-        <v>999</v>
+        <v>967</v>
       </c>
       <c r="E123" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F123">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="J123" t="s">
-        <v>1001</v>
+        <v>508</v>
       </c>
       <c r="AN123" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO123" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="D124" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="E124" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="F124">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J124" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="AN124" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO124">
         <v>1</v>
@@ -9941,45 +9865,45 @@
     </row>
     <row r="125" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D125" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="E125" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F125">
         <v>2013</v>
       </c>
       <c r="J125" t="s">
-        <v>512</v>
+        <v>1002</v>
       </c>
       <c r="AN125" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="126" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D126" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E126" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F126">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="J126" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AN126" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO126">
         <v>1</v>
@@ -9987,252 +9911,252 @@
     </row>
     <row r="127" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D127" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E127" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F127">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="J127" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AN127" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO127" t="s">
-        <v>1332</v>
+        <v>945</v>
+      </c>
+      <c r="AO127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D128" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E128" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F128">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J128" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AN128" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO128">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="129" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D129" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E129" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F129">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="J129" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="AN129" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D130" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E130" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F130">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J130" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="AN130" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO130" t="s">
-        <v>1334</v>
+        <v>945</v>
+      </c>
+      <c r="AO130">
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D131" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E131" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F131">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="J131" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AN131" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO131" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D132" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="E132" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="F132">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="J132" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="AN132" t="s">
-        <v>954</v>
-      </c>
-      <c r="AO132" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO132">
+        <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D133" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E133" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F133">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="J133" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="AN133" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO133">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D134" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E134" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="F134">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="J134" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AN134" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO134" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D135" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E135" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F135">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="J135" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="AN135" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO135" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="D136" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E136" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="F136">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="J136" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="AN136" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO136" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO136">
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D137" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E137" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="F137">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J137" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AN137" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO137">
         <v>1</v>
@@ -10240,22 +10164,22 @@
     </row>
     <row r="138" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D138" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E138" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F138">
         <v>2020</v>
       </c>
       <c r="J138" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AN138" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO138">
         <v>1</v>
@@ -10263,68 +10187,68 @@
     </row>
     <row r="139" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D139" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E139" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F139">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J139" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="AN139" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO139" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO139">
+        <v>0.4</v>
       </c>
     </row>
     <row r="140" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D140" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E140" t="s">
-        <v>1066</v>
+        <v>357</v>
       </c>
       <c r="F140">
         <v>2019</v>
       </c>
       <c r="J140" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="AN140" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="D141" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E141" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F141">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J141" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AN141" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO141">
         <v>1</v>
@@ -10332,482 +10256,483 @@
     </row>
     <row r="142" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D142" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E142" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F142">
         <v>2021</v>
       </c>
       <c r="J142" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="AN142" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO142" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO142">
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D143" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E143" t="s">
-        <v>359</v>
+        <v>1072</v>
       </c>
       <c r="F143">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J143" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AN143" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO143" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D144" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E144" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F144">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J144" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AN144" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F145">
+        <v>2018</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AN145" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D146" t="s">
         <v>1083</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E146" t="s">
         <v>1084</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F146">
+        <v>2017</v>
+      </c>
+      <c r="J146" t="s">
         <v>1085</v>
       </c>
-      <c r="F145">
-        <v>2021</v>
-      </c>
-      <c r="J145" t="s">
+      <c r="AN146" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO146">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="147" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
         <v>1086</v>
       </c>
-      <c r="AN145" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO145" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="146" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
+      <c r="D147" t="s">
         <v>1087</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E147" t="s">
         <v>1088</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F146">
-        <v>2016</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AN146" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1093</v>
       </c>
       <c r="F147">
         <v>2017</v>
       </c>
       <c r="J147" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AN147" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F148">
+        <v>2014</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AN148" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO148">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D149" t="s">
         <v>1095</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E149" t="s">
         <v>1096</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F149">
+        <v>2014</v>
+      </c>
+      <c r="J149" t="s">
         <v>1097</v>
       </c>
-      <c r="F148">
+      <c r="AN149" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F150">
         <v>2018</v>
       </c>
-      <c r="J148" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AN148" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO148">
+      <c r="J150" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AN150" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO150">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="151" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F151">
+        <v>2023</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AN151" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO151">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C149" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F149">
-        <v>2017</v>
-      </c>
-      <c r="J149" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AN149" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO149" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="150" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C150" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F150">
-        <v>2017</v>
-      </c>
-      <c r="J150" t="s">
+    <row r="152" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
         <v>1106</v>
       </c>
-      <c r="AN150" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
+      <c r="D152" t="s">
         <v>1107</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E152" t="s">
         <v>1108</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F151">
-        <v>2014</v>
-      </c>
-      <c r="J151" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AN151" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO151" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="152" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C152" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1113</v>
       </c>
       <c r="F152">
         <v>2014</v>
       </c>
       <c r="J152" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="AN152" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F153">
+        <v>2015</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AN153" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO153">
+        <v>1</v>
+      </c>
+      <c r="AQ153" s="4"/>
+    </row>
+    <row r="154" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D154" t="s">
         <v>1115</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E154" t="s">
         <v>1116</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F154">
+        <v>2014</v>
+      </c>
+      <c r="J154" t="s">
         <v>1117</v>
       </c>
-      <c r="F153">
-        <v>2018</v>
-      </c>
-      <c r="J153" t="s">
+      <c r="AN154" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO154">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="155" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
         <v>1118</v>
       </c>
-      <c r="AN153" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO153" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="154" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
+      <c r="D155" t="s">
         <v>1119</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E155" t="s">
         <v>1120</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F155">
+        <v>2021</v>
+      </c>
+      <c r="J155" t="s">
         <v>1121</v>
       </c>
-      <c r="F154">
-        <v>2023</v>
-      </c>
-      <c r="J154" t="s">
-        <v>1122</v>
-      </c>
-      <c r="AN154" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F155">
-        <v>2014</v>
-      </c>
-      <c r="J155" t="s">
-        <v>1126</v>
-      </c>
       <c r="AN155" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D156" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E156" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F156">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="J156" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="AN156" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F157">
+        <v>2022</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AN157" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO157">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="158" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D158" t="s">
         <v>1131</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E158" t="s">
         <v>1132</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F158">
+        <v>2016</v>
+      </c>
+      <c r="J158" t="s">
         <v>1133</v>
       </c>
-      <c r="F157">
-        <v>2014</v>
-      </c>
-      <c r="J157" t="s">
+      <c r="AN158" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO158">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="159" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
         <v>1134</v>
       </c>
-      <c r="AN157" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO157" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="158" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C158" t="s">
+      <c r="D159" t="s">
         <v>1135</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E159" t="s">
         <v>1136</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F159">
+        <v>2020</v>
+      </c>
+      <c r="J159" t="s">
         <v>1137</v>
       </c>
-      <c r="F158">
-        <v>2021</v>
-      </c>
-      <c r="J158" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AN158" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C159" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F159">
-        <v>2024</v>
-      </c>
-      <c r="J159" t="s">
-        <v>1142</v>
-      </c>
       <c r="AN159" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="D160" t="s">
-        <v>1144</v>
+        <v>1036</v>
       </c>
       <c r="E160" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F160">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="J160" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="AN160" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO160" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D161" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E161" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F161">
         <v>2016</v>
       </c>
       <c r="J161" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="AN161" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO161" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D162" t="s">
-        <v>1152</v>
+        <v>1036</v>
       </c>
       <c r="E162" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="F162">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="J162" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="AN162" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO162">
         <v>1</v>
@@ -10815,22 +10740,22 @@
     </row>
     <row r="163" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="D163" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="E163" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="F163">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="J163" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="AN163" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO163">
         <v>1</v>
@@ -10838,160 +10763,160 @@
     </row>
     <row r="164" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="D164" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="E164" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="F164">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="J164" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="AN164" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D165" t="s">
-        <v>1053</v>
+        <v>1156</v>
       </c>
       <c r="E165" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F165">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="J165" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="AN165" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO165">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="D166" t="s">
-        <v>1053</v>
+        <v>1160</v>
       </c>
       <c r="E166" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="F166">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="J166" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="AN166" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO166">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D167" t="s">
-        <v>1169</v>
+        <v>996</v>
       </c>
       <c r="E167" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="F167">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="J167" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="AN167" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO167" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="D168" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="E168" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="F168">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="J168" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="AN168" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO168" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO168">
+        <v>0.5</v>
       </c>
     </row>
     <row r="169" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D169" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E169" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="F169">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="J169" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="AN169" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO169" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO169">
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D170" t="s">
-        <v>1009</v>
+        <v>1175</v>
       </c>
       <c r="E170" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="F170">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="J170" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="AN170" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO170">
         <v>1</v>
@@ -10999,91 +10924,91 @@
     </row>
     <row r="171" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="D171" t="s">
-        <v>1184</v>
+        <v>1142</v>
       </c>
       <c r="E171" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F171">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="J171" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="AN171" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO171" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="D172" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="E172" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F172">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J172" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="AN172" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO172" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D173" t="s">
-        <v>1192</v>
+        <v>816</v>
       </c>
       <c r="E173" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="F173">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J173" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="AN173" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO173" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="D174" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="E174" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F174">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="J174" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="AN174" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO174">
         <v>1</v>
@@ -11091,321 +11016,321 @@
     </row>
     <row r="175" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="D175" t="s">
-        <v>1159</v>
+        <v>1193</v>
       </c>
       <c r="E175" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F175">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="J175" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="AN175" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AO175">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D176" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="E176" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F176">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="J176" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="AN176" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO176">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="D177" t="s">
-        <v>823</v>
+        <v>1201</v>
       </c>
       <c r="E177" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F177">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J177" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="AN177" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO177">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="178" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D178" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E178" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F178">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J178" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="AN178" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="D179" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E179" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F179">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J179" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="AN179" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO179" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO179">
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D180" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E180" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F180">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="J180" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="AN180" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO180" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO180">
+        <v>0.4</v>
       </c>
     </row>
     <row r="181" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D181" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="E181" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F181">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="J181" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="AN181" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO181" t="s">
-        <v>1334</v>
+        <v>945</v>
+      </c>
+      <c r="AO181">
+        <v>0.8</v>
       </c>
     </row>
     <row r="182" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="D182" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E182" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F182">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J182" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="AN182" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO182" t="s">
-        <v>1333</v>
+        <v>943</v>
+      </c>
+      <c r="AO182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D183" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E183" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F183">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="J183" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AN183" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO183" t="s">
-        <v>1332</v>
+        <v>943</v>
+      </c>
+      <c r="AO183">
+        <v>0.4</v>
       </c>
     </row>
     <row r="184" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D184" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="E184" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F184">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="J184" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AN184" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO184" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO184">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D185" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E185" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F185">
         <v>2021</v>
       </c>
       <c r="J185" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="AN185" t="s">
-        <v>954</v>
-      </c>
-      <c r="AO185" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO185">
+        <v>0.8</v>
       </c>
     </row>
     <row r="186" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="D186" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="E186" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F186">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J186" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AN186" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="AO186">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="187" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D187" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="E187" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F187">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="J187" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="AN187" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO187" t="s">
-        <v>1334</v>
+        <v>944</v>
+      </c>
+      <c r="AO187">
+        <v>0.5</v>
       </c>
     </row>
     <row r="188" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="D188" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="E188" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F188">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="J188" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AN188" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO188">
         <v>1</v>
@@ -11413,137 +11338,137 @@
     </row>
     <row r="189" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D189" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="E189" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F189">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J189" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="AN189" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO189" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO189">
+        <v>0.8</v>
       </c>
     </row>
     <row r="190" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="D190" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="E190" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F190">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J190" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="AN190" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO190" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO190">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D191" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E191" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F191">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="J191" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="AN191" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO191" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO191">
+        <v>0.5</v>
       </c>
     </row>
     <row r="192" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="D192" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E192" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F192">
         <v>2022</v>
       </c>
       <c r="J192" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="AN192" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO192">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="193" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="D193" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E193" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F193">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J193" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="AN193" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO193" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="D194" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="E194" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F194">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J194" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="AN194" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO194">
         <v>1</v>
@@ -11551,68 +11476,68 @@
     </row>
     <row r="195" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="D195" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="E195" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F195">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J195" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="AN195" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO195" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="D196" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E196" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F196">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J196" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="AN196" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO196" t="s">
-        <v>1333</v>
+        <v>944</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="D197" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="E197" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="F197">
         <v>2023</v>
       </c>
       <c r="J197" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="AN197" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO197">
         <v>1</v>
@@ -11620,45 +11545,45 @@
     </row>
     <row r="198" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D198" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="E198" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="F198">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J198" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="AN198" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO198">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D199" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E199" t="s">
-        <v>1295</v>
+        <v>1186</v>
       </c>
       <c r="F199">
         <v>2021</v>
       </c>
       <c r="J199" t="s">
-        <v>1296</v>
+        <v>1187</v>
       </c>
       <c r="AN199" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO199">
         <v>1</v>
@@ -11666,236 +11591,140 @@
     </row>
     <row r="200" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>1297</v>
+        <v>1289</v>
       </c>
       <c r="D200" t="s">
-        <v>1298</v>
+        <v>1290</v>
       </c>
       <c r="E200" t="s">
-        <v>1299</v>
+        <v>1291</v>
       </c>
       <c r="F200">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J200" t="s">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="AN200" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO200">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="201" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="E201" t="s">
-        <v>1302</v>
+        <v>1294</v>
       </c>
       <c r="F201">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="J201" t="s">
-        <v>1303</v>
+        <v>1295</v>
       </c>
       <c r="AN201" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AO201">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="202" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>1304</v>
+        <v>1296</v>
       </c>
       <c r="D202" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="E202" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="F202">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J202" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="AN202" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO202" t="s">
-        <v>1332</v>
+        <v>944</v>
+      </c>
+      <c r="AO202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="3:41" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="D203" t="s">
-        <v>1309</v>
+        <v>1036</v>
       </c>
       <c r="E203" t="s">
-        <v>1207</v>
+        <v>1300</v>
       </c>
       <c r="F203">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J203" t="s">
-        <v>1208</v>
+        <v>1302</v>
       </c>
       <c r="AN203" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="AO203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="3:41" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="D204" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E204" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="F204">
-        <v>2022</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1313</v>
+        <v>2020</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>1306</v>
       </c>
       <c r="AN204" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO204" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="205" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C205" t="s">
-        <v>1314</v>
+        <v>944</v>
+      </c>
+      <c r="AO204">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205" spans="3:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="3" t="s">
+        <v>1308</v>
       </c>
       <c r="D205" t="s">
-        <v>1335</v>
+        <v>816</v>
       </c>
       <c r="E205" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="F205">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="J205" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="AN205" t="s">
-        <v>952</v>
-      </c>
-      <c r="AO205" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="206" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C206" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F206">
-        <v>2024</v>
-      </c>
-      <c r="J206" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AN206" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO206">
+        <v>944</v>
+      </c>
+      <c r="AO205">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="3:41" x14ac:dyDescent="0.2">
-      <c r="C207" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F207">
-        <v>2024</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1323</v>
-      </c>
-      <c r="AN207" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F208">
-        <v>2020</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="AN208" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO208" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="209" spans="3:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D209" t="s">
-        <v>823</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F209">
-        <v>2015</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AN209" t="s">
-        <v>953</v>
-      </c>
-      <c r="AO209">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S100" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L101" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -11916,10 +11745,8 @@
     <hyperlink ref="S108" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="L109" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="S109" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L110" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L111" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S111" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L110" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6_Quality Appraisal/Quality_Appraisal.xlsx
+++ b/6_Quality Appraisal/Quality_Appraisal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/6_Quality Appraisal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4451F2F-3516-E141-89A5-58DA5C9DB1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60034CB3-C5CB-EC4D-8E1F-7CB1A479B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="640" windowWidth="28960" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1331">
   <si>
     <t>ID</t>
   </si>
@@ -4023,20 +4023,71 @@
     <t>IDQ</t>
   </si>
   <si>
-    <t>CDQ_1</t>
-  </si>
-  <si>
-    <t>CDQ_2</t>
-  </si>
-  <si>
     <t>FDQ</t>
+  </si>
+  <si>
+    <t>CDQ_1_A</t>
+  </si>
+  <si>
+    <t>CDQ_1_B</t>
+  </si>
+  <si>
+    <t>CDQ_2_A</t>
+  </si>
+  <si>
+    <t>CDQ_2_B</t>
+  </si>
+  <si>
+    <t>CDQ_3_A</t>
+  </si>
+  <si>
+    <t>CDQ_3_B</t>
+  </si>
+  <si>
+    <t>CDQ_4_A</t>
+  </si>
+  <si>
+    <t>CDQ_4_B</t>
+  </si>
+  <si>
+    <t>CDQ_5_A</t>
+  </si>
+  <si>
+    <t>CDQ_5_B</t>
+  </si>
+  <si>
+    <t>CDQ_6_A</t>
+  </si>
+  <si>
+    <t>CDQ_6_B</t>
+  </si>
+  <si>
+    <t>CDQ_A</t>
+  </si>
+  <si>
+    <t>CDQ_B</t>
+  </si>
+  <si>
+    <t>CDQ</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Dario</t>
+  </si>
+  <si>
+    <t>Luigi</t>
+  </si>
+  <si>
+    <t>Bartolomeo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4067,16 +4118,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4099,6 +4180,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4107,7 +4203,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4116,10 +4212,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4425,15 +4524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR205"/>
+  <dimension ref="A1:BG205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E205" sqref="E205"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,17 +4656,56 @@
       <c r="AO1" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BE1" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9068003</v>
       </c>
@@ -4610,8 +4748,36 @@
       <c r="AO2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" t="e">
+        <f>AVERAGE(AP2,AR2,AT2,AV2,AX2,AZ2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC2" t="e">
+        <f>AVERAGE(AQ2,AS2,AU2,AW2,AY2,BA2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD2" t="e">
+        <f>AVERAGE(BB2,BC2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE2" t="e">
+        <f>AVERAGE(AO2,BD2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9022761</v>
       </c>
@@ -4657,8 +4823,40 @@
       <c r="AO3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" t="e">
+        <f t="shared" ref="BB3:BB26" si="0">AVERAGE(AP3,AR3,AT3,AV3,AX3,AZ3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC3" t="e">
+        <f t="shared" ref="BC3:BC26" si="1">AVERAGE(AQ3,AS3,AU3,AW3,AY3,BA3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD3" t="e">
+        <f t="shared" ref="BD3:BD26" si="2">AVERAGE(BB3,BC3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE3" t="e">
+        <f t="shared" ref="BE3:BE26" si="3">AVERAGE(AO3,BD3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF3" s="5"/>
+      <c r="BG3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7561371</v>
       </c>
@@ -4701,8 +4899,40 @@
       <c r="AO4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE4" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF4" s="6"/>
+      <c r="BG4" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6884931</v>
       </c>
@@ -4745,8 +4975,40 @@
       <c r="AO5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF5" s="7"/>
+      <c r="BG5" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10048797</v>
       </c>
@@ -4789,8 +5051,40 @@
       <c r="AO6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF6" s="8"/>
+      <c r="BG6" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8377903</v>
       </c>
@@ -4839,8 +5133,36 @@
       <c r="AO7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7045344</v>
       </c>
@@ -4883,8 +5205,36 @@
       <c r="AO8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9198020</v>
       </c>
@@ -4927,8 +5277,36 @@
       <c r="AO9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8776936</v>
       </c>
@@ -4971,8 +5349,36 @@
       <c r="AO10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10197719</v>
       </c>
@@ -5018,8 +5424,36 @@
       <c r="AO11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8261011</v>
       </c>
@@ -5062,8 +5496,36 @@
       <c r="AO12">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9160217</v>
       </c>
@@ -5106,8 +5568,36 @@
       <c r="AO13">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8229925</v>
       </c>
@@ -5150,8 +5640,36 @@
       <c r="AO14">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7207103</v>
       </c>
@@ -5194,8 +5712,36 @@
       <c r="AO15">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7515934</v>
       </c>
@@ -5238,8 +5784,36 @@
       <c r="AO16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD16" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6888744</v>
       </c>
@@ -5282,8 +5856,36 @@
       <c r="AO17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7019794</v>
       </c>
@@ -5326,8 +5928,36 @@
       <c r="AO18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="8"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7155012</v>
       </c>
@@ -5370,8 +6000,36 @@
       <c r="AO19">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7380585</v>
       </c>
@@ -5414,8 +6072,36 @@
       <c r="AO20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="8"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="8"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6949377</v>
       </c>
@@ -5458,8 +6144,36 @@
       <c r="AO21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7975319</v>
       </c>
@@ -5502,8 +6216,36 @@
       <c r="AO22">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7809434</v>
       </c>
@@ -5546,8 +6288,36 @@
       <c r="AO23">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="8"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="8"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="8"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD23" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7475187</v>
       </c>
@@ -5590,8 +6360,36 @@
       <c r="AO24">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD24" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7148505</v>
       </c>
@@ -5634,8 +6432,36 @@
       <c r="AO25">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="6"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD25" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6571611</v>
       </c>
@@ -5678,8 +6504,36 @@
       <c r="AO26">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD26" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10301343</v>
       </c>
@@ -5722,8 +6576,36 @@
       <c r="AO27">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" t="e">
+        <f t="shared" ref="BB27:BB90" si="4">AVERAGE(AP27,AR27,AT27,AV27,AX27,AZ27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC27" t="e">
+        <f t="shared" ref="BC27:BC90" si="5">AVERAGE(AQ27,AS27,AU27,AW27,AY27,BA27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD27" t="e">
+        <f t="shared" ref="BD27:BD90" si="6">AVERAGE(BB27,BC27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE27" t="e">
+        <f t="shared" ref="BE27:BE90" si="7">AVERAGE(AO27,BD27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8991616</v>
       </c>
@@ -5769,8 +6651,36 @@
       <c r="AO28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC28" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD28" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE28" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9440156</v>
       </c>
@@ -5813,8 +6723,36 @@
       <c r="AO29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP29" s="8"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC29" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD29" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE29" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7557497</v>
       </c>
@@ -5857,8 +6795,36 @@
       <c r="AO30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8281742</v>
       </c>
@@ -5901,8 +6867,36 @@
       <c r="AO31">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC31" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD31" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE31" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8117002</v>
       </c>
@@ -5945,8 +6939,36 @@
       <c r="AO32">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="8"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="8"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="8"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="8"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="8"/>
+      <c r="BB32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD32" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE32" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10499739</v>
       </c>
@@ -5989,8 +7011,36 @@
       <c r="AO33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC33" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD33" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE33" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10199547</v>
       </c>
@@ -6033,8 +7083,36 @@
       <c r="AO34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC34" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE34" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7273631</v>
       </c>
@@ -6083,8 +7161,36 @@
       <c r="AO35">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP35" s="8"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="8"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="8"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC35" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD35" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE35" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7885851</v>
       </c>
@@ -6127,8 +7233,36 @@
       <c r="AO36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP36" s="8"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="8"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="8"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="8"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="8"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="8"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC36" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD36" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10507913</v>
       </c>
@@ -6171,8 +7305,36 @@
       <c r="AO37">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="7"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="7"/>
+      <c r="BB37" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC37" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD37" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE37" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8305939</v>
       </c>
@@ -6215,8 +7377,36 @@
       <c r="AO38">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="8"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="8"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="8"/>
+      <c r="BB38" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC38" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD38" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE38" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9440161</v>
       </c>
@@ -6259,8 +7449,36 @@
       <c r="AO39">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC39" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD39" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE39" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9796413</v>
       </c>
@@ -6303,8 +7521,36 @@
       <c r="AO40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6844270</v>
       </c>
@@ -6347,8 +7593,36 @@
       <c r="AO41">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="6"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC41" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD41" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE41" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7375627</v>
       </c>
@@ -6391,8 +7665,36 @@
       <c r="AO42">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP42" s="8"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="8"/>
+      <c r="AS42" s="7"/>
+      <c r="AT42" s="8"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="8"/>
+      <c r="AW42" s="7"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="7"/>
+      <c r="AZ42" s="8"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC42" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD42" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE42" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8452804</v>
       </c>
@@ -6432,8 +7734,36 @@
       <c r="AO43">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="6"/>
+      <c r="AS43" s="7"/>
+      <c r="AT43" s="6"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="6"/>
+      <c r="AW43" s="7"/>
+      <c r="AX43" s="6"/>
+      <c r="AY43" s="7"/>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="7"/>
+      <c r="BB43" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC43" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD43" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE43" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10932075</v>
       </c>
@@ -6476,8 +7806,36 @@
       <c r="AO44">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="8"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="8"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="8"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="8"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="8"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="8"/>
+      <c r="BB44" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC44" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD44" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7273420</v>
       </c>
@@ -6526,8 +7884,36 @@
       <c r="AO45">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC45" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD45" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE45" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10298744</v>
       </c>
@@ -6573,8 +7959,36 @@
       <c r="AO46">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="7"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="7"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="7"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="7"/>
+      <c r="BB46" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC46" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD46" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9787970</v>
       </c>
@@ -6620,8 +8034,36 @@
       <c r="AO47">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="8"/>
+      <c r="AS47" s="6"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="6"/>
+      <c r="AV47" s="8"/>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="8"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="8"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC47" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD47" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE47" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8855691</v>
       </c>
@@ -6664,8 +8106,36 @@
       <c r="AO48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP48" s="8"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="8"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="8"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="8"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="8"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="8"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC48" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD48" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE48" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8029584</v>
       </c>
@@ -6714,8 +8184,36 @@
       <c r="AO49">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="7"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="7"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="7"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="7"/>
+      <c r="BB49" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC49" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD49" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE49" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7838169</v>
       </c>
@@ -6758,8 +8256,36 @@
       <c r="AO50">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="8"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="8"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="8"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="8"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="8"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="8"/>
+      <c r="BB50" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC50" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD50" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE50" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6569743</v>
       </c>
@@ -6805,8 +8331,36 @@
       <c r="AO51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="6"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="6"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="6"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="6"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="6"/>
+      <c r="BB51" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC51" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD51" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE51" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7783254</v>
       </c>
@@ -6849,8 +8403,36 @@
       <c r="AO52">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC52" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD52" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE52" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8854718</v>
       </c>
@@ -6893,8 +8475,36 @@
       <c r="AO53">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP53" s="8"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="8"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="8"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="8"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="8"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="8"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC53" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD53" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE53" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8536351</v>
       </c>
@@ -6934,8 +8544,36 @@
       <c r="AO54">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="8"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="8"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="8"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="8"/>
+      <c r="AY54" s="7"/>
+      <c r="AZ54" s="8"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC54" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE54" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7272924</v>
       </c>
@@ -6978,8 +8616,36 @@
       <c r="AO55">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="7"/>
+      <c r="AT55" s="6"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="6"/>
+      <c r="AW55" s="7"/>
+      <c r="AX55" s="6"/>
+      <c r="AY55" s="7"/>
+      <c r="AZ55" s="6"/>
+      <c r="BA55" s="7"/>
+      <c r="BB55" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC55" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD55" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE55" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9741963</v>
       </c>
@@ -7022,8 +8688,36 @@
       <c r="AO56">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="8"/>
+      <c r="AR56" s="5"/>
+      <c r="AS56" s="8"/>
+      <c r="AT56" s="5"/>
+      <c r="AU56" s="8"/>
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="8"/>
+      <c r="AX56" s="5"/>
+      <c r="AY56" s="8"/>
+      <c r="AZ56" s="5"/>
+      <c r="BA56" s="8"/>
+      <c r="BB56" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC56" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD56" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE56" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10675922</v>
       </c>
@@ -7069,8 +8763,36 @@
       <c r="AO57">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="5"/>
+      <c r="AS57" s="6"/>
+      <c r="AT57" s="5"/>
+      <c r="AU57" s="6"/>
+      <c r="AV57" s="5"/>
+      <c r="AW57" s="6"/>
+      <c r="AX57" s="5"/>
+      <c r="AY57" s="6"/>
+      <c r="AZ57" s="5"/>
+      <c r="BA57" s="6"/>
+      <c r="BB57" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC57" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD57" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE57" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10229439</v>
       </c>
@@ -7116,8 +8838,36 @@
       <c r="AO58">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="7"/>
+      <c r="AT58" s="5"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="5"/>
+      <c r="AW58" s="7"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="7"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="7"/>
+      <c r="BB58" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC58" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD58" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE58" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8625203</v>
       </c>
@@ -7160,8 +8910,36 @@
       <c r="AO59">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP59" s="8"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="8"/>
+      <c r="AS59" s="6"/>
+      <c r="AT59" s="8"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="8"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="8"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="8"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC59" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD59" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE59" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6649891</v>
       </c>
@@ -7207,8 +8985,36 @@
       <c r="AO60">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP60" s="8"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="8"/>
+      <c r="AS60" s="7"/>
+      <c r="AT60" s="8"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="8"/>
+      <c r="AW60" s="7"/>
+      <c r="AX60" s="8"/>
+      <c r="AY60" s="7"/>
+      <c r="AZ60" s="8"/>
+      <c r="BA60" s="7"/>
+      <c r="BB60" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC60" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD60" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE60" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10911525</v>
       </c>
@@ -7251,8 +9057,36 @@
       <c r="AO61">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP61" s="6"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="6"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="6"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="6"/>
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="6"/>
+      <c r="AY61" s="7"/>
+      <c r="AZ61" s="6"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC61" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD61" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE61" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10196878</v>
       </c>
@@ -7298,8 +9132,36 @@
       <c r="AO62">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="8"/>
+      <c r="AR62" s="5"/>
+      <c r="AS62" s="8"/>
+      <c r="AT62" s="5"/>
+      <c r="AU62" s="8"/>
+      <c r="AV62" s="5"/>
+      <c r="AW62" s="8"/>
+      <c r="AX62" s="5"/>
+      <c r="AY62" s="8"/>
+      <c r="AZ62" s="5"/>
+      <c r="BA62" s="8"/>
+      <c r="BB62" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC62" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD62" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE62" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10366665</v>
       </c>
@@ -7345,8 +9207,36 @@
       <c r="AO63">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="5"/>
+      <c r="AS63" s="6"/>
+      <c r="AT63" s="5"/>
+      <c r="AU63" s="6"/>
+      <c r="AV63" s="5"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="5"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="5"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC63" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD63" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE63" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7589817</v>
       </c>
@@ -7389,8 +9279,36 @@
       <c r="AO64">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="5"/>
+      <c r="AS64" s="7"/>
+      <c r="AT64" s="5"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="5"/>
+      <c r="AW64" s="7"/>
+      <c r="AX64" s="5"/>
+      <c r="AY64" s="7"/>
+      <c r="AZ64" s="5"/>
+      <c r="BA64" s="7"/>
+      <c r="BB64" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC64" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD64" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE64" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7381799</v>
       </c>
@@ -7433,8 +9351,36 @@
       <c r="AO65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP65" s="8"/>
+      <c r="AQ65" s="6"/>
+      <c r="AR65" s="8"/>
+      <c r="AS65" s="6"/>
+      <c r="AT65" s="8"/>
+      <c r="AU65" s="6"/>
+      <c r="AV65" s="8"/>
+      <c r="AW65" s="6"/>
+      <c r="AX65" s="8"/>
+      <c r="AY65" s="6"/>
+      <c r="AZ65" s="8"/>
+      <c r="BA65" s="6"/>
+      <c r="BB65" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC65" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD65" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE65" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9103716</v>
       </c>
@@ -7477,8 +9423,36 @@
       <c r="AO66">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP66" s="8"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="8"/>
+      <c r="AS66" s="7"/>
+      <c r="AT66" s="8"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="8"/>
+      <c r="AW66" s="7"/>
+      <c r="AX66" s="8"/>
+      <c r="AY66" s="7"/>
+      <c r="AZ66" s="8"/>
+      <c r="BA66" s="7"/>
+      <c r="BB66" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC66" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD66" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE66" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10621714</v>
       </c>
@@ -7521,8 +9495,36 @@
       <c r="AO67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP67" s="6"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="6"/>
+      <c r="AS67" s="7"/>
+      <c r="AT67" s="6"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="6"/>
+      <c r="AW67" s="7"/>
+      <c r="AX67" s="6"/>
+      <c r="AY67" s="7"/>
+      <c r="AZ67" s="6"/>
+      <c r="BA67" s="7"/>
+      <c r="BB67" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC67" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD67" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE67" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10216597</v>
       </c>
@@ -7568,8 +9570,36 @@
       <c r="AO68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="8"/>
+      <c r="AR68" s="5"/>
+      <c r="AS68" s="8"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="8"/>
+      <c r="AV68" s="5"/>
+      <c r="AW68" s="8"/>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="8"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="8"/>
+      <c r="BB68" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC68" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD68" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE68" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>7943143</v>
       </c>
@@ -7612,8 +9642,36 @@
       <c r="AO69">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="6"/>
+      <c r="AR69" s="5"/>
+      <c r="AS69" s="6"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="6"/>
+      <c r="AV69" s="5"/>
+      <c r="AW69" s="6"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="6"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="6"/>
+      <c r="BB69" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC69" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD69" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE69" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9142966</v>
       </c>
@@ -7656,8 +9714,36 @@
       <c r="AO70">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="7"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="7"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="7"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="7"/>
+      <c r="BB70" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC70" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD70" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE70" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8530033</v>
       </c>
@@ -7703,8 +9789,36 @@
       <c r="AO71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP71" s="8"/>
+      <c r="AQ71" s="6"/>
+      <c r="AR71" s="8"/>
+      <c r="AS71" s="6"/>
+      <c r="AT71" s="8"/>
+      <c r="AU71" s="6"/>
+      <c r="AV71" s="8"/>
+      <c r="AW71" s="6"/>
+      <c r="AX71" s="8"/>
+      <c r="AY71" s="6"/>
+      <c r="AZ71" s="8"/>
+      <c r="BA71" s="6"/>
+      <c r="BB71" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC71" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD71" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE71" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10298714</v>
       </c>
@@ -7750,8 +9864,36 @@
       <c r="AO72">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP72" s="8"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="8"/>
+      <c r="AS72" s="7"/>
+      <c r="AT72" s="8"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="8"/>
+      <c r="AW72" s="7"/>
+      <c r="AX72" s="8"/>
+      <c r="AY72" s="7"/>
+      <c r="AZ72" s="8"/>
+      <c r="BA72" s="7"/>
+      <c r="BB72" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC72" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD72" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE72" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8300829</v>
       </c>
@@ -7794,8 +9936,36 @@
       <c r="AO73">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP73" s="6"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="6"/>
+      <c r="AS73" s="7"/>
+      <c r="AT73" s="6"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="6"/>
+      <c r="AW73" s="7"/>
+      <c r="AX73" s="6"/>
+      <c r="AY73" s="7"/>
+      <c r="AZ73" s="6"/>
+      <c r="BA73" s="7"/>
+      <c r="BB73" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC73" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD73" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE73" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7819324</v>
       </c>
@@ -7841,8 +10011,36 @@
       <c r="AO74">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="8"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="8"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="8"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="8"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="8"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="8"/>
+      <c r="BB74" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC74" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD74" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE74" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10062444</v>
       </c>
@@ -7888,8 +10086,36 @@
       <c r="AO75">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="6"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="6"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="6"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="6"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="6"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="6"/>
+      <c r="BB75" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC75" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD75" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE75" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9825820</v>
       </c>
@@ -7935,8 +10161,36 @@
       <c r="AO76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="7"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="7"/>
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="7"/>
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="7"/>
+      <c r="AZ76" s="5"/>
+      <c r="BA76" s="7"/>
+      <c r="BB76" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC76" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD76" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE76" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7272927</v>
       </c>
@@ -7979,8 +10233,36 @@
       <c r="AO77">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP77" s="8"/>
+      <c r="AQ77" s="6"/>
+      <c r="AR77" s="8"/>
+      <c r="AS77" s="6"/>
+      <c r="AT77" s="8"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="8"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="8"/>
+      <c r="AY77" s="6"/>
+      <c r="AZ77" s="8"/>
+      <c r="BA77" s="6"/>
+      <c r="BB77" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC77" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD77" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE77" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8539203</v>
       </c>
@@ -8023,8 +10305,36 @@
       <c r="AO78">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP78" s="8"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="8"/>
+      <c r="AS78" s="7"/>
+      <c r="AT78" s="8"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="8"/>
+      <c r="AW78" s="7"/>
+      <c r="AX78" s="8"/>
+      <c r="AY78" s="7"/>
+      <c r="AZ78" s="8"/>
+      <c r="BA78" s="7"/>
+      <c r="BB78" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC78" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD78" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE78" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6928903</v>
       </c>
@@ -8067,8 +10377,36 @@
       <c r="AO79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="7"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="7"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="7"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="7"/>
+      <c r="BB79" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC79" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD79" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE79" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6595798</v>
       </c>
@@ -8111,8 +10449,36 @@
       <c r="AO80">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="8"/>
+      <c r="AR80" s="5"/>
+      <c r="AS80" s="8"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="8"/>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="8"/>
+      <c r="AX80" s="5"/>
+      <c r="AY80" s="8"/>
+      <c r="AZ80" s="5"/>
+      <c r="BA80" s="8"/>
+      <c r="BB80" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC80" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD80" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE80" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7091286</v>
       </c>
@@ -8161,8 +10527,36 @@
       <c r="AO81">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP81" s="5"/>
+      <c r="AQ81" s="6"/>
+      <c r="AR81" s="5"/>
+      <c r="AS81" s="6"/>
+      <c r="AT81" s="5"/>
+      <c r="AU81" s="6"/>
+      <c r="AV81" s="5"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="5"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="5"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC81" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD81" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE81" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10336260</v>
       </c>
@@ -8208,8 +10602,36 @@
       <c r="AO82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="7"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="7"/>
+      <c r="AX82" s="5"/>
+      <c r="AY82" s="7"/>
+      <c r="AZ82" s="5"/>
+      <c r="BA82" s="7"/>
+      <c r="BB82" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC82" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD82" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE82" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10304799</v>
       </c>
@@ -8252,8 +10674,36 @@
       <c r="AO83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP83" s="8"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="8"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="8"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="8"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="8"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="8"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC83" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD83" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE83" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10011478</v>
       </c>
@@ -8296,8 +10746,36 @@
       <c r="AO84">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP84" s="8"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="8"/>
+      <c r="AS84" s="7"/>
+      <c r="AT84" s="8"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="8"/>
+      <c r="AW84" s="7"/>
+      <c r="AX84" s="8"/>
+      <c r="AY84" s="7"/>
+      <c r="AZ84" s="8"/>
+      <c r="BA84" s="7"/>
+      <c r="BB84" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC84" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD84" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE84" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9260075</v>
       </c>
@@ -8340,8 +10818,36 @@
       <c r="AO85">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP85" s="6"/>
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="6"/>
+      <c r="AS85" s="7"/>
+      <c r="AT85" s="6"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="6"/>
+      <c r="AW85" s="7"/>
+      <c r="AX85" s="6"/>
+      <c r="AY85" s="7"/>
+      <c r="AZ85" s="6"/>
+      <c r="BA85" s="7"/>
+      <c r="BB85" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC85" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD85" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE85" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8914670</v>
       </c>
@@ -8387,8 +10893,36 @@
       <c r="AO86">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP86" s="5"/>
+      <c r="AQ86" s="8"/>
+      <c r="AR86" s="5"/>
+      <c r="AS86" s="8"/>
+      <c r="AT86" s="5"/>
+      <c r="AU86" s="8"/>
+      <c r="AV86" s="5"/>
+      <c r="AW86" s="8"/>
+      <c r="AX86" s="5"/>
+      <c r="AY86" s="8"/>
+      <c r="AZ86" s="5"/>
+      <c r="BA86" s="8"/>
+      <c r="BB86" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC86" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD86" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE86" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10877022</v>
       </c>
@@ -8434,8 +10968,36 @@
       <c r="AO87">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="5"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="5"/>
+      <c r="AU87" s="6"/>
+      <c r="AV87" s="5"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="5"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="5"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC87" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD87" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE87" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7507977</v>
       </c>
@@ -8478,8 +11040,36 @@
       <c r="AO88">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="5"/>
+      <c r="AS88" s="7"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="7"/>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="7"/>
+      <c r="AZ88" s="5"/>
+      <c r="BA88" s="7"/>
+      <c r="BB88" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC88" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD88" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE88" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8305938</v>
       </c>
@@ -8522,8 +11112,36 @@
       <c r="AO89">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP89" s="8"/>
+      <c r="AQ89" s="6"/>
+      <c r="AR89" s="8"/>
+      <c r="AS89" s="6"/>
+      <c r="AT89" s="8"/>
+      <c r="AU89" s="6"/>
+      <c r="AV89" s="8"/>
+      <c r="AW89" s="6"/>
+      <c r="AX89" s="8"/>
+      <c r="AY89" s="6"/>
+      <c r="AZ89" s="8"/>
+      <c r="BA89" s="6"/>
+      <c r="BB89" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC89" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD89" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE89" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7100474</v>
       </c>
@@ -8563,8 +11181,36 @@
       <c r="AO90">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP90" s="8"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="8"/>
+      <c r="AS90" s="7"/>
+      <c r="AT90" s="8"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="8"/>
+      <c r="AW90" s="7"/>
+      <c r="AX90" s="8"/>
+      <c r="AY90" s="7"/>
+      <c r="AZ90" s="8"/>
+      <c r="BA90" s="7"/>
+      <c r="BB90" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC90" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD90" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE90" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8453107</v>
       </c>
@@ -8610,8 +11256,36 @@
       <c r="AO91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP91" s="6"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="6"/>
+      <c r="AS91" s="7"/>
+      <c r="AT91" s="6"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="6"/>
+      <c r="AW91" s="7"/>
+      <c r="AX91" s="6"/>
+      <c r="AY91" s="7"/>
+      <c r="AZ91" s="6"/>
+      <c r="BA91" s="7"/>
+      <c r="BB91" t="e">
+        <f t="shared" ref="BB91:BB154" si="8">AVERAGE(AP91,AR91,AT91,AV91,AX91,AZ91)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC91" t="e">
+        <f t="shared" ref="BC91:BC154" si="9">AVERAGE(AQ91,AS91,AU91,AW91,AY91,BA91)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD91" t="e">
+        <f t="shared" ref="BD91:BD154" si="10">AVERAGE(BB91,BC91)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE91" t="e">
+        <f t="shared" ref="BE91:BE154" si="11">AVERAGE(AO91,BD91)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9464569</v>
       </c>
@@ -8657,8 +11331,36 @@
       <c r="AO92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP92" s="5"/>
+      <c r="AQ92" s="8"/>
+      <c r="AR92" s="5"/>
+      <c r="AS92" s="8"/>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="8"/>
+      <c r="AV92" s="5"/>
+      <c r="AW92" s="8"/>
+      <c r="AX92" s="5"/>
+      <c r="AY92" s="8"/>
+      <c r="AZ92" s="5"/>
+      <c r="BA92" s="8"/>
+      <c r="BB92" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC92" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD92" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE92" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9616824</v>
       </c>
@@ -8701,8 +11403,36 @@
       <c r="AO93">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP93" s="5"/>
+      <c r="AQ93" s="6"/>
+      <c r="AR93" s="5"/>
+      <c r="AS93" s="6"/>
+      <c r="AT93" s="5"/>
+      <c r="AU93" s="6"/>
+      <c r="AV93" s="5"/>
+      <c r="AW93" s="6"/>
+      <c r="AX93" s="5"/>
+      <c r="AY93" s="6"/>
+      <c r="AZ93" s="5"/>
+      <c r="BA93" s="6"/>
+      <c r="BB93" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC93" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD93" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE93" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9155903</v>
       </c>
@@ -8745,8 +11475,36 @@
       <c r="AO94">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="7"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="7"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="7"/>
+      <c r="AV94" s="5"/>
+      <c r="AW94" s="7"/>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="7"/>
+      <c r="AZ94" s="5"/>
+      <c r="BA94" s="7"/>
+      <c r="BB94" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC94" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD94" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE94" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10493937</v>
       </c>
@@ -8789,8 +11547,36 @@
       <c r="AO95">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP95" s="8"/>
+      <c r="AQ95" s="6"/>
+      <c r="AR95" s="8"/>
+      <c r="AS95" s="6"/>
+      <c r="AT95" s="8"/>
+      <c r="AU95" s="6"/>
+      <c r="AV95" s="8"/>
+      <c r="AW95" s="6"/>
+      <c r="AX95" s="8"/>
+      <c r="AY95" s="6"/>
+      <c r="AZ95" s="8"/>
+      <c r="BA95" s="6"/>
+      <c r="BB95" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC95" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD95" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE95" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7828927</v>
       </c>
@@ -8833,8 +11619,36 @@
       <c r="AO96">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="7"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="7"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="8"/>
+      <c r="AW96" s="7"/>
+      <c r="AX96" s="8"/>
+      <c r="AY96" s="7"/>
+      <c r="AZ96" s="8"/>
+      <c r="BA96" s="7"/>
+      <c r="BB96" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC96" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD96" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE96" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10660677</v>
       </c>
@@ -8877,9 +11691,36 @@
       <c r="AO97">
         <v>0.4</v>
       </c>
-      <c r="AR97" s="4"/>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP97" s="6"/>
+      <c r="AQ97" s="7"/>
+      <c r="AR97" s="6"/>
+      <c r="AS97" s="7"/>
+      <c r="AT97" s="6"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="6"/>
+      <c r="AW97" s="7"/>
+      <c r="AX97" s="6"/>
+      <c r="AY97" s="7"/>
+      <c r="AZ97" s="6"/>
+      <c r="BA97" s="7"/>
+      <c r="BB97" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC97" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD97" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE97" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8754416</v>
       </c>
@@ -8928,8 +11769,36 @@
       <c r="AO98">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP98" s="5"/>
+      <c r="AQ98" s="8"/>
+      <c r="AR98" s="5"/>
+      <c r="AS98" s="8"/>
+      <c r="AT98" s="5"/>
+      <c r="AU98" s="8"/>
+      <c r="AV98" s="5"/>
+      <c r="AW98" s="8"/>
+      <c r="AX98" s="5"/>
+      <c r="AY98" s="8"/>
+      <c r="AZ98" s="5"/>
+      <c r="BA98" s="8"/>
+      <c r="BB98" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC98" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD98" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE98" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7582788</v>
       </c>
@@ -8969,8 +11838,36 @@
       <c r="AO99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP99" s="5"/>
+      <c r="AQ99" s="6"/>
+      <c r="AR99" s="5"/>
+      <c r="AS99" s="6"/>
+      <c r="AT99" s="5"/>
+      <c r="AU99" s="6"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="6"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="6"/>
+      <c r="AZ99" s="5"/>
+      <c r="BA99" s="6"/>
+      <c r="BB99" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC99" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD99" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE99" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -9031,8 +11928,36 @@
       <c r="AO100">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP100" s="5"/>
+      <c r="AQ100" s="7"/>
+      <c r="AR100" s="5"/>
+      <c r="AS100" s="7"/>
+      <c r="AT100" s="5"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="5"/>
+      <c r="AW100" s="7"/>
+      <c r="AX100" s="5"/>
+      <c r="AY100" s="7"/>
+      <c r="AZ100" s="5"/>
+      <c r="BA100" s="7"/>
+      <c r="BB100" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC100" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD100" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE100" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -9084,8 +12009,36 @@
       <c r="AO101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP101" s="8"/>
+      <c r="AQ101" s="6"/>
+      <c r="AR101" s="8"/>
+      <c r="AS101" s="6"/>
+      <c r="AT101" s="8"/>
+      <c r="AU101" s="6"/>
+      <c r="AV101" s="8"/>
+      <c r="AW101" s="6"/>
+      <c r="AX101" s="8"/>
+      <c r="AY101" s="6"/>
+      <c r="AZ101" s="8"/>
+      <c r="BA101" s="6"/>
+      <c r="BB101" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC101" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD101" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE101" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>42</v>
       </c>
@@ -9134,8 +12087,36 @@
       <c r="AO102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP102" s="8"/>
+      <c r="AQ102" s="7"/>
+      <c r="AR102" s="8"/>
+      <c r="AS102" s="7"/>
+      <c r="AT102" s="8"/>
+      <c r="AU102" s="7"/>
+      <c r="AV102" s="8"/>
+      <c r="AW102" s="7"/>
+      <c r="AX102" s="8"/>
+      <c r="AY102" s="7"/>
+      <c r="AZ102" s="8"/>
+      <c r="BA102" s="7"/>
+      <c r="BB102" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC102" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD102" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE102" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -9184,8 +12165,36 @@
       <c r="AO103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP103" s="6"/>
+      <c r="AQ103" s="7"/>
+      <c r="AR103" s="6"/>
+      <c r="AS103" s="7"/>
+      <c r="AT103" s="6"/>
+      <c r="AU103" s="7"/>
+      <c r="AV103" s="6"/>
+      <c r="AW103" s="7"/>
+      <c r="AX103" s="6"/>
+      <c r="AY103" s="7"/>
+      <c r="AZ103" s="6"/>
+      <c r="BA103" s="7"/>
+      <c r="BB103" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC103" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD103" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE103" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -9237,8 +12246,36 @@
       <c r="AO104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP104" s="5"/>
+      <c r="AQ104" s="8"/>
+      <c r="AR104" s="5"/>
+      <c r="AS104" s="8"/>
+      <c r="AT104" s="5"/>
+      <c r="AU104" s="8"/>
+      <c r="AV104" s="5"/>
+      <c r="AW104" s="8"/>
+      <c r="AX104" s="5"/>
+      <c r="AY104" s="8"/>
+      <c r="AZ104" s="5"/>
+      <c r="BA104" s="8"/>
+      <c r="BB104" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC104" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD104" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE104" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -9287,8 +12324,36 @@
       <c r="AO105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP105" s="5"/>
+      <c r="AQ105" s="6"/>
+      <c r="AR105" s="5"/>
+      <c r="AS105" s="6"/>
+      <c r="AT105" s="5"/>
+      <c r="AU105" s="6"/>
+      <c r="AV105" s="5"/>
+      <c r="AW105" s="6"/>
+      <c r="AX105" s="5"/>
+      <c r="AY105" s="6"/>
+      <c r="AZ105" s="5"/>
+      <c r="BA105" s="6"/>
+      <c r="BB105" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC105" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD105" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE105" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>46</v>
       </c>
@@ -9337,8 +12402,36 @@
       <c r="AO106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP106" s="5"/>
+      <c r="AQ106" s="7"/>
+      <c r="AR106" s="5"/>
+      <c r="AS106" s="7"/>
+      <c r="AT106" s="5"/>
+      <c r="AU106" s="7"/>
+      <c r="AV106" s="5"/>
+      <c r="AW106" s="7"/>
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="7"/>
+      <c r="AZ106" s="5"/>
+      <c r="BA106" s="7"/>
+      <c r="BB106" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC106" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD106" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE106" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -9387,8 +12480,36 @@
       <c r="AO107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="6"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="6"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="6"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="6"/>
+      <c r="AX107" s="8"/>
+      <c r="AY107" s="6"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="6"/>
+      <c r="BB107" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC107" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD107" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE107" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -9440,8 +12561,36 @@
       <c r="AO108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP108" s="8"/>
+      <c r="AQ108" s="7"/>
+      <c r="AR108" s="8"/>
+      <c r="AS108" s="7"/>
+      <c r="AT108" s="8"/>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="8"/>
+      <c r="AW108" s="7"/>
+      <c r="AX108" s="8"/>
+      <c r="AY108" s="7"/>
+      <c r="AZ108" s="8"/>
+      <c r="BA108" s="7"/>
+      <c r="BB108" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC108" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD108" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE108" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -9490,8 +12639,36 @@
       <c r="AO109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP109" s="6"/>
+      <c r="AQ109" s="7"/>
+      <c r="AR109" s="6"/>
+      <c r="AS109" s="7"/>
+      <c r="AT109" s="6"/>
+      <c r="AU109" s="7"/>
+      <c r="AV109" s="6"/>
+      <c r="AW109" s="7"/>
+      <c r="AX109" s="6"/>
+      <c r="AY109" s="7"/>
+      <c r="AZ109" s="6"/>
+      <c r="BA109" s="7"/>
+      <c r="BB109" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC109" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD109" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE109" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>50</v>
       </c>
@@ -9540,8 +12717,36 @@
       <c r="AO110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP110" s="5"/>
+      <c r="AQ110" s="8"/>
+      <c r="AR110" s="5"/>
+      <c r="AS110" s="8"/>
+      <c r="AT110" s="5"/>
+      <c r="AU110" s="8"/>
+      <c r="AV110" s="5"/>
+      <c r="AW110" s="8"/>
+      <c r="AX110" s="5"/>
+      <c r="AY110" s="8"/>
+      <c r="AZ110" s="5"/>
+      <c r="BA110" s="8"/>
+      <c r="BB110" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC110" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD110" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE110" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>946</v>
       </c>
@@ -9563,8 +12768,36 @@
       <c r="AO111">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AP111" s="5"/>
+      <c r="AQ111" s="6"/>
+      <c r="AR111" s="5"/>
+      <c r="AS111" s="6"/>
+      <c r="AT111" s="5"/>
+      <c r="AU111" s="6"/>
+      <c r="AV111" s="5"/>
+      <c r="AW111" s="6"/>
+      <c r="AX111" s="5"/>
+      <c r="AY111" s="6"/>
+      <c r="AZ111" s="5"/>
+      <c r="BA111" s="6"/>
+      <c r="BB111" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC111" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD111" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE111" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>950</v>
       </c>
@@ -9586,8 +12819,36 @@
       <c r="AO112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP112" s="5"/>
+      <c r="AQ112" s="7"/>
+      <c r="AR112" s="5"/>
+      <c r="AS112" s="7"/>
+      <c r="AT112" s="5"/>
+      <c r="AU112" s="7"/>
+      <c r="AV112" s="5"/>
+      <c r="AW112" s="7"/>
+      <c r="AX112" s="5"/>
+      <c r="AY112" s="7"/>
+      <c r="AZ112" s="5"/>
+      <c r="BA112" s="7"/>
+      <c r="BB112" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC112" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD112" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE112" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>954</v>
       </c>
@@ -9609,8 +12870,36 @@
       <c r="AO113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP113" s="8"/>
+      <c r="AQ113" s="6"/>
+      <c r="AR113" s="8"/>
+      <c r="AS113" s="6"/>
+      <c r="AT113" s="8"/>
+      <c r="AU113" s="6"/>
+      <c r="AV113" s="8"/>
+      <c r="AW113" s="6"/>
+      <c r="AX113" s="8"/>
+      <c r="AY113" s="6"/>
+      <c r="AZ113" s="8"/>
+      <c r="BA113" s="6"/>
+      <c r="BB113" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC113" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD113" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE113" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>958</v>
       </c>
@@ -9632,8 +12921,36 @@
       <c r="AO114">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="115" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP114" s="8"/>
+      <c r="AQ114" s="7"/>
+      <c r="AR114" s="8"/>
+      <c r="AS114" s="7"/>
+      <c r="AT114" s="8"/>
+      <c r="AU114" s="7"/>
+      <c r="AV114" s="8"/>
+      <c r="AW114" s="7"/>
+      <c r="AX114" s="8"/>
+      <c r="AY114" s="7"/>
+      <c r="AZ114" s="8"/>
+      <c r="BA114" s="7"/>
+      <c r="BB114" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC114" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD114" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE114" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>962</v>
       </c>
@@ -9655,8 +12972,36 @@
       <c r="AO115">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="116" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP115" s="6"/>
+      <c r="AQ115" s="7"/>
+      <c r="AR115" s="6"/>
+      <c r="AS115" s="7"/>
+      <c r="AT115" s="6"/>
+      <c r="AU115" s="7"/>
+      <c r="AV115" s="6"/>
+      <c r="AW115" s="7"/>
+      <c r="AX115" s="6"/>
+      <c r="AY115" s="7"/>
+      <c r="AZ115" s="6"/>
+      <c r="BA115" s="7"/>
+      <c r="BB115" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC115" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD115" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE115" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>966</v>
       </c>
@@ -9678,8 +13023,36 @@
       <c r="AO116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP116" s="5"/>
+      <c r="AQ116" s="8"/>
+      <c r="AR116" s="5"/>
+      <c r="AS116" s="8"/>
+      <c r="AT116" s="5"/>
+      <c r="AU116" s="8"/>
+      <c r="AV116" s="5"/>
+      <c r="AW116" s="8"/>
+      <c r="AX116" s="5"/>
+      <c r="AY116" s="8"/>
+      <c r="AZ116" s="5"/>
+      <c r="BA116" s="8"/>
+      <c r="BB116" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC116" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD116" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE116" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>970</v>
       </c>
@@ -9701,8 +13074,36 @@
       <c r="AO117">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="118" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP117" s="5"/>
+      <c r="AQ117" s="6"/>
+      <c r="AR117" s="5"/>
+      <c r="AS117" s="6"/>
+      <c r="AT117" s="5"/>
+      <c r="AU117" s="6"/>
+      <c r="AV117" s="5"/>
+      <c r="AW117" s="6"/>
+      <c r="AX117" s="5"/>
+      <c r="AY117" s="6"/>
+      <c r="AZ117" s="5"/>
+      <c r="BA117" s="6"/>
+      <c r="BB117" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC117" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD117" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE117" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>974</v>
       </c>
@@ -9724,8 +13125,36 @@
       <c r="AO118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP118" s="5"/>
+      <c r="AQ118" s="7"/>
+      <c r="AR118" s="5"/>
+      <c r="AS118" s="7"/>
+      <c r="AT118" s="5"/>
+      <c r="AU118" s="7"/>
+      <c r="AV118" s="5"/>
+      <c r="AW118" s="7"/>
+      <c r="AX118" s="5"/>
+      <c r="AY118" s="7"/>
+      <c r="AZ118" s="5"/>
+      <c r="BA118" s="7"/>
+      <c r="BB118" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC118" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD118" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE118" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>978</v>
       </c>
@@ -9747,8 +13176,36 @@
       <c r="AO119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP119" s="8"/>
+      <c r="AQ119" s="6"/>
+      <c r="AR119" s="8"/>
+      <c r="AS119" s="6"/>
+      <c r="AT119" s="8"/>
+      <c r="AU119" s="6"/>
+      <c r="AV119" s="8"/>
+      <c r="AW119" s="6"/>
+      <c r="AX119" s="8"/>
+      <c r="AY119" s="6"/>
+      <c r="AZ119" s="8"/>
+      <c r="BA119" s="6"/>
+      <c r="BB119" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC119" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD119" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE119" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>981</v>
       </c>
@@ -9770,8 +13227,36 @@
       <c r="AO120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP120" s="8"/>
+      <c r="AQ120" s="7"/>
+      <c r="AR120" s="8"/>
+      <c r="AS120" s="7"/>
+      <c r="AT120" s="8"/>
+      <c r="AU120" s="7"/>
+      <c r="AV120" s="8"/>
+      <c r="AW120" s="7"/>
+      <c r="AX120" s="8"/>
+      <c r="AY120" s="7"/>
+      <c r="AZ120" s="8"/>
+      <c r="BA120" s="7"/>
+      <c r="BB120" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC120" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD120" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE120" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>985</v>
       </c>
@@ -9793,8 +13278,36 @@
       <c r="AO121">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="122" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP121" s="6"/>
+      <c r="AQ121" s="7"/>
+      <c r="AR121" s="6"/>
+      <c r="AS121" s="7"/>
+      <c r="AT121" s="6"/>
+      <c r="AU121" s="7"/>
+      <c r="AV121" s="6"/>
+      <c r="AW121" s="7"/>
+      <c r="AX121" s="6"/>
+      <c r="AY121" s="7"/>
+      <c r="AZ121" s="6"/>
+      <c r="BA121" s="7"/>
+      <c r="BB121" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC121" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD121" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE121" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>989</v>
       </c>
@@ -9816,8 +13329,36 @@
       <c r="AO122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP122" s="5"/>
+      <c r="AQ122" s="8"/>
+      <c r="AR122" s="5"/>
+      <c r="AS122" s="8"/>
+      <c r="AT122" s="5"/>
+      <c r="AU122" s="8"/>
+      <c r="AV122" s="5"/>
+      <c r="AW122" s="8"/>
+      <c r="AX122" s="5"/>
+      <c r="AY122" s="8"/>
+      <c r="AZ122" s="5"/>
+      <c r="BA122" s="8"/>
+      <c r="BB122" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC122" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD122" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE122" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>993</v>
       </c>
@@ -9839,8 +13380,36 @@
       <c r="AO123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP123" s="5"/>
+      <c r="AQ123" s="6"/>
+      <c r="AR123" s="5"/>
+      <c r="AS123" s="6"/>
+      <c r="AT123" s="5"/>
+      <c r="AU123" s="6"/>
+      <c r="AV123" s="5"/>
+      <c r="AW123" s="6"/>
+      <c r="AX123" s="5"/>
+      <c r="AY123" s="6"/>
+      <c r="AZ123" s="5"/>
+      <c r="BA123" s="6"/>
+      <c r="BB123" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC123" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD123" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE123" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>995</v>
       </c>
@@ -9862,8 +13431,36 @@
       <c r="AO124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP124" s="5"/>
+      <c r="AQ124" s="7"/>
+      <c r="AR124" s="5"/>
+      <c r="AS124" s="7"/>
+      <c r="AT124" s="5"/>
+      <c r="AU124" s="7"/>
+      <c r="AV124" s="5"/>
+      <c r="AW124" s="7"/>
+      <c r="AX124" s="5"/>
+      <c r="AY124" s="7"/>
+      <c r="AZ124" s="5"/>
+      <c r="BA124" s="7"/>
+      <c r="BB124" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC124" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD124" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE124" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>999</v>
       </c>
@@ -9885,8 +13482,36 @@
       <c r="AO125">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="126" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP125" s="8"/>
+      <c r="AQ125" s="6"/>
+      <c r="AR125" s="8"/>
+      <c r="AS125" s="6"/>
+      <c r="AT125" s="8"/>
+      <c r="AU125" s="6"/>
+      <c r="AV125" s="8"/>
+      <c r="AW125" s="6"/>
+      <c r="AX125" s="8"/>
+      <c r="AY125" s="6"/>
+      <c r="AZ125" s="8"/>
+      <c r="BA125" s="6"/>
+      <c r="BB125" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC125" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD125" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE125" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>1003</v>
       </c>
@@ -9908,8 +13533,36 @@
       <c r="AO126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP126" s="8"/>
+      <c r="AQ126" s="7"/>
+      <c r="AR126" s="8"/>
+      <c r="AS126" s="7"/>
+      <c r="AT126" s="8"/>
+      <c r="AU126" s="7"/>
+      <c r="AV126" s="8"/>
+      <c r="AW126" s="7"/>
+      <c r="AX126" s="8"/>
+      <c r="AY126" s="7"/>
+      <c r="AZ126" s="8"/>
+      <c r="BA126" s="7"/>
+      <c r="BB126" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC126" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD126" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE126" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>1007</v>
       </c>
@@ -9931,8 +13584,36 @@
       <c r="AO127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP127" s="6"/>
+      <c r="AQ127" s="7"/>
+      <c r="AR127" s="6"/>
+      <c r="AS127" s="7"/>
+      <c r="AT127" s="6"/>
+      <c r="AU127" s="7"/>
+      <c r="AV127" s="6"/>
+      <c r="AW127" s="7"/>
+      <c r="AX127" s="6"/>
+      <c r="AY127" s="7"/>
+      <c r="AZ127" s="6"/>
+      <c r="BA127" s="7"/>
+      <c r="BB127" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC127" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD127" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE127" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>1011</v>
       </c>
@@ -9954,8 +13635,36 @@
       <c r="AO128">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="129" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP128" s="5"/>
+      <c r="AQ128" s="8"/>
+      <c r="AR128" s="5"/>
+      <c r="AS128" s="8"/>
+      <c r="AT128" s="5"/>
+      <c r="AU128" s="8"/>
+      <c r="AV128" s="5"/>
+      <c r="AW128" s="8"/>
+      <c r="AX128" s="5"/>
+      <c r="AY128" s="8"/>
+      <c r="AZ128" s="5"/>
+      <c r="BA128" s="8"/>
+      <c r="BB128" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC128" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD128" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE128" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>1015</v>
       </c>
@@ -9977,8 +13686,36 @@
       <c r="AO129">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="130" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP129" s="5"/>
+      <c r="AQ129" s="6"/>
+      <c r="AR129" s="5"/>
+      <c r="AS129" s="6"/>
+      <c r="AT129" s="5"/>
+      <c r="AU129" s="6"/>
+      <c r="AV129" s="5"/>
+      <c r="AW129" s="6"/>
+      <c r="AX129" s="5"/>
+      <c r="AY129" s="6"/>
+      <c r="AZ129" s="5"/>
+      <c r="BA129" s="6"/>
+      <c r="BB129" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC129" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD129" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE129" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>1019</v>
       </c>
@@ -10000,8 +13737,36 @@
       <c r="AO130">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="131" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP130" s="5"/>
+      <c r="AQ130" s="7"/>
+      <c r="AR130" s="5"/>
+      <c r="AS130" s="7"/>
+      <c r="AT130" s="5"/>
+      <c r="AU130" s="7"/>
+      <c r="AV130" s="5"/>
+      <c r="AW130" s="7"/>
+      <c r="AX130" s="5"/>
+      <c r="AY130" s="7"/>
+      <c r="AZ130" s="5"/>
+      <c r="BA130" s="7"/>
+      <c r="BB130" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC130" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD130" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE130" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>1023</v>
       </c>
@@ -10023,8 +13788,36 @@
       <c r="AO131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP131" s="8"/>
+      <c r="AQ131" s="6"/>
+      <c r="AR131" s="8"/>
+      <c r="AS131" s="6"/>
+      <c r="AT131" s="8"/>
+      <c r="AU131" s="6"/>
+      <c r="AV131" s="8"/>
+      <c r="AW131" s="6"/>
+      <c r="AX131" s="8"/>
+      <c r="AY131" s="6"/>
+      <c r="AZ131" s="8"/>
+      <c r="BA131" s="6"/>
+      <c r="BB131" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC131" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD131" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE131" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>1027</v>
       </c>
@@ -10046,8 +13839,36 @@
       <c r="AO132">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="133" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP132" s="8"/>
+      <c r="AQ132" s="7"/>
+      <c r="AR132" s="8"/>
+      <c r="AS132" s="7"/>
+      <c r="AT132" s="8"/>
+      <c r="AU132" s="7"/>
+      <c r="AV132" s="8"/>
+      <c r="AW132" s="7"/>
+      <c r="AX132" s="8"/>
+      <c r="AY132" s="7"/>
+      <c r="AZ132" s="8"/>
+      <c r="BA132" s="7"/>
+      <c r="BB132" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC132" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD132" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE132" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>1031</v>
       </c>
@@ -10069,8 +13890,36 @@
       <c r="AO133">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="134" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP133" s="6"/>
+      <c r="AQ133" s="7"/>
+      <c r="AR133" s="6"/>
+      <c r="AS133" s="7"/>
+      <c r="AT133" s="6"/>
+      <c r="AU133" s="7"/>
+      <c r="AV133" s="6"/>
+      <c r="AW133" s="7"/>
+      <c r="AX133" s="6"/>
+      <c r="AY133" s="7"/>
+      <c r="AZ133" s="6"/>
+      <c r="BA133" s="7"/>
+      <c r="BB133" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC133" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD133" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE133" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>1035</v>
       </c>
@@ -10092,8 +13941,36 @@
       <c r="AO134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP134" s="5"/>
+      <c r="AQ134" s="8"/>
+      <c r="AR134" s="5"/>
+      <c r="AS134" s="8"/>
+      <c r="AT134" s="5"/>
+      <c r="AU134" s="8"/>
+      <c r="AV134" s="5"/>
+      <c r="AW134" s="8"/>
+      <c r="AX134" s="5"/>
+      <c r="AY134" s="8"/>
+      <c r="AZ134" s="5"/>
+      <c r="BA134" s="8"/>
+      <c r="BB134" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC134" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD134" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE134" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>1039</v>
       </c>
@@ -10115,8 +13992,36 @@
       <c r="AO135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP135" s="5"/>
+      <c r="AQ135" s="6"/>
+      <c r="AR135" s="5"/>
+      <c r="AS135" s="6"/>
+      <c r="AT135" s="5"/>
+      <c r="AU135" s="6"/>
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="6"/>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="6"/>
+      <c r="AZ135" s="5"/>
+      <c r="BA135" s="6"/>
+      <c r="BB135" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC135" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD135" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE135" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>1043</v>
       </c>
@@ -10138,8 +14043,36 @@
       <c r="AO136">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="137" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP136" s="5"/>
+      <c r="AQ136" s="7"/>
+      <c r="AR136" s="5"/>
+      <c r="AS136" s="7"/>
+      <c r="AT136" s="5"/>
+      <c r="AU136" s="7"/>
+      <c r="AV136" s="5"/>
+      <c r="AW136" s="7"/>
+      <c r="AX136" s="5"/>
+      <c r="AY136" s="7"/>
+      <c r="AZ136" s="5"/>
+      <c r="BA136" s="7"/>
+      <c r="BB136" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC136" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD136" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE136" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>1047</v>
       </c>
@@ -10161,8 +14094,36 @@
       <c r="AO137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP137" s="8"/>
+      <c r="AQ137" s="6"/>
+      <c r="AR137" s="8"/>
+      <c r="AS137" s="6"/>
+      <c r="AT137" s="8"/>
+      <c r="AU137" s="6"/>
+      <c r="AV137" s="8"/>
+      <c r="AW137" s="6"/>
+      <c r="AX137" s="8"/>
+      <c r="AY137" s="6"/>
+      <c r="AZ137" s="8"/>
+      <c r="BA137" s="6"/>
+      <c r="BB137" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC137" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD137" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE137" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>1051</v>
       </c>
@@ -10184,8 +14145,36 @@
       <c r="AO138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP138" s="8"/>
+      <c r="AQ138" s="7"/>
+      <c r="AR138" s="8"/>
+      <c r="AS138" s="7"/>
+      <c r="AT138" s="8"/>
+      <c r="AU138" s="7"/>
+      <c r="AV138" s="8"/>
+      <c r="AW138" s="7"/>
+      <c r="AX138" s="8"/>
+      <c r="AY138" s="7"/>
+      <c r="AZ138" s="8"/>
+      <c r="BA138" s="7"/>
+      <c r="BB138" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC138" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD138" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE138" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>1055</v>
       </c>
@@ -10207,8 +14196,36 @@
       <c r="AO139">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="140" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP139" s="6"/>
+      <c r="AQ139" s="7"/>
+      <c r="AR139" s="6"/>
+      <c r="AS139" s="7"/>
+      <c r="AT139" s="6"/>
+      <c r="AU139" s="7"/>
+      <c r="AV139" s="6"/>
+      <c r="AW139" s="7"/>
+      <c r="AX139" s="6"/>
+      <c r="AY139" s="7"/>
+      <c r="AZ139" s="6"/>
+      <c r="BA139" s="7"/>
+      <c r="BB139" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC139" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD139" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE139" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>1059</v>
       </c>
@@ -10230,8 +14247,36 @@
       <c r="AO140">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="141" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP140" s="5"/>
+      <c r="AQ140" s="8"/>
+      <c r="AR140" s="5"/>
+      <c r="AS140" s="8"/>
+      <c r="AT140" s="5"/>
+      <c r="AU140" s="8"/>
+      <c r="AV140" s="5"/>
+      <c r="AW140" s="8"/>
+      <c r="AX140" s="5"/>
+      <c r="AY140" s="8"/>
+      <c r="AZ140" s="5"/>
+      <c r="BA140" s="8"/>
+      <c r="BB140" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC140" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD140" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE140" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>1062</v>
       </c>
@@ -10253,8 +14298,36 @@
       <c r="AO141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP141" s="5"/>
+      <c r="AQ141" s="6"/>
+      <c r="AR141" s="5"/>
+      <c r="AS141" s="6"/>
+      <c r="AT141" s="5"/>
+      <c r="AU141" s="6"/>
+      <c r="AV141" s="5"/>
+      <c r="AW141" s="6"/>
+      <c r="AX141" s="5"/>
+      <c r="AY141" s="6"/>
+      <c r="AZ141" s="5"/>
+      <c r="BA141" s="6"/>
+      <c r="BB141" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC141" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD141" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE141" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>1066</v>
       </c>
@@ -10276,8 +14349,36 @@
       <c r="AO142">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="143" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP142" s="5"/>
+      <c r="AQ142" s="7"/>
+      <c r="AR142" s="5"/>
+      <c r="AS142" s="7"/>
+      <c r="AT142" s="5"/>
+      <c r="AU142" s="7"/>
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="7"/>
+      <c r="AX142" s="5"/>
+      <c r="AY142" s="7"/>
+      <c r="AZ142" s="5"/>
+      <c r="BA142" s="7"/>
+      <c r="BB142" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC142" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD142" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE142" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>1070</v>
       </c>
@@ -10299,8 +14400,36 @@
       <c r="AO143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP143" s="8"/>
+      <c r="AQ143" s="6"/>
+      <c r="AR143" s="8"/>
+      <c r="AS143" s="6"/>
+      <c r="AT143" s="8"/>
+      <c r="AU143" s="6"/>
+      <c r="AV143" s="8"/>
+      <c r="AW143" s="6"/>
+      <c r="AX143" s="8"/>
+      <c r="AY143" s="6"/>
+      <c r="AZ143" s="8"/>
+      <c r="BA143" s="6"/>
+      <c r="BB143" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC143" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD143" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE143" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>1074</v>
       </c>
@@ -10322,8 +14451,36 @@
       <c r="AO144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP144" s="8"/>
+      <c r="AQ144" s="7"/>
+      <c r="AR144" s="8"/>
+      <c r="AS144" s="7"/>
+      <c r="AT144" s="8"/>
+      <c r="AU144" s="7"/>
+      <c r="AV144" s="8"/>
+      <c r="AW144" s="7"/>
+      <c r="AX144" s="8"/>
+      <c r="AY144" s="7"/>
+      <c r="AZ144" s="8"/>
+      <c r="BA144" s="7"/>
+      <c r="BB144" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC144" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD144" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE144" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>1078</v>
       </c>
@@ -10345,8 +14502,36 @@
       <c r="AO145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP145" s="6"/>
+      <c r="AQ145" s="7"/>
+      <c r="AR145" s="6"/>
+      <c r="AS145" s="7"/>
+      <c r="AT145" s="6"/>
+      <c r="AU145" s="7"/>
+      <c r="AV145" s="6"/>
+      <c r="AW145" s="7"/>
+      <c r="AX145" s="6"/>
+      <c r="AY145" s="7"/>
+      <c r="AZ145" s="6"/>
+      <c r="BA145" s="7"/>
+      <c r="BB145" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC145" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD145" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE145" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>1082</v>
       </c>
@@ -10368,8 +14553,36 @@
       <c r="AO146">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="147" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP146" s="5"/>
+      <c r="AQ146" s="8"/>
+      <c r="AR146" s="5"/>
+      <c r="AS146" s="8"/>
+      <c r="AT146" s="5"/>
+      <c r="AU146" s="8"/>
+      <c r="AV146" s="5"/>
+      <c r="AW146" s="8"/>
+      <c r="AX146" s="5"/>
+      <c r="AY146" s="8"/>
+      <c r="AZ146" s="5"/>
+      <c r="BA146" s="8"/>
+      <c r="BB146" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC146" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD146" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE146" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>1086</v>
       </c>
@@ -10391,8 +14604,36 @@
       <c r="AO147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP147" s="5"/>
+      <c r="AQ147" s="6"/>
+      <c r="AR147" s="5"/>
+      <c r="AS147" s="6"/>
+      <c r="AT147" s="5"/>
+      <c r="AU147" s="6"/>
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="6"/>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="6"/>
+      <c r="AZ147" s="5"/>
+      <c r="BA147" s="6"/>
+      <c r="BB147" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC147" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD147" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE147" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>1090</v>
       </c>
@@ -10414,8 +14655,36 @@
       <c r="AO148">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="149" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP148" s="5"/>
+      <c r="AQ148" s="7"/>
+      <c r="AR148" s="5"/>
+      <c r="AS148" s="7"/>
+      <c r="AT148" s="5"/>
+      <c r="AU148" s="7"/>
+      <c r="AV148" s="5"/>
+      <c r="AW148" s="7"/>
+      <c r="AX148" s="5"/>
+      <c r="AY148" s="7"/>
+      <c r="AZ148" s="5"/>
+      <c r="BA148" s="7"/>
+      <c r="BB148" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC148" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD148" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE148" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>1094</v>
       </c>
@@ -10437,8 +14706,36 @@
       <c r="AO149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP149" s="8"/>
+      <c r="AQ149" s="6"/>
+      <c r="AR149" s="8"/>
+      <c r="AS149" s="6"/>
+      <c r="AT149" s="8"/>
+      <c r="AU149" s="6"/>
+      <c r="AV149" s="8"/>
+      <c r="AW149" s="6"/>
+      <c r="AX149" s="8"/>
+      <c r="AY149" s="6"/>
+      <c r="AZ149" s="8"/>
+      <c r="BA149" s="6"/>
+      <c r="BB149" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC149" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD149" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE149" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>1098</v>
       </c>
@@ -10460,8 +14757,36 @@
       <c r="AO150">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="151" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP150" s="8"/>
+      <c r="AQ150" s="7"/>
+      <c r="AR150" s="8"/>
+      <c r="AS150" s="7"/>
+      <c r="AT150" s="8"/>
+      <c r="AU150" s="7"/>
+      <c r="AV150" s="8"/>
+      <c r="AW150" s="7"/>
+      <c r="AX150" s="8"/>
+      <c r="AY150" s="7"/>
+      <c r="AZ150" s="8"/>
+      <c r="BA150" s="7"/>
+      <c r="BB150" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC150" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD150" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE150" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>1102</v>
       </c>
@@ -10483,8 +14808,36 @@
       <c r="AO151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP151" s="6"/>
+      <c r="AQ151" s="7"/>
+      <c r="AR151" s="6"/>
+      <c r="AS151" s="7"/>
+      <c r="AT151" s="6"/>
+      <c r="AU151" s="7"/>
+      <c r="AV151" s="6"/>
+      <c r="AW151" s="7"/>
+      <c r="AX151" s="6"/>
+      <c r="AY151" s="7"/>
+      <c r="AZ151" s="6"/>
+      <c r="BA151" s="7"/>
+      <c r="BB151" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC151" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD151" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE151" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>1106</v>
       </c>
@@ -10506,8 +14859,36 @@
       <c r="AO152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP152" s="5"/>
+      <c r="AQ152" s="8"/>
+      <c r="AR152" s="5"/>
+      <c r="AS152" s="8"/>
+      <c r="AT152" s="5"/>
+      <c r="AU152" s="8"/>
+      <c r="AV152" s="5"/>
+      <c r="AW152" s="8"/>
+      <c r="AX152" s="5"/>
+      <c r="AY152" s="8"/>
+      <c r="AZ152" s="5"/>
+      <c r="BA152" s="8"/>
+      <c r="BB152" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC152" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD152" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE152" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>1110</v>
       </c>
@@ -10529,9 +14910,36 @@
       <c r="AO153">
         <v>1</v>
       </c>
-      <c r="AQ153" s="4"/>
-    </row>
-    <row r="154" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP153" s="5"/>
+      <c r="AQ153" s="6"/>
+      <c r="AR153" s="5"/>
+      <c r="AS153" s="6"/>
+      <c r="AT153" s="5"/>
+      <c r="AU153" s="6"/>
+      <c r="AV153" s="5"/>
+      <c r="AW153" s="6"/>
+      <c r="AX153" s="5"/>
+      <c r="AY153" s="6"/>
+      <c r="AZ153" s="5"/>
+      <c r="BA153" s="6"/>
+      <c r="BB153" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC153" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD153" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE153" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>1114</v>
       </c>
@@ -10553,8 +14961,36 @@
       <c r="AO154">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="155" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP154" s="5"/>
+      <c r="AQ154" s="7"/>
+      <c r="AR154" s="5"/>
+      <c r="AS154" s="7"/>
+      <c r="AT154" s="5"/>
+      <c r="AU154" s="7"/>
+      <c r="AV154" s="5"/>
+      <c r="AW154" s="7"/>
+      <c r="AX154" s="5"/>
+      <c r="AY154" s="7"/>
+      <c r="AZ154" s="5"/>
+      <c r="BA154" s="7"/>
+      <c r="BB154" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC154" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD154" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE154" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>1118</v>
       </c>
@@ -10576,8 +15012,36 @@
       <c r="AO155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP155" s="8"/>
+      <c r="AQ155" s="6"/>
+      <c r="AR155" s="8"/>
+      <c r="AS155" s="6"/>
+      <c r="AT155" s="8"/>
+      <c r="AU155" s="6"/>
+      <c r="AV155" s="8"/>
+      <c r="AW155" s="6"/>
+      <c r="AX155" s="8"/>
+      <c r="AY155" s="6"/>
+      <c r="AZ155" s="8"/>
+      <c r="BA155" s="6"/>
+      <c r="BB155" t="e">
+        <f t="shared" ref="BB155:BB205" si="12">AVERAGE(AP155,AR155,AT155,AV155,AX155,AZ155)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC155" t="e">
+        <f t="shared" ref="BC155:BC205" si="13">AVERAGE(AQ155,AS155,AU155,AW155,AY155,BA155)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD155" t="e">
+        <f t="shared" ref="BD155:BD205" si="14">AVERAGE(BB155,BC155)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE155" t="e">
+        <f t="shared" ref="BE155:BE205" si="15">AVERAGE(AO155,BD155)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>1122</v>
       </c>
@@ -10599,8 +15063,36 @@
       <c r="AO156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP156" s="8"/>
+      <c r="AQ156" s="7"/>
+      <c r="AR156" s="8"/>
+      <c r="AS156" s="7"/>
+      <c r="AT156" s="8"/>
+      <c r="AU156" s="7"/>
+      <c r="AV156" s="8"/>
+      <c r="AW156" s="7"/>
+      <c r="AX156" s="8"/>
+      <c r="AY156" s="7"/>
+      <c r="AZ156" s="8"/>
+      <c r="BA156" s="7"/>
+      <c r="BB156" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC156" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD156" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE156" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>1126</v>
       </c>
@@ -10622,8 +15114,36 @@
       <c r="AO157">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="158" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP157" s="6"/>
+      <c r="AQ157" s="7"/>
+      <c r="AR157" s="6"/>
+      <c r="AS157" s="7"/>
+      <c r="AT157" s="6"/>
+      <c r="AU157" s="7"/>
+      <c r="AV157" s="6"/>
+      <c r="AW157" s="7"/>
+      <c r="AX157" s="6"/>
+      <c r="AY157" s="7"/>
+      <c r="AZ157" s="6"/>
+      <c r="BA157" s="7"/>
+      <c r="BB157" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC157" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD157" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE157" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>1130</v>
       </c>
@@ -10645,8 +15165,36 @@
       <c r="AO158">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="159" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP158" s="5"/>
+      <c r="AQ158" s="8"/>
+      <c r="AR158" s="5"/>
+      <c r="AS158" s="8"/>
+      <c r="AT158" s="5"/>
+      <c r="AU158" s="8"/>
+      <c r="AV158" s="5"/>
+      <c r="AW158" s="8"/>
+      <c r="AX158" s="5"/>
+      <c r="AY158" s="8"/>
+      <c r="AZ158" s="5"/>
+      <c r="BA158" s="8"/>
+      <c r="BB158" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC158" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD158" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE158" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>1134</v>
       </c>
@@ -10668,8 +15216,36 @@
       <c r="AO159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="3:43" x14ac:dyDescent="0.2">
+      <c r="AP159" s="5"/>
+      <c r="AQ159" s="6"/>
+      <c r="AR159" s="5"/>
+      <c r="AS159" s="6"/>
+      <c r="AT159" s="5"/>
+      <c r="AU159" s="6"/>
+      <c r="AV159" s="5"/>
+      <c r="AW159" s="6"/>
+      <c r="AX159" s="5"/>
+      <c r="AY159" s="6"/>
+      <c r="AZ159" s="5"/>
+      <c r="BA159" s="6"/>
+      <c r="BB159" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC159" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD159" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE159" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>1138</v>
       </c>
@@ -10691,8 +15267,36 @@
       <c r="AO160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP160" s="5"/>
+      <c r="AQ160" s="7"/>
+      <c r="AR160" s="5"/>
+      <c r="AS160" s="7"/>
+      <c r="AT160" s="5"/>
+      <c r="AU160" s="7"/>
+      <c r="AV160" s="5"/>
+      <c r="AW160" s="7"/>
+      <c r="AX160" s="5"/>
+      <c r="AY160" s="7"/>
+      <c r="AZ160" s="5"/>
+      <c r="BA160" s="7"/>
+      <c r="BB160" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC160" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD160" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE160" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>1141</v>
       </c>
@@ -10714,8 +15318,36 @@
       <c r="AO161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP161" s="8"/>
+      <c r="AQ161" s="6"/>
+      <c r="AR161" s="8"/>
+      <c r="AS161" s="6"/>
+      <c r="AT161" s="8"/>
+      <c r="AU161" s="6"/>
+      <c r="AV161" s="8"/>
+      <c r="AW161" s="6"/>
+      <c r="AX161" s="8"/>
+      <c r="AY161" s="6"/>
+      <c r="AZ161" s="8"/>
+      <c r="BA161" s="6"/>
+      <c r="BB161" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC161" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD161" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE161" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>1145</v>
       </c>
@@ -10737,8 +15369,36 @@
       <c r="AO162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP162" s="8"/>
+      <c r="AQ162" s="7"/>
+      <c r="AR162" s="8"/>
+      <c r="AS162" s="7"/>
+      <c r="AT162" s="8"/>
+      <c r="AU162" s="7"/>
+      <c r="AV162" s="8"/>
+      <c r="AW162" s="7"/>
+      <c r="AX162" s="8"/>
+      <c r="AY162" s="7"/>
+      <c r="AZ162" s="8"/>
+      <c r="BA162" s="7"/>
+      <c r="BB162" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC162" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD162" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE162" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>1148</v>
       </c>
@@ -10760,8 +15420,36 @@
       <c r="AO163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP163" s="6"/>
+      <c r="AQ163" s="7"/>
+      <c r="AR163" s="6"/>
+      <c r="AS163" s="7"/>
+      <c r="AT163" s="6"/>
+      <c r="AU163" s="7"/>
+      <c r="AV163" s="6"/>
+      <c r="AW163" s="7"/>
+      <c r="AX163" s="6"/>
+      <c r="AY163" s="7"/>
+      <c r="AZ163" s="6"/>
+      <c r="BA163" s="7"/>
+      <c r="BB163" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC163" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD163" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE163" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>1151</v>
       </c>
@@ -10783,8 +15471,36 @@
       <c r="AO164">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="165" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP164" s="5"/>
+      <c r="AQ164" s="8"/>
+      <c r="AR164" s="5"/>
+      <c r="AS164" s="8"/>
+      <c r="AT164" s="5"/>
+      <c r="AU164" s="8"/>
+      <c r="AV164" s="5"/>
+      <c r="AW164" s="8"/>
+      <c r="AX164" s="5"/>
+      <c r="AY164" s="8"/>
+      <c r="AZ164" s="5"/>
+      <c r="BA164" s="8"/>
+      <c r="BB164" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC164" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD164" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE164" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>1155</v>
       </c>
@@ -10806,8 +15522,36 @@
       <c r="AO165">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="166" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP165" s="5"/>
+      <c r="AQ165" s="6"/>
+      <c r="AR165" s="5"/>
+      <c r="AS165" s="6"/>
+      <c r="AT165" s="5"/>
+      <c r="AU165" s="6"/>
+      <c r="AV165" s="5"/>
+      <c r="AW165" s="6"/>
+      <c r="AX165" s="5"/>
+      <c r="AY165" s="6"/>
+      <c r="AZ165" s="5"/>
+      <c r="BA165" s="6"/>
+      <c r="BB165" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC165" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD165" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE165" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>1159</v>
       </c>
@@ -10829,8 +15573,36 @@
       <c r="AO166">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="167" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP166" s="5"/>
+      <c r="AQ166" s="7"/>
+      <c r="AR166" s="5"/>
+      <c r="AS166" s="7"/>
+      <c r="AT166" s="5"/>
+      <c r="AU166" s="7"/>
+      <c r="AV166" s="5"/>
+      <c r="AW166" s="7"/>
+      <c r="AX166" s="5"/>
+      <c r="AY166" s="7"/>
+      <c r="AZ166" s="5"/>
+      <c r="BA166" s="7"/>
+      <c r="BB166" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC166" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD166" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE166" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>1163</v>
       </c>
@@ -10852,8 +15624,36 @@
       <c r="AO167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP167" s="8"/>
+      <c r="AQ167" s="6"/>
+      <c r="AR167" s="8"/>
+      <c r="AS167" s="6"/>
+      <c r="AT167" s="8"/>
+      <c r="AU167" s="6"/>
+      <c r="AV167" s="8"/>
+      <c r="AW167" s="6"/>
+      <c r="AX167" s="8"/>
+      <c r="AY167" s="6"/>
+      <c r="AZ167" s="8"/>
+      <c r="BA167" s="6"/>
+      <c r="BB167" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC167" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD167" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE167" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>1166</v>
       </c>
@@ -10875,8 +15675,36 @@
       <c r="AO168">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="169" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP168" s="8"/>
+      <c r="AQ168" s="7"/>
+      <c r="AR168" s="8"/>
+      <c r="AS168" s="7"/>
+      <c r="AT168" s="8"/>
+      <c r="AU168" s="7"/>
+      <c r="AV168" s="8"/>
+      <c r="AW168" s="7"/>
+      <c r="AX168" s="8"/>
+      <c r="AY168" s="7"/>
+      <c r="AZ168" s="8"/>
+      <c r="BA168" s="7"/>
+      <c r="BB168" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC168" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD168" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE168" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>1170</v>
       </c>
@@ -10898,8 +15726,36 @@
       <c r="AO169">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="170" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP169" s="6"/>
+      <c r="AQ169" s="7"/>
+      <c r="AR169" s="6"/>
+      <c r="AS169" s="7"/>
+      <c r="AT169" s="6"/>
+      <c r="AU169" s="7"/>
+      <c r="AV169" s="6"/>
+      <c r="AW169" s="7"/>
+      <c r="AX169" s="6"/>
+      <c r="AY169" s="7"/>
+      <c r="AZ169" s="6"/>
+      <c r="BA169" s="7"/>
+      <c r="BB169" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC169" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD169" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE169" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>1174</v>
       </c>
@@ -10921,8 +15777,36 @@
       <c r="AO170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP170" s="5"/>
+      <c r="AQ170" s="8"/>
+      <c r="AR170" s="5"/>
+      <c r="AS170" s="8"/>
+      <c r="AT170" s="5"/>
+      <c r="AU170" s="8"/>
+      <c r="AV170" s="5"/>
+      <c r="AW170" s="8"/>
+      <c r="AX170" s="5"/>
+      <c r="AY170" s="8"/>
+      <c r="AZ170" s="5"/>
+      <c r="BA170" s="8"/>
+      <c r="BB170" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC170" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD170" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE170" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>1178</v>
       </c>
@@ -10944,8 +15828,36 @@
       <c r="AO171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP171" s="5"/>
+      <c r="AQ171" s="6"/>
+      <c r="AR171" s="5"/>
+      <c r="AS171" s="6"/>
+      <c r="AT171" s="5"/>
+      <c r="AU171" s="6"/>
+      <c r="AV171" s="5"/>
+      <c r="AW171" s="6"/>
+      <c r="AX171" s="5"/>
+      <c r="AY171" s="6"/>
+      <c r="AZ171" s="5"/>
+      <c r="BA171" s="6"/>
+      <c r="BB171" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC171" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD171" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE171" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>1181</v>
       </c>
@@ -10967,8 +15879,36 @@
       <c r="AO172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP172" s="5"/>
+      <c r="AQ172" s="7"/>
+      <c r="AR172" s="5"/>
+      <c r="AS172" s="7"/>
+      <c r="AT172" s="5"/>
+      <c r="AU172" s="7"/>
+      <c r="AV172" s="5"/>
+      <c r="AW172" s="7"/>
+      <c r="AX172" s="5"/>
+      <c r="AY172" s="7"/>
+      <c r="AZ172" s="5"/>
+      <c r="BA172" s="7"/>
+      <c r="BB172" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC172" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD172" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE172" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>1185</v>
       </c>
@@ -10990,8 +15930,36 @@
       <c r="AO173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP173" s="8"/>
+      <c r="AQ173" s="6"/>
+      <c r="AR173" s="8"/>
+      <c r="AS173" s="6"/>
+      <c r="AT173" s="8"/>
+      <c r="AU173" s="6"/>
+      <c r="AV173" s="8"/>
+      <c r="AW173" s="6"/>
+      <c r="AX173" s="8"/>
+      <c r="AY173" s="6"/>
+      <c r="AZ173" s="8"/>
+      <c r="BA173" s="6"/>
+      <c r="BB173" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC173" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD173" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE173" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>1188</v>
       </c>
@@ -11013,8 +15981,36 @@
       <c r="AO174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP174" s="8"/>
+      <c r="AQ174" s="7"/>
+      <c r="AR174" s="8"/>
+      <c r="AS174" s="7"/>
+      <c r="AT174" s="8"/>
+      <c r="AU174" s="7"/>
+      <c r="AV174" s="8"/>
+      <c r="AW174" s="7"/>
+      <c r="AX174" s="8"/>
+      <c r="AY174" s="7"/>
+      <c r="AZ174" s="8"/>
+      <c r="BA174" s="7"/>
+      <c r="BB174" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC174" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD174" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE174" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>1192</v>
       </c>
@@ -11036,8 +16032,36 @@
       <c r="AO175">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="176" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP175" s="6"/>
+      <c r="AQ175" s="7"/>
+      <c r="AR175" s="6"/>
+      <c r="AS175" s="7"/>
+      <c r="AT175" s="6"/>
+      <c r="AU175" s="7"/>
+      <c r="AV175" s="6"/>
+      <c r="AW175" s="7"/>
+      <c r="AX175" s="6"/>
+      <c r="AY175" s="7"/>
+      <c r="AZ175" s="6"/>
+      <c r="BA175" s="7"/>
+      <c r="BB175" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC175" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD175" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE175" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>1196</v>
       </c>
@@ -11059,8 +16083,36 @@
       <c r="AO176">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="177" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP176" s="5"/>
+      <c r="AQ176" s="8"/>
+      <c r="AR176" s="5"/>
+      <c r="AS176" s="8"/>
+      <c r="AT176" s="5"/>
+      <c r="AU176" s="8"/>
+      <c r="AV176" s="5"/>
+      <c r="AW176" s="8"/>
+      <c r="AX176" s="5"/>
+      <c r="AY176" s="8"/>
+      <c r="AZ176" s="5"/>
+      <c r="BA176" s="8"/>
+      <c r="BB176" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC176" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD176" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE176" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>1200</v>
       </c>
@@ -11082,8 +16134,36 @@
       <c r="AO177">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="178" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP177" s="5"/>
+      <c r="AQ177" s="6"/>
+      <c r="AR177" s="5"/>
+      <c r="AS177" s="6"/>
+      <c r="AT177" s="5"/>
+      <c r="AU177" s="6"/>
+      <c r="AV177" s="5"/>
+      <c r="AW177" s="6"/>
+      <c r="AX177" s="5"/>
+      <c r="AY177" s="6"/>
+      <c r="AZ177" s="5"/>
+      <c r="BA177" s="6"/>
+      <c r="BB177" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC177" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD177" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE177" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>1204</v>
       </c>
@@ -11105,8 +16185,36 @@
       <c r="AO178">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="179" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP178" s="5"/>
+      <c r="AQ178" s="7"/>
+      <c r="AR178" s="5"/>
+      <c r="AS178" s="7"/>
+      <c r="AT178" s="5"/>
+      <c r="AU178" s="7"/>
+      <c r="AV178" s="5"/>
+      <c r="AW178" s="7"/>
+      <c r="AX178" s="5"/>
+      <c r="AY178" s="7"/>
+      <c r="AZ178" s="5"/>
+      <c r="BA178" s="7"/>
+      <c r="BB178" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC178" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD178" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE178" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>1208</v>
       </c>
@@ -11128,8 +16236,36 @@
       <c r="AO179">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="180" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP179" s="8"/>
+      <c r="AQ179" s="6"/>
+      <c r="AR179" s="8"/>
+      <c r="AS179" s="6"/>
+      <c r="AT179" s="8"/>
+      <c r="AU179" s="6"/>
+      <c r="AV179" s="8"/>
+      <c r="AW179" s="6"/>
+      <c r="AX179" s="8"/>
+      <c r="AY179" s="6"/>
+      <c r="AZ179" s="8"/>
+      <c r="BA179" s="6"/>
+      <c r="BB179" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC179" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD179" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE179" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>1212</v>
       </c>
@@ -11151,8 +16287,36 @@
       <c r="AO180">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="181" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP180" s="8"/>
+      <c r="AQ180" s="7"/>
+      <c r="AR180" s="8"/>
+      <c r="AS180" s="7"/>
+      <c r="AT180" s="8"/>
+      <c r="AU180" s="7"/>
+      <c r="AV180" s="8"/>
+      <c r="AW180" s="7"/>
+      <c r="AX180" s="8"/>
+      <c r="AY180" s="7"/>
+      <c r="AZ180" s="8"/>
+      <c r="BA180" s="7"/>
+      <c r="BB180" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC180" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD180" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE180" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>1216</v>
       </c>
@@ -11174,8 +16338,36 @@
       <c r="AO181">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="182" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP181" s="6"/>
+      <c r="AQ181" s="7"/>
+      <c r="AR181" s="6"/>
+      <c r="AS181" s="7"/>
+      <c r="AT181" s="6"/>
+      <c r="AU181" s="7"/>
+      <c r="AV181" s="6"/>
+      <c r="AW181" s="7"/>
+      <c r="AX181" s="6"/>
+      <c r="AY181" s="7"/>
+      <c r="AZ181" s="6"/>
+      <c r="BA181" s="7"/>
+      <c r="BB181" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC181" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD181" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE181" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>1220</v>
       </c>
@@ -11197,8 +16389,36 @@
       <c r="AO182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP182" s="5"/>
+      <c r="AQ182" s="8"/>
+      <c r="AR182" s="5"/>
+      <c r="AS182" s="8"/>
+      <c r="AT182" s="5"/>
+      <c r="AU182" s="8"/>
+      <c r="AV182" s="5"/>
+      <c r="AW182" s="8"/>
+      <c r="AX182" s="5"/>
+      <c r="AY182" s="8"/>
+      <c r="AZ182" s="5"/>
+      <c r="BA182" s="8"/>
+      <c r="BB182" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC182" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD182" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE182" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>1224</v>
       </c>
@@ -11220,8 +16440,36 @@
       <c r="AO183">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="184" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP183" s="5"/>
+      <c r="AQ183" s="6"/>
+      <c r="AR183" s="5"/>
+      <c r="AS183" s="6"/>
+      <c r="AT183" s="5"/>
+      <c r="AU183" s="6"/>
+      <c r="AV183" s="5"/>
+      <c r="AW183" s="6"/>
+      <c r="AX183" s="5"/>
+      <c r="AY183" s="6"/>
+      <c r="AZ183" s="5"/>
+      <c r="BA183" s="6"/>
+      <c r="BB183" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC183" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD183" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE183" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>1228</v>
       </c>
@@ -11243,8 +16491,36 @@
       <c r="AO184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP184" s="5"/>
+      <c r="AQ184" s="7"/>
+      <c r="AR184" s="5"/>
+      <c r="AS184" s="7"/>
+      <c r="AT184" s="5"/>
+      <c r="AU184" s="7"/>
+      <c r="AV184" s="5"/>
+      <c r="AW184" s="7"/>
+      <c r="AX184" s="5"/>
+      <c r="AY184" s="7"/>
+      <c r="AZ184" s="5"/>
+      <c r="BA184" s="7"/>
+      <c r="BB184" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC184" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD184" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE184" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>1232</v>
       </c>
@@ -11266,8 +16542,36 @@
       <c r="AO185">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="186" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP185" s="8"/>
+      <c r="AQ185" s="6"/>
+      <c r="AR185" s="8"/>
+      <c r="AS185" s="6"/>
+      <c r="AT185" s="8"/>
+      <c r="AU185" s="6"/>
+      <c r="AV185" s="8"/>
+      <c r="AW185" s="6"/>
+      <c r="AX185" s="8"/>
+      <c r="AY185" s="6"/>
+      <c r="AZ185" s="8"/>
+      <c r="BA185" s="6"/>
+      <c r="BB185" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC185" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD185" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE185" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>1236</v>
       </c>
@@ -11289,8 +16593,36 @@
       <c r="AO186">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="187" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP186" s="8"/>
+      <c r="AQ186" s="7"/>
+      <c r="AR186" s="8"/>
+      <c r="AS186" s="7"/>
+      <c r="AT186" s="8"/>
+      <c r="AU186" s="7"/>
+      <c r="AV186" s="8"/>
+      <c r="AW186" s="7"/>
+      <c r="AX186" s="8"/>
+      <c r="AY186" s="7"/>
+      <c r="AZ186" s="8"/>
+      <c r="BA186" s="7"/>
+      <c r="BB186" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC186" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD186" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE186" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>1240</v>
       </c>
@@ -11312,8 +16644,36 @@
       <c r="AO187">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="188" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP187" s="6"/>
+      <c r="AQ187" s="7"/>
+      <c r="AR187" s="6"/>
+      <c r="AS187" s="7"/>
+      <c r="AT187" s="6"/>
+      <c r="AU187" s="7"/>
+      <c r="AV187" s="6"/>
+      <c r="AW187" s="7"/>
+      <c r="AX187" s="6"/>
+      <c r="AY187" s="7"/>
+      <c r="AZ187" s="6"/>
+      <c r="BA187" s="7"/>
+      <c r="BB187" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC187" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD187" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE187" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>1244</v>
       </c>
@@ -11335,8 +16695,36 @@
       <c r="AO188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP188" s="5"/>
+      <c r="AQ188" s="8"/>
+      <c r="AR188" s="5"/>
+      <c r="AS188" s="8"/>
+      <c r="AT188" s="5"/>
+      <c r="AU188" s="8"/>
+      <c r="AV188" s="5"/>
+      <c r="AW188" s="8"/>
+      <c r="AX188" s="5"/>
+      <c r="AY188" s="8"/>
+      <c r="AZ188" s="5"/>
+      <c r="BA188" s="8"/>
+      <c r="BB188" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC188" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD188" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE188" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>1248</v>
       </c>
@@ -11358,8 +16746,36 @@
       <c r="AO189">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="190" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP189" s="5"/>
+      <c r="AQ189" s="6"/>
+      <c r="AR189" s="5"/>
+      <c r="AS189" s="6"/>
+      <c r="AT189" s="5"/>
+      <c r="AU189" s="6"/>
+      <c r="AV189" s="5"/>
+      <c r="AW189" s="6"/>
+      <c r="AX189" s="5"/>
+      <c r="AY189" s="6"/>
+      <c r="AZ189" s="5"/>
+      <c r="BA189" s="6"/>
+      <c r="BB189" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC189" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD189" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE189" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>1252</v>
       </c>
@@ -11381,8 +16797,36 @@
       <c r="AO190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP190" s="5"/>
+      <c r="AQ190" s="7"/>
+      <c r="AR190" s="5"/>
+      <c r="AS190" s="7"/>
+      <c r="AT190" s="5"/>
+      <c r="AU190" s="7"/>
+      <c r="AV190" s="5"/>
+      <c r="AW190" s="7"/>
+      <c r="AX190" s="5"/>
+      <c r="AY190" s="7"/>
+      <c r="AZ190" s="5"/>
+      <c r="BA190" s="7"/>
+      <c r="BB190" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC190" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD190" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE190" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>1256</v>
       </c>
@@ -11404,8 +16848,36 @@
       <c r="AO191">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="192" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP191" s="8"/>
+      <c r="AQ191" s="6"/>
+      <c r="AR191" s="8"/>
+      <c r="AS191" s="6"/>
+      <c r="AT191" s="8"/>
+      <c r="AU191" s="6"/>
+      <c r="AV191" s="8"/>
+      <c r="AW191" s="6"/>
+      <c r="AX191" s="8"/>
+      <c r="AY191" s="6"/>
+      <c r="AZ191" s="8"/>
+      <c r="BA191" s="6"/>
+      <c r="BB191" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC191" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD191" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE191" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>1260</v>
       </c>
@@ -11427,8 +16899,36 @@
       <c r="AO192">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="193" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP192" s="8"/>
+      <c r="AQ192" s="7"/>
+      <c r="AR192" s="8"/>
+      <c r="AS192" s="7"/>
+      <c r="AT192" s="8"/>
+      <c r="AU192" s="7"/>
+      <c r="AV192" s="8"/>
+      <c r="AW192" s="7"/>
+      <c r="AX192" s="8"/>
+      <c r="AY192" s="7"/>
+      <c r="AZ192" s="8"/>
+      <c r="BA192" s="7"/>
+      <c r="BB192" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC192" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD192" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE192" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>1264</v>
       </c>
@@ -11450,8 +16950,36 @@
       <c r="AO193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP193" s="6"/>
+      <c r="AQ193" s="7"/>
+      <c r="AR193" s="6"/>
+      <c r="AS193" s="7"/>
+      <c r="AT193" s="6"/>
+      <c r="AU193" s="7"/>
+      <c r="AV193" s="6"/>
+      <c r="AW193" s="7"/>
+      <c r="AX193" s="6"/>
+      <c r="AY193" s="7"/>
+      <c r="AZ193" s="6"/>
+      <c r="BA193" s="7"/>
+      <c r="BB193" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC193" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD193" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE193" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>1268</v>
       </c>
@@ -11473,8 +17001,36 @@
       <c r="AO194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP194" s="5"/>
+      <c r="AQ194" s="8"/>
+      <c r="AR194" s="5"/>
+      <c r="AS194" s="8"/>
+      <c r="AT194" s="5"/>
+      <c r="AU194" s="8"/>
+      <c r="AV194" s="5"/>
+      <c r="AW194" s="8"/>
+      <c r="AX194" s="5"/>
+      <c r="AY194" s="8"/>
+      <c r="AZ194" s="5"/>
+      <c r="BA194" s="8"/>
+      <c r="BB194" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC194" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD194" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE194" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>1272</v>
       </c>
@@ -11496,8 +17052,36 @@
       <c r="AO195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP195" s="5"/>
+      <c r="AQ195" s="6"/>
+      <c r="AR195" s="5"/>
+      <c r="AS195" s="6"/>
+      <c r="AT195" s="5"/>
+      <c r="AU195" s="6"/>
+      <c r="AV195" s="5"/>
+      <c r="AW195" s="6"/>
+      <c r="AX195" s="5"/>
+      <c r="AY195" s="6"/>
+      <c r="AZ195" s="5"/>
+      <c r="BA195" s="6"/>
+      <c r="BB195" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC195" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD195" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE195" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>1276</v>
       </c>
@@ -11519,8 +17103,36 @@
       <c r="AO196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP196" s="5"/>
+      <c r="AQ196" s="7"/>
+      <c r="AR196" s="5"/>
+      <c r="AS196" s="7"/>
+      <c r="AT196" s="5"/>
+      <c r="AU196" s="7"/>
+      <c r="AV196" s="5"/>
+      <c r="AW196" s="7"/>
+      <c r="AX196" s="5"/>
+      <c r="AY196" s="7"/>
+      <c r="AZ196" s="5"/>
+      <c r="BA196" s="7"/>
+      <c r="BB196" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC196" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD196" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE196" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>1280</v>
       </c>
@@ -11542,8 +17154,36 @@
       <c r="AO197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP197" s="8"/>
+      <c r="AQ197" s="6"/>
+      <c r="AR197" s="8"/>
+      <c r="AS197" s="6"/>
+      <c r="AT197" s="8"/>
+      <c r="AU197" s="6"/>
+      <c r="AV197" s="8"/>
+      <c r="AW197" s="6"/>
+      <c r="AX197" s="8"/>
+      <c r="AY197" s="6"/>
+      <c r="AZ197" s="8"/>
+      <c r="BA197" s="6"/>
+      <c r="BB197" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC197" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD197" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE197" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>1283</v>
       </c>
@@ -11565,8 +17205,36 @@
       <c r="AO198">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="199" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP198" s="8"/>
+      <c r="AQ198" s="7"/>
+      <c r="AR198" s="8"/>
+      <c r="AS198" s="7"/>
+      <c r="AT198" s="8"/>
+      <c r="AU198" s="7"/>
+      <c r="AV198" s="8"/>
+      <c r="AW198" s="7"/>
+      <c r="AX198" s="8"/>
+      <c r="AY198" s="7"/>
+      <c r="AZ198" s="8"/>
+      <c r="BA198" s="7"/>
+      <c r="BB198" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC198" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD198" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE198" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>1287</v>
       </c>
@@ -11588,8 +17256,36 @@
       <c r="AO199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP199" s="6"/>
+      <c r="AQ199" s="7"/>
+      <c r="AR199" s="6"/>
+      <c r="AS199" s="7"/>
+      <c r="AT199" s="6"/>
+      <c r="AU199" s="7"/>
+      <c r="AV199" s="6"/>
+      <c r="AW199" s="7"/>
+      <c r="AX199" s="6"/>
+      <c r="AY199" s="7"/>
+      <c r="AZ199" s="6"/>
+      <c r="BA199" s="7"/>
+      <c r="BB199" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC199" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD199" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE199" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>1289</v>
       </c>
@@ -11611,8 +17307,36 @@
       <c r="AO200">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="201" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP200" s="5"/>
+      <c r="AQ200" s="8"/>
+      <c r="AR200" s="5"/>
+      <c r="AS200" s="8"/>
+      <c r="AT200" s="5"/>
+      <c r="AU200" s="8"/>
+      <c r="AV200" s="5"/>
+      <c r="AW200" s="8"/>
+      <c r="AX200" s="5"/>
+      <c r="AY200" s="8"/>
+      <c r="AZ200" s="5"/>
+      <c r="BA200" s="8"/>
+      <c r="BB200" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC200" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD200" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE200" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>1293</v>
       </c>
@@ -11631,8 +17355,36 @@
       <c r="AO201">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="202" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP201" s="5"/>
+      <c r="AQ201" s="6"/>
+      <c r="AR201" s="5"/>
+      <c r="AS201" s="6"/>
+      <c r="AT201" s="5"/>
+      <c r="AU201" s="6"/>
+      <c r="AV201" s="5"/>
+      <c r="AW201" s="6"/>
+      <c r="AX201" s="5"/>
+      <c r="AY201" s="6"/>
+      <c r="AZ201" s="5"/>
+      <c r="BA201" s="6"/>
+      <c r="BB201" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC201" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD201" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE201" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>1296</v>
       </c>
@@ -11654,8 +17406,36 @@
       <c r="AO202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="3:41" x14ac:dyDescent="0.2">
+      <c r="AP202" s="5"/>
+      <c r="AQ202" s="7"/>
+      <c r="AR202" s="5"/>
+      <c r="AS202" s="7"/>
+      <c r="AT202" s="5"/>
+      <c r="AU202" s="7"/>
+      <c r="AV202" s="5"/>
+      <c r="AW202" s="7"/>
+      <c r="AX202" s="5"/>
+      <c r="AY202" s="7"/>
+      <c r="AZ202" s="5"/>
+      <c r="BA202" s="7"/>
+      <c r="BB202" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC202" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD202" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE202" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="3:57" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>1301</v>
       </c>
@@ -11677,8 +17457,36 @@
       <c r="AO203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="3:41" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP203" s="8"/>
+      <c r="AQ203" s="6"/>
+      <c r="AR203" s="8"/>
+      <c r="AS203" s="6"/>
+      <c r="AT203" s="8"/>
+      <c r="AU203" s="6"/>
+      <c r="AV203" s="8"/>
+      <c r="AW203" s="6"/>
+      <c r="AX203" s="8"/>
+      <c r="AY203" s="6"/>
+      <c r="AZ203" s="8"/>
+      <c r="BA203" s="6"/>
+      <c r="BB203" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC203" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD203" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE203" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="3:57" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>1304</v>
       </c>
@@ -11700,8 +17508,36 @@
       <c r="AO204">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="205" spans="3:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AP204" s="8"/>
+      <c r="AQ204" s="7"/>
+      <c r="AR204" s="8"/>
+      <c r="AS204" s="7"/>
+      <c r="AT204" s="8"/>
+      <c r="AU204" s="7"/>
+      <c r="AV204" s="8"/>
+      <c r="AW204" s="7"/>
+      <c r="AX204" s="8"/>
+      <c r="AY204" s="7"/>
+      <c r="AZ204" s="8"/>
+      <c r="BA204" s="7"/>
+      <c r="BB204" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC204" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD204" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE204" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="3:57" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C205" s="3" t="s">
         <v>1308</v>
       </c>
@@ -11723,8 +17559,37 @@
       <c r="AO205">
         <v>1</v>
       </c>
+      <c r="AP205" s="6"/>
+      <c r="AQ205" s="7"/>
+      <c r="AR205" s="6"/>
+      <c r="AS205" s="7"/>
+      <c r="AT205" s="6"/>
+      <c r="AU205" s="7"/>
+      <c r="AV205" s="6"/>
+      <c r="AW205" s="7"/>
+      <c r="AX205" s="6"/>
+      <c r="AY205" s="7"/>
+      <c r="AZ205" s="6"/>
+      <c r="BA205" s="7"/>
+      <c r="BB205" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BC205" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD205" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BE205" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="S100" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L101" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/6_Quality Appraisal/Quality_Appraisal.xlsx
+++ b/6_Quality Appraisal/Quality_Appraisal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina.sharepoint.com/sites/PRINMEDITATE/Shared Documents/SLR/RegressionTestingOptimizationSLR/6_Quality Appraisal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/6_Quality Appraisal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2666" documentId="13_ncr:1_{60034CB3-C5CB-EC4D-8E1F-7CB1A479B67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AEDCDD0-9B3C-4724-8022-2A850E641812}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBA6C62-F01F-6A40-949A-384EEDFE9D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
   <commentList>
     <comment ref="AX125" authorId="0" shapeId="0" xr:uid="{ACAF5DB7-39A9-DA4F-81D5-ACC0A1571768}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    da controllare</t>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+da controllare</t>
       </text>
     </comment>
   </commentList>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="1336">
   <si>
     <t>ID</t>
   </si>
@@ -4100,12 +4100,30 @@
   <si>
     <t>Test case prioritization assigns the execution priorities of the test cases in a given test suite. Many existing test case prioritization techniques assume the full-fledged availability of code coverage data, fault history, or test specification, which are seldom well-maintained in real-world software development projects. This paper proposes a novel family of input-based local-beam-search adaptive-randomized techniques. They make adaptive tree-based randomized explorations with a randomized candidate test set strategy to even out the search space explorations among the branches of the exploration trees constructed by the test inputs in the test suite. We report a validation experiment on a suite of four medium-size benchmarks. The results show that our techniques achieve either higher APFD values than or the same mean APFD values as the existing code-coverage-based greedy or search-based prioritization techniques, including Genetic, Greedy and ART, in both our controlled experiment and case study. Our techniques are also significantly more efficient than the Genetic and Greedy, but are less efficient than ART.</t>
   </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AN=1.0</t>
+  </si>
+  <si>
+    <t>AN=0.8</t>
+  </si>
+  <si>
+    <t>AN=0.5</t>
+  </si>
+  <si>
+    <t>AN=0.4</t>
+  </si>
+  <si>
+    <t>AN=0.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4227,7 +4245,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4283,12 +4301,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4305,6 +4317,1368 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BI$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN=1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BH$3:$BH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BI$3:$BI$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59E7-7544-B36B-120D29F13818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN=0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BH$3:$BH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BJ$3:$BJ$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59E7-7544-B36B-120D29F13818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BK$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN=0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BH$3:$BH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BK$3:$BK$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-59E7-7544-B36B-120D29F13818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BL$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN=0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BH$3:$BH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BL$3:$BL$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-59E7-7544-B36B-120D29F13818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BM$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AN=0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$BH$3:$BH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BM$3:$BM$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-59E7-7544-B36B-120D29F13818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1471775615"/>
+        <c:axId val="1471788159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1471775615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471788159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1471788159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1471775615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>481543</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>289983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>312210</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3033183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD88AA6F-6303-734C-2C1F-614D5A854C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4608,35 +5982,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI203"/>
+  <dimension ref="A1:BM203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BE3" sqref="BE3"/>
+      <pane xSplit="3" topLeftCell="BH1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="BL4" sqref="BL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="112.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="76.42578125" style="7" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="13"/>
+    <col min="1" max="1" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="112.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="76.5" style="7" customWidth="1"/>
+    <col min="6" max="9" width="8.83203125" style="13"/>
     <col min="10" max="10" width="125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="79.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="37.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="38" width="8.85546875" style="5"/>
-    <col min="39" max="39" width="93.140625" style="7" customWidth="1"/>
-    <col min="40" max="56" width="8.85546875" style="13"/>
-    <col min="57" max="57" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="8.85546875" style="5"/>
+    <col min="11" max="11" width="79.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="37.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="38" width="8.83203125" style="5"/>
+    <col min="39" max="39" width="93.1640625" style="7" customWidth="1"/>
+    <col min="40" max="56" width="8.83203125" style="13"/>
+    <col min="57" max="57" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="17.100000000000001" thickBot="1">
+    <row r="1" spans="1:65" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4809,7 +6183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="50.25" customHeight="1">
+    <row r="2" spans="1:65" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4893,13 +6267,31 @@
         <f>AVERAGE(BB2,BC2)</f>
         <v>0.18</v>
       </c>
-      <c r="BE2" s="19">
+      <c r="BE2" s="13">
         <f>AVERAGE(AO2,BD2)</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="BF2" s="20"/>
+      <c r="BF2" s="7"/>
+      <c r="BH2" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>1335</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" ht="255.95">
+    <row r="3" spans="1:65" ht="257" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>9022761</v>
       </c>
@@ -4973,20 +6365,42 @@
         <f t="shared" ref="BC3:BC26" si="1">AVERAGE(AQ3,AS3,AU3,AW3,AY3,BA3)</f>
         <v>0.63333333333333341</v>
       </c>
-      <c r="BD3" s="13">
-        <f t="shared" ref="BD3:BD26" si="2">AVERAGE(BB3,BC3)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="BE3" s="19">
-        <f t="shared" ref="BE3:BE26" si="3">AVERAGE(AO3,BD3)</f>
-        <v>0.54166666666666674</v>
+      <c r="BD3" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE3" s="13">
+        <f>AVERAGE(AO3,BD3)</f>
+        <v>0.5</v>
       </c>
       <c r="BF3" s="8"/>
       <c r="BG3" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="BH3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI3" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"1,0",$AN$2:$AN$1000,"PS", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>60</v>
+      </c>
+      <c r="BJ3" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,8",$AN$2:$AN$1000,"PS", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>24</v>
+      </c>
+      <c r="BK3" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,5",$AN$2:$AN$1000,"PS", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>17</v>
+      </c>
+      <c r="BL3" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,4",$AN$2:$AN$1000,"PS", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>9</v>
+      </c>
+      <c r="BM3" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,2",$AN$2:$AN$1000,"PS", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" ht="144">
+    <row r="4" spans="1:65" ht="145" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>7561371</v>
       </c>
@@ -5058,19 +6472,42 @@
         <v>0.63333333333333341</v>
       </c>
       <c r="BD4" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="BD3:BD26" si="2">AVERAGE(BB4,BC4)</f>
         <v>0.63333333333333341</v>
       </c>
       <c r="BE4" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="BE4:BE26" si="3">AVERAGE(AO4,BD4)</f>
         <v>0.51666666666666672</v>
       </c>
       <c r="BF4" s="10"/>
       <c r="BG4" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="BH4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI4" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"1,0",$AN$2:$AN$1000,"SLR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>4</v>
+      </c>
+      <c r="BJ4" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,8",$AN$2:$AN$1000,"SLR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>2</v>
+      </c>
+      <c r="BK4" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,5",$AN$2:$AN$1000,"SLR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>1</v>
+      </c>
+      <c r="BL4" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,4",$AN$2:$AN$1000,"SLR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>0</v>
+      </c>
+      <c r="BM4" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,2",$AN$2:$AN$1000,"SLR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" ht="224.1">
+    <row r="5" spans="1:65" ht="225" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>6884931</v>
       </c>
@@ -5153,8 +6590,31 @@
       <c r="BG5" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="BH5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI5" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"1,0",$AN$2:$AN$1000,"SR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>5</v>
+      </c>
+      <c r="BJ5" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,8",$AN$2:$AN$1000,"SR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>2</v>
+      </c>
+      <c r="BK5" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,5",$AN$2:$AN$1000,"SR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>1</v>
+      </c>
+      <c r="BL5" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,4",$AN$2:$AN$1000,"SR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>0</v>
+      </c>
+      <c r="BM5" s="5">
+        <f>COUNTIFS($AO$2:$AO$1000,"0,2",$AN$2:$AN$1000,"SR", $BE$2:$BE$1000,"&gt;=0,6")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" ht="192">
+    <row r="6" spans="1:65" ht="193" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>10048797</v>
       </c>
@@ -5250,7 +6710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="128.1">
+    <row r="7" spans="1:65" ht="128" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>8377903</v>
       </c>
@@ -5336,7 +6796,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="192">
+    <row r="8" spans="1:65" ht="192" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7045344</v>
       </c>
@@ -5428,7 +6888,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="192">
+    <row r="9" spans="1:65" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>9198020</v>
       </c>
@@ -5508,7 +6968,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="128.1">
+    <row r="10" spans="1:65" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8776936</v>
       </c>
@@ -5588,7 +7048,7 @@
         <v>0.51666666666666672</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="192">
+    <row r="11" spans="1:65" ht="192" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10197719</v>
       </c>
@@ -5687,7 +7147,7 @@
         <v>0.71666666666666656</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="207.95">
+    <row r="12" spans="1:65" ht="208" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>8261011</v>
       </c>
@@ -5767,7 +7227,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="176.1">
+    <row r="13" spans="1:65" ht="176" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>9160217</v>
       </c>
@@ -5861,7 +7321,7 @@
         <v>0.41416666666666668</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="176.1">
+    <row r="14" spans="1:65" ht="176" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>8229925</v>
       </c>
@@ -5941,7 +7401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="144">
+    <row r="15" spans="1:65" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>7207103</v>
       </c>
@@ -6021,7 +7481,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="96">
+    <row r="16" spans="1:65" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>7515934</v>
       </c>
@@ -6101,7 +7561,7 @@
         <v>0.60833333333333328</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="111.95">
+    <row r="17" spans="1:60" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>6888744</v>
       </c>
@@ -6181,7 +7641,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="144">
+    <row r="18" spans="1:60" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>7019794</v>
       </c>
@@ -6261,7 +7721,7 @@
         <v>0.51666666666666661</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="159.94999999999999">
+    <row r="19" spans="1:60" ht="160" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>7155012</v>
       </c>
@@ -6341,7 +7801,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:60" ht="159.94999999999999">
+    <row r="20" spans="1:60" ht="160" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>7380585</v>
       </c>
@@ -6433,7 +7893,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="128.1">
+    <row r="21" spans="1:60" ht="128" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>6949377</v>
       </c>
@@ -6513,7 +7973,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="128.1">
+    <row r="22" spans="1:60" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>7975319</v>
       </c>
@@ -6597,7 +8057,7 @@
         <v>0.48749999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="144">
+    <row r="23" spans="1:60" ht="144" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>7809434</v>
       </c>
@@ -6677,7 +8137,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="128.1">
+    <row r="24" spans="1:60" ht="128" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>7475187</v>
       </c>
@@ -6757,7 +8217,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="176.1">
+    <row r="25" spans="1:60" ht="176" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>7148505</v>
       </c>
@@ -6837,7 +8297,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="192">
+    <row r="26" spans="1:60" ht="192" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>6571611</v>
       </c>
@@ -6917,7 +8377,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="192">
+    <row r="27" spans="1:60" ht="192" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>10301343</v>
       </c>
@@ -6997,7 +8457,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="207.95">
+    <row r="28" spans="1:60" ht="208" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>8991616</v>
       </c>
@@ -7080,7 +8540,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="240">
+    <row r="29" spans="1:60" ht="240" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>9440156</v>
       </c>
@@ -7160,7 +8620,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="176.1">
+    <row r="30" spans="1:60" ht="176" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>7557497</v>
       </c>
@@ -7240,7 +8700,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="288">
+    <row r="31" spans="1:60" ht="288" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>8281742</v>
       </c>
@@ -7323,7 +8783,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="192">
+    <row r="32" spans="1:60" ht="192" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>8117002</v>
       </c>
@@ -7403,7 +8863,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="33" spans="1:57" ht="176.1">
+    <row r="33" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>10499739</v>
       </c>
@@ -7483,7 +8943,7 @@
         <v>0.41666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:57" ht="176.1">
+    <row r="34" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>10199547</v>
       </c>
@@ -7563,7 +9023,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:57" ht="207.95">
+    <row r="35" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>7273631</v>
       </c>
@@ -7649,7 +9109,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:57" ht="111.95">
+    <row r="36" spans="1:57" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>7885851</v>
       </c>
@@ -7729,7 +9189,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:57" ht="272.10000000000002">
+    <row r="37" spans="1:57" ht="272" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>10507913</v>
       </c>
@@ -7809,7 +9269,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:57" ht="176.1">
+    <row r="38" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>8305939</v>
       </c>
@@ -7889,7 +9349,7 @@
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="39" spans="1:57" ht="207.95">
+    <row r="39" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>9440161</v>
       </c>
@@ -7969,7 +9429,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:57" ht="207.95">
+    <row r="40" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>9796413</v>
       </c>
@@ -8049,7 +9509,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="41" spans="1:57" ht="192">
+    <row r="41" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>6844270</v>
       </c>
@@ -8129,7 +9589,7 @@
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="42" spans="1:57" ht="159.94999999999999">
+    <row r="42" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>7375627</v>
       </c>
@@ -8209,7 +9669,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="43" spans="1:57" ht="159.94999999999999">
+    <row r="43" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>8452804</v>
       </c>
@@ -8286,7 +9746,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:57" ht="159.94999999999999">
+    <row r="44" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>10932075</v>
       </c>
@@ -8366,7 +9826,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:57" ht="207.95">
+    <row r="45" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>7273420</v>
       </c>
@@ -8452,7 +9912,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:57" ht="240">
+    <row r="46" spans="1:57" ht="240" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>10298744</v>
       </c>
@@ -8535,7 +9995,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:57" ht="144">
+    <row r="47" spans="1:57" ht="144" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>9787970</v>
       </c>
@@ -8618,7 +10078,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="48" spans="1:57" ht="159.94999999999999">
+    <row r="48" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>8855691</v>
       </c>
@@ -8698,7 +10158,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="49" spans="1:57" ht="224.1">
+    <row r="49" spans="1:57" ht="224" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>8029584</v>
       </c>
@@ -8784,7 +10244,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="50" spans="1:57" ht="207.95">
+    <row r="50" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>7838169</v>
       </c>
@@ -8864,7 +10324,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:57" ht="159.94999999999999">
+    <row r="51" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>6569743</v>
       </c>
@@ -8947,7 +10407,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="52" spans="1:57" ht="159.94999999999999">
+    <row r="52" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>7783254</v>
       </c>
@@ -9027,7 +10487,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="53" spans="1:57" ht="159.94999999999999">
+    <row r="53" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>8854718</v>
       </c>
@@ -9107,7 +10567,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:57" ht="159.94999999999999">
+    <row r="54" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>8536351</v>
       </c>
@@ -9184,7 +10644,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="55" spans="1:57" ht="159.94999999999999">
+    <row r="55" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>7272924</v>
       </c>
@@ -9264,7 +10724,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:57" ht="240">
+    <row r="56" spans="1:57" ht="240" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>9741963</v>
       </c>
@@ -9344,7 +10804,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:57" ht="176.1">
+    <row r="57" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>10675922</v>
       </c>
@@ -9427,7 +10887,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:57" ht="111.95">
+    <row r="58" spans="1:57" ht="112" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>10229439</v>
       </c>
@@ -9510,7 +10970,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="59" spans="1:57" ht="159.94999999999999">
+    <row r="59" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>8625203</v>
       </c>
@@ -9590,7 +11050,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="60" spans="1:57" ht="128.1">
+    <row r="60" spans="1:57" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>6649891</v>
       </c>
@@ -9673,7 +11133,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="61" spans="1:57" ht="128.1">
+    <row r="61" spans="1:57" ht="128" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>10911525</v>
       </c>
@@ -9753,7 +11213,7 @@
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="62" spans="1:57" ht="159.94999999999999">
+    <row r="62" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>10196878</v>
       </c>
@@ -9836,7 +11296,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:57" ht="240">
+    <row r="63" spans="1:57" ht="240" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>10366665</v>
       </c>
@@ -9919,7 +11379,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="64" spans="1:57" ht="192">
+    <row r="64" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>7589817</v>
       </c>
@@ -9999,7 +11459,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="65" spans="1:57" ht="192">
+    <row r="65" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>7381799</v>
       </c>
@@ -10079,7 +11539,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="1:57" ht="207.95">
+    <row r="66" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>9103716</v>
       </c>
@@ -10159,7 +11619,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="67" spans="1:57" ht="240">
+    <row r="67" spans="1:57" ht="240" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>10621714</v>
       </c>
@@ -10239,7 +11699,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="68" spans="1:57" ht="96">
+    <row r="68" spans="1:57" ht="96" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>10216597</v>
       </c>
@@ -10322,7 +11782,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="69" spans="1:57" ht="192">
+    <row r="69" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>7943143</v>
       </c>
@@ -10402,7 +11862,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="70" spans="1:57" ht="176.1">
+    <row r="70" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>9142966</v>
       </c>
@@ -10482,7 +11942,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="71" spans="1:57" ht="224.1">
+    <row r="71" spans="1:57" ht="224" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>8530033</v>
       </c>
@@ -10565,7 +12025,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="72" spans="1:57" ht="176.1">
+    <row r="72" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>10298714</v>
       </c>
@@ -10648,7 +12108,7 @@
         <v>0.51666666666666661</v>
       </c>
     </row>
-    <row r="73" spans="1:57" ht="144">
+    <row r="73" spans="1:57" ht="144" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>8300829</v>
       </c>
@@ -10728,7 +12188,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:57" ht="207.95">
+    <row r="74" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>7819324</v>
       </c>
@@ -10811,7 +12271,7 @@
         <v>0.51666666666666672</v>
       </c>
     </row>
-    <row r="75" spans="1:57" ht="240">
+    <row r="75" spans="1:57" ht="240" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>10062444</v>
       </c>
@@ -10894,7 +12354,7 @@
         <v>0.51666666666666661</v>
       </c>
     </row>
-    <row r="76" spans="1:57" ht="255.95">
+    <row r="76" spans="1:57" ht="256" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>9825820</v>
       </c>
@@ -10977,7 +12437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:57" ht="176.1">
+    <row r="77" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>7272927</v>
       </c>
@@ -11057,7 +12517,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="78" spans="1:57" ht="128.1">
+    <row r="78" spans="1:57" ht="128" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>8539203</v>
       </c>
@@ -11137,7 +12597,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="79" spans="1:57" ht="192">
+    <row r="79" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>6928903</v>
       </c>
@@ -11217,7 +12677,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="80" spans="1:57" ht="159.94999999999999">
+    <row r="80" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>6595798</v>
       </c>
@@ -11297,7 +12757,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:57" ht="144">
+    <row r="81" spans="1:57" ht="144" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>7091286</v>
       </c>
@@ -11383,7 +12843,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="82" spans="1:57" ht="192">
+    <row r="82" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>10336260</v>
       </c>
@@ -11466,7 +12926,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="83" spans="1:57" ht="192">
+    <row r="83" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>10304799</v>
       </c>
@@ -11546,7 +13006,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="84" spans="1:57" ht="224.1">
+    <row r="84" spans="1:57" ht="224" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>10011478</v>
       </c>
@@ -11626,7 +13086,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:57" ht="272.10000000000002">
+    <row r="85" spans="1:57" ht="272" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>9260075</v>
       </c>
@@ -11706,7 +13166,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="86" spans="1:57" ht="207.95">
+    <row r="86" spans="1:57" ht="208" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>8914670</v>
       </c>
@@ -11789,7 +13249,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="87" spans="1:57" ht="224.1">
+    <row r="87" spans="1:57" ht="224" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>10877022</v>
       </c>
@@ -11872,7 +13332,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="88" spans="1:57" ht="176.1">
+    <row r="88" spans="1:57" ht="176" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>7507977</v>
       </c>
@@ -11952,7 +13412,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="89" spans="1:57" ht="144">
+    <row r="89" spans="1:57" ht="144" x14ac:dyDescent="0.2">
       <c r="A89" s="6">
         <v>8305938</v>
       </c>
@@ -12032,7 +13492,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="90" spans="1:57" ht="144">
+    <row r="90" spans="1:57" ht="144" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>7100474</v>
       </c>
@@ -12109,7 +13569,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="91" spans="1:57" ht="192">
+    <row r="91" spans="1:57" ht="192" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
         <v>8453107</v>
       </c>
@@ -12192,7 +13652,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="92" spans="1:57" ht="255.95">
+    <row r="92" spans="1:57" ht="256" x14ac:dyDescent="0.2">
       <c r="A92" s="6">
         <v>9464569</v>
       </c>
@@ -12275,7 +13735,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:57" ht="224.1">
+    <row r="93" spans="1:57" ht="224" x14ac:dyDescent="0.2">
       <c r="A93" s="6">
         <v>9616824</v>
       </c>
@@ -12355,7 +13815,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="94" spans="1:57" ht="159.94999999999999">
+    <row r="94" spans="1:57" ht="160" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
         <v>9155903</v>
       </c>
@@ -12435,7 +13895,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="95" spans="1:57" ht="224.1">
+    <row r="95" spans="1:57" ht="224" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
         <v>10493937</v>
       </c>
@@ -12515,7 +13975,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="96" spans="1:57" ht="111.95">
+    <row r="96" spans="1:57" ht="112" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
         <v>7828927</v>
       </c>
@@ -12595,7 +14055,7 @@
         <v>0.3666666666666667</v>
       </c>
     </row>
-    <row r="97" spans="1:61" ht="176.1">
+    <row r="97" spans="1:61" ht="176" x14ac:dyDescent="0.2">
       <c r="A97" s="6">
         <v>10660677</v>
       </c>
@@ -12675,7 +14135,7 @@
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="98" spans="1:61" ht="176.1">
+    <row r="98" spans="1:61" ht="176" x14ac:dyDescent="0.2">
       <c r="A98" s="6">
         <v>8754416</v>
       </c>
@@ -12761,7 +14221,7 @@
         <v>0.6166666666666667</v>
       </c>
     </row>
-    <row r="99" spans="1:61" ht="176.1">
+    <row r="99" spans="1:61" ht="176" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>7582788</v>
       </c>
@@ -12838,7 +14298,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:61" ht="224.1">
+    <row r="100" spans="1:61" ht="224" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>852</v>
       </c>
@@ -12936,7 +14396,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="101" spans="1:61" ht="176.1">
+    <row r="101" spans="1:61" ht="176" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>866</v>
       </c>
@@ -13041,7 +14501,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="102" spans="1:61" ht="240">
+    <row r="102" spans="1:61" ht="240" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>879</v>
       </c>
@@ -13127,7 +14587,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="103" spans="1:61" ht="192">
+    <row r="103" spans="1:61" ht="192" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>890</v>
       </c>
@@ -13213,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:61" ht="176.1">
+    <row r="104" spans="1:61" ht="176" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>899</v>
       </c>
@@ -13302,7 +14762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:61" ht="207.95">
+    <row r="105" spans="1:61" ht="208" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>909</v>
       </c>
@@ -13388,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:61" ht="365.1">
+    <row r="106" spans="1:61" ht="365" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>918</v>
       </c>
@@ -13474,7 +14934,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="107" spans="1:61" ht="207.95">
+    <row r="107" spans="1:61" ht="208" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>929</v>
       </c>
@@ -13560,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:61" ht="255.95">
+    <row r="108" spans="1:61" ht="256" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>938</v>
       </c>
@@ -13652,7 +15112,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="109" spans="1:61" ht="224.1">
+    <row r="109" spans="1:61" ht="224" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>951</v>
       </c>
@@ -13738,7 +15198,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="110" spans="1:61" ht="209.1" thickBot="1">
+    <row r="110" spans="1:61" ht="209" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>960</v>
       </c>
@@ -13824,7 +15284,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="111" spans="1:61" ht="96.95" thickBot="1">
+    <row r="111" spans="1:61" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C111" s="7" t="s">
         <v>969</v>
       </c>
@@ -13883,7 +15343,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="112" spans="1:61" ht="177" thickBot="1">
+    <row r="112" spans="1:61" ht="177" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C112" s="7" t="s">
         <v>973</v>
       </c>
@@ -13958,7 +15418,7 @@
         <v>0.90833333333333321</v>
       </c>
     </row>
-    <row r="113" spans="3:57" ht="192.95" thickBot="1">
+    <row r="113" spans="3:57" ht="193" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C113" s="7" t="s">
         <v>977</v>
       </c>
@@ -14017,7 +15477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:57" ht="128.1">
+    <row r="114" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C114" s="7" t="s">
         <v>981</v>
       </c>
@@ -14086,7 +15546,7 @@
         <v>0.54625000000000001</v>
       </c>
     </row>
-    <row r="115" spans="3:57" ht="128.1">
+    <row r="115" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C115" s="7" t="s">
         <v>985</v>
       </c>
@@ -14145,7 +15605,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="116" spans="3:57" ht="144">
+    <row r="116" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C116" s="7" t="s">
         <v>989</v>
       </c>
@@ -14204,7 +15664,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="117" spans="3:57" ht="96">
+    <row r="117" spans="3:57" ht="96" x14ac:dyDescent="0.2">
       <c r="C117" s="7" t="s">
         <v>993</v>
       </c>
@@ -14277,7 +15737,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="118" spans="3:57" ht="65.099999999999994" thickBot="1">
+    <row r="118" spans="3:57" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C118" s="7" t="s">
         <v>997</v>
       </c>
@@ -14348,7 +15808,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="119" spans="3:57" ht="129" thickBot="1">
+    <row r="119" spans="3:57" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C119" s="7" t="s">
         <v>1001</v>
       </c>
@@ -14423,7 +15883,7 @@
         <v>0.96666666666666656</v>
       </c>
     </row>
-    <row r="120" spans="3:57" ht="111.95">
+    <row r="120" spans="3:57" ht="112" x14ac:dyDescent="0.2">
       <c r="C120" s="7" t="s">
         <v>1004</v>
       </c>
@@ -14498,7 +15958,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="121" spans="3:57" ht="144">
+    <row r="121" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C121" s="7" t="s">
         <v>1008</v>
       </c>
@@ -14561,7 +16021,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="122" spans="3:57" ht="303.95">
+    <row r="122" spans="3:57" ht="304" x14ac:dyDescent="0.2">
       <c r="C122" s="7" t="s">
         <v>1012</v>
       </c>
@@ -14620,7 +16080,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="123" spans="3:57" ht="111.95">
+    <row r="123" spans="3:57" ht="112" x14ac:dyDescent="0.2">
       <c r="C123" s="7" t="s">
         <v>1016</v>
       </c>
@@ -14679,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="3:57" ht="128.1">
+    <row r="124" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C124" s="7" t="s">
         <v>1018</v>
       </c>
@@ -14738,7 +16198,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="125" spans="3:57" ht="207.95">
+    <row r="125" spans="3:57" ht="208" x14ac:dyDescent="0.2">
       <c r="C125" s="7" t="s">
         <v>1022</v>
       </c>
@@ -14813,7 +16273,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="126" spans="3:57" ht="144">
+    <row r="126" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C126" s="7" t="s">
         <v>1026</v>
       </c>
@@ -14872,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="3:57" ht="159.94999999999999">
+    <row r="127" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C127" s="7" t="s">
         <v>1030</v>
       </c>
@@ -14947,7 +16407,7 @@
         <v>0.90833333333333321</v>
       </c>
     </row>
-    <row r="128" spans="3:57" ht="128.1">
+    <row r="128" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C128" s="7" t="s">
         <v>1034</v>
       </c>
@@ -15006,7 +16466,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="129" spans="3:61" ht="111.95">
+    <row r="129" spans="3:61" ht="112" x14ac:dyDescent="0.2">
       <c r="C129" s="7" t="s">
         <v>1038</v>
       </c>
@@ -15065,7 +16525,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="130" spans="3:61" ht="176.1">
+    <row r="130" spans="3:61" ht="176" x14ac:dyDescent="0.2">
       <c r="C130" s="7" t="s">
         <v>1042</v>
       </c>
@@ -15143,7 +16603,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="131" spans="3:61" ht="144">
+    <row r="131" spans="3:61" ht="144" x14ac:dyDescent="0.2">
       <c r="C131" s="7" t="s">
         <v>1047</v>
       </c>
@@ -15202,7 +16662,7 @@
         <v>0.94166666666666665</v>
       </c>
     </row>
-    <row r="132" spans="3:61" ht="159.94999999999999">
+    <row r="132" spans="3:61" ht="160" x14ac:dyDescent="0.2">
       <c r="C132" s="7" t="s">
         <v>1051</v>
       </c>
@@ -15261,7 +16721,7 @@
         <v>0.60833333333333328</v>
       </c>
     </row>
-    <row r="133" spans="3:61" ht="144">
+    <row r="133" spans="3:61" ht="144" x14ac:dyDescent="0.2">
       <c r="C133" s="7" t="s">
         <v>1055</v>
       </c>
@@ -15320,7 +16780,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="134" spans="3:61" ht="176.1">
+    <row r="134" spans="3:61" ht="176" x14ac:dyDescent="0.2">
       <c r="C134" s="7" t="s">
         <v>1059</v>
       </c>
@@ -15379,7 +16839,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="135" spans="3:61" ht="240">
+    <row r="135" spans="3:61" ht="240" x14ac:dyDescent="0.2">
       <c r="C135" s="7" t="s">
         <v>1063</v>
       </c>
@@ -15438,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="3:61" ht="144">
+    <row r="136" spans="3:61" ht="144" x14ac:dyDescent="0.2">
       <c r="C136" s="7" t="s">
         <v>1067</v>
       </c>
@@ -15497,7 +16957,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="137" spans="3:61" ht="96">
+    <row r="137" spans="3:61" ht="96" x14ac:dyDescent="0.2">
       <c r="C137" s="7" t="s">
         <v>1071</v>
       </c>
@@ -15556,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="3:61" ht="176.1">
+    <row r="138" spans="3:61" ht="176" x14ac:dyDescent="0.2">
       <c r="C138" s="7" t="s">
         <v>1075</v>
       </c>
@@ -15615,7 +17075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:61" ht="176.1">
+    <row r="139" spans="3:61" ht="176" x14ac:dyDescent="0.2">
       <c r="C139" s="7" t="s">
         <v>1079</v>
       </c>
@@ -15677,7 +17137,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="140" spans="3:61" ht="255.95">
+    <row r="140" spans="3:61" ht="256" x14ac:dyDescent="0.2">
       <c r="C140" s="7" t="s">
         <v>1084</v>
       </c>
@@ -15736,7 +17196,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="3:61" ht="320.10000000000002">
+    <row r="141" spans="3:61" ht="320" x14ac:dyDescent="0.2">
       <c r="C141" s="7" t="s">
         <v>1087</v>
       </c>
@@ -15795,7 +17255,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="142" spans="3:61" ht="128.1">
+    <row r="142" spans="3:61" ht="128" x14ac:dyDescent="0.2">
       <c r="C142" s="7" t="s">
         <v>1091</v>
       </c>
@@ -15854,7 +17314,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="143" spans="3:61" ht="111.95">
+    <row r="143" spans="3:61" ht="112" x14ac:dyDescent="0.2">
       <c r="C143" s="7" t="s">
         <v>1095</v>
       </c>
@@ -15913,7 +17373,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="144" spans="3:61" ht="159.94999999999999">
+    <row r="144" spans="3:61" ht="160" x14ac:dyDescent="0.2">
       <c r="C144" s="7" t="s">
         <v>1099</v>
       </c>
@@ -15972,7 +17432,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="145" spans="3:57" ht="144">
+    <row r="145" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C145" s="7" t="s">
         <v>1103</v>
       </c>
@@ -16031,7 +17491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="3:57" ht="192">
+    <row r="146" spans="3:57" ht="192" x14ac:dyDescent="0.2">
       <c r="C146" s="7" t="s">
         <v>1107</v>
       </c>
@@ -16090,7 +17550,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="147" spans="3:57" ht="128.1">
+    <row r="147" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C147" s="7" t="s">
         <v>1111</v>
       </c>
@@ -16149,7 +17609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="3:57" ht="144">
+    <row r="148" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C148" s="7" t="s">
         <v>1115</v>
       </c>
@@ -16208,7 +17668,7 @@
         <v>0.7583333333333333</v>
       </c>
     </row>
-    <row r="149" spans="3:57" ht="176.1">
+    <row r="149" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C149" s="7" t="s">
         <v>1119</v>
       </c>
@@ -16267,7 +17727,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="150" spans="3:57" ht="144">
+    <row r="150" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C150" s="7" t="s">
         <v>1123</v>
       </c>
@@ -16326,7 +17786,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="3:57" ht="224.1">
+    <row r="151" spans="3:57" ht="224" x14ac:dyDescent="0.2">
       <c r="C151" s="7" t="s">
         <v>1127</v>
       </c>
@@ -16385,7 +17845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="3:57" ht="176.1">
+    <row r="152" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C152" s="7" t="s">
         <v>1131</v>
       </c>
@@ -16444,7 +17904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="3:57" ht="96">
+    <row r="153" spans="3:57" ht="96" x14ac:dyDescent="0.2">
       <c r="C153" s="7" t="s">
         <v>1135</v>
       </c>
@@ -16503,7 +17963,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="154" spans="3:57" ht="128.1">
+    <row r="154" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C154" s="7" t="s">
         <v>1139</v>
       </c>
@@ -16562,7 +18022,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="155" spans="3:57" ht="159.94999999999999">
+    <row r="155" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C155" s="7" t="s">
         <v>1143</v>
       </c>
@@ -16621,7 +18081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="3:57" ht="207.95">
+    <row r="156" spans="3:57" ht="208" x14ac:dyDescent="0.2">
       <c r="C156" s="7" t="s">
         <v>1147</v>
       </c>
@@ -16680,7 +18140,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="157" spans="3:57" ht="96">
+    <row r="157" spans="3:57" ht="96" x14ac:dyDescent="0.2">
       <c r="C157" s="7" t="s">
         <v>1151</v>
       </c>
@@ -16739,7 +18199,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="158" spans="3:57" ht="159.94999999999999">
+    <row r="158" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C158" s="7" t="s">
         <v>1155</v>
       </c>
@@ -16798,7 +18258,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="159" spans="3:57" ht="128.1">
+    <row r="159" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C159" s="7" t="s">
         <v>1159</v>
       </c>
@@ -16857,7 +18317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="3:57" ht="144">
+    <row r="160" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C160" s="7" t="s">
         <v>1163</v>
       </c>
@@ -16916,7 +18376,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="161" spans="3:57" ht="176.1">
+    <row r="161" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C161" s="7" t="s">
         <v>1166</v>
       </c>
@@ -16975,7 +18435,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="162" spans="3:57" ht="176.1">
+    <row r="162" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C162" s="7" t="s">
         <v>1170</v>
       </c>
@@ -17034,7 +18494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="3:57" ht="159.94999999999999">
+    <row r="163" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C163" s="7" t="s">
         <v>1173</v>
       </c>
@@ -17093,7 +18553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="3:57" ht="176.1">
+    <row r="164" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C164" s="7" t="s">
         <v>1176</v>
       </c>
@@ -17152,7 +18612,7 @@
         <v>0.51666666666666661</v>
       </c>
     </row>
-    <row r="165" spans="3:57" ht="111.95">
+    <row r="165" spans="3:57" ht="112" x14ac:dyDescent="0.2">
       <c r="C165" s="7" t="s">
         <v>1180</v>
       </c>
@@ -17167,9 +18627,6 @@
       </c>
       <c r="J165" s="7" t="s">
         <v>1183</v>
-      </c>
-      <c r="AN165" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="AO165" s="13">
         <v>0.8</v>
@@ -17211,7 +18668,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="166" spans="3:57" ht="128.1">
+    <row r="166" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C166" s="7" t="s">
         <v>1184</v>
       </c>
@@ -17270,7 +18727,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="167" spans="3:57" ht="176.1">
+    <row r="167" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C167" s="7" t="s">
         <v>1188</v>
       </c>
@@ -17329,7 +18786,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="168" spans="3:57" ht="192">
+    <row r="168" spans="3:57" ht="192" x14ac:dyDescent="0.2">
       <c r="C168" s="7" t="s">
         <v>1191</v>
       </c>
@@ -17388,7 +18845,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="169" spans="3:57" ht="111.95">
+    <row r="169" spans="3:57" ht="112" x14ac:dyDescent="0.2">
       <c r="C169" s="7" t="s">
         <v>1195</v>
       </c>
@@ -17447,7 +18904,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="170" spans="3:57" ht="144">
+    <row r="170" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C170" s="7" t="s">
         <v>1199</v>
       </c>
@@ -17506,7 +18963,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="171" spans="3:57" ht="159.94999999999999">
+    <row r="171" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C171" s="7" t="s">
         <v>1203</v>
       </c>
@@ -17579,7 +19036,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="172" spans="3:57" ht="159.94999999999999">
+    <row r="172" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C172" s="7" t="s">
         <v>1206</v>
       </c>
@@ -17638,7 +19095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:57" ht="159.94999999999999">
+    <row r="173" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C173" s="7" t="s">
         <v>1210</v>
       </c>
@@ -17697,7 +19154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="3:57" ht="159.94999999999999">
+    <row r="174" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C174" s="7" t="s">
         <v>1213</v>
       </c>
@@ -17756,7 +19213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="3:57" ht="144">
+    <row r="175" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C175" s="7" t="s">
         <v>1217</v>
       </c>
@@ -17831,7 +19288,7 @@
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="176" spans="3:57" ht="144">
+    <row r="176" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C176" s="7" t="s">
         <v>1221</v>
       </c>
@@ -17890,7 +19347,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="177" spans="3:57" ht="159.94999999999999">
+    <row r="177" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C177" s="7" t="s">
         <v>1225</v>
       </c>
@@ -17949,7 +19406,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="178" spans="3:57" ht="111.95">
+    <row r="178" spans="3:57" ht="112" x14ac:dyDescent="0.2">
       <c r="C178" s="7" t="s">
         <v>1229</v>
       </c>
@@ -18008,7 +19465,7 @@
         <v>0.51666666666666661</v>
       </c>
     </row>
-    <row r="179" spans="3:57" ht="96">
+    <row r="179" spans="3:57" ht="96" x14ac:dyDescent="0.2">
       <c r="C179" s="7" t="s">
         <v>1233</v>
       </c>
@@ -18067,7 +19524,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="180" spans="3:57" ht="128.1">
+    <row r="180" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C180" s="7" t="s">
         <v>1237</v>
       </c>
@@ -18126,7 +19583,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="181" spans="3:57" ht="192">
+    <row r="181" spans="3:57" ht="192" x14ac:dyDescent="0.2">
       <c r="C181" s="7" t="s">
         <v>1241</v>
       </c>
@@ -18201,7 +19658,7 @@
         <v>0.72083333333333333</v>
       </c>
     </row>
-    <row r="182" spans="3:57" ht="128.1">
+    <row r="182" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C182" s="7" t="s">
         <v>1245</v>
       </c>
@@ -18272,7 +19729,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="183" spans="3:57" ht="96">
+    <row r="183" spans="3:57" ht="96" x14ac:dyDescent="0.2">
       <c r="C183" s="7" t="s">
         <v>1249</v>
       </c>
@@ -18345,7 +19802,7 @@
         <v>0.43499999999999994</v>
       </c>
     </row>
-    <row r="184" spans="3:57" ht="159.94999999999999">
+    <row r="184" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C184" s="7" t="s">
         <v>1254</v>
       </c>
@@ -18404,7 +19861,7 @@
         <v>0.76666666666666661</v>
       </c>
     </row>
-    <row r="185" spans="3:57" ht="207.95">
+    <row r="185" spans="3:57" ht="208" x14ac:dyDescent="0.2">
       <c r="C185" s="7" t="s">
         <v>1258</v>
       </c>
@@ -18463,7 +19920,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="186" spans="3:57" ht="192">
+    <row r="186" spans="3:57" ht="192" x14ac:dyDescent="0.2">
       <c r="C186" s="7" t="s">
         <v>1262</v>
       </c>
@@ -18522,7 +19979,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="187" spans="3:57" ht="96">
+    <row r="187" spans="3:57" ht="96" x14ac:dyDescent="0.2">
       <c r="C187" s="7" t="s">
         <v>1266</v>
       </c>
@@ -18581,7 +20038,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="3:57" ht="80.099999999999994">
+    <row r="188" spans="3:57" ht="80" x14ac:dyDescent="0.2">
       <c r="C188" s="7" t="s">
         <v>1270</v>
       </c>
@@ -18640,7 +20097,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="189" spans="3:57" ht="176.1">
+    <row r="189" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C189" s="7" t="s">
         <v>1274</v>
       </c>
@@ -18699,7 +20156,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="190" spans="3:57" ht="159.94999999999999">
+    <row r="190" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C190" s="7" t="s">
         <v>1278</v>
       </c>
@@ -18758,7 +20215,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="191" spans="3:57" ht="144">
+    <row r="191" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C191" s="7" t="s">
         <v>1282</v>
       </c>
@@ -18817,7 +20274,7 @@
         <v>0.68333333333333335</v>
       </c>
     </row>
-    <row r="192" spans="3:57" ht="128.1">
+    <row r="192" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C192" s="7" t="s">
         <v>1286</v>
       </c>
@@ -18876,7 +20333,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="193" spans="3:57" ht="192">
+    <row r="193" spans="3:57" ht="192" x14ac:dyDescent="0.2">
       <c r="C193" s="7" t="s">
         <v>1290</v>
       </c>
@@ -18935,7 +20392,7 @@
         <v>0.81666666666666665</v>
       </c>
     </row>
-    <row r="194" spans="3:57" ht="144">
+    <row r="194" spans="3:57" ht="144" x14ac:dyDescent="0.2">
       <c r="C194" s="7" t="s">
         <v>1294</v>
       </c>
@@ -18994,7 +20451,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="195" spans="3:57" ht="159.94999999999999">
+    <row r="195" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C195" s="7" t="s">
         <v>1298</v>
       </c>
@@ -19069,7 +20526,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="196" spans="3:57" ht="176.1">
+    <row r="196" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C196" s="7" t="s">
         <v>1302</v>
       </c>
@@ -19128,7 +20585,7 @@
         <v>0.8833333333333333</v>
       </c>
     </row>
-    <row r="197" spans="3:57" ht="159.94999999999999">
+    <row r="197" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C197" s="7" t="s">
         <v>1305</v>
       </c>
@@ -19187,7 +20644,7 @@
         <v>0.84166666666666667</v>
       </c>
     </row>
-    <row r="198" spans="3:57" ht="159.94999999999999">
+    <row r="198" spans="3:57" ht="160" x14ac:dyDescent="0.2">
       <c r="C198" s="7" t="s">
         <v>1309</v>
       </c>
@@ -19246,7 +20703,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="199" spans="3:57" ht="111.95">
+    <row r="199" spans="3:57" ht="112" x14ac:dyDescent="0.2">
       <c r="C199" s="7" t="s">
         <v>1313</v>
       </c>
@@ -19316,7 +20773,7 @@
         <v>0.42416666666666669</v>
       </c>
     </row>
-    <row r="200" spans="3:57" ht="192">
+    <row r="200" spans="3:57" ht="192" x14ac:dyDescent="0.2">
       <c r="C200" s="7" t="s">
         <v>1316</v>
       </c>
@@ -19375,7 +20832,7 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="201" spans="3:57" ht="176.1">
+    <row r="201" spans="3:57" ht="176" x14ac:dyDescent="0.2">
       <c r="C201" s="7" t="s">
         <v>1320</v>
       </c>
@@ -19434,7 +20891,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="202" spans="3:57" ht="288">
+    <row r="202" spans="3:57" ht="288" x14ac:dyDescent="0.2">
       <c r="C202" s="7" t="s">
         <v>1323</v>
       </c>
@@ -19493,7 +20950,7 @@
         <v>0.58333333333333326</v>
       </c>
     </row>
-    <row r="203" spans="3:57" ht="128.1">
+    <row r="203" spans="3:57" ht="128" x14ac:dyDescent="0.2">
       <c r="C203" s="7" t="s">
         <v>1327</v>
       </c>
@@ -19578,7 +21035,8 @@
     <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId22"/>
+  <drawing r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -19798,13 +21256,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C2E995-E4B5-43AB-976A-D7C66C193ADA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C2E995-E4B5-43AB-976A-D7C66C193ADA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{943FC6A1-4453-4C1A-9E7F-BF39CEFF06B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{943FC6A1-4453-4C1A-9E7F-BF39CEFF06B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E930122-8DA5-429F-A725-BB94052D8ABA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E930122-8DA5-429F-A725-BB94052D8ABA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>